--- a/20_営業/07_会計/MD050/ERP_MD050_CFO_001_A09_経費精算データのシステム承認抽出_BI Publisher.xlsx
+++ b/20_営業/07_会計/MD050/ERP_MD050_CFO_001_A09_経費精算データのシステム承認抽出_BI Publisher.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Acomsv01\障害対応\E_本稼動_19401～19500\E_本稼動_19494【会計】ダミー科目での経費計上\20_成果物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Acomsv01\障害対応\E_本稼動_19801～19900\E_本稼動_19805【会計】経費精算システム承認\20_成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -85,7 +85,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">再実行方法!$A$1:$AX$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A:$H</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$E$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$E$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'別紙 レイアウト'!$A$1:$BI$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'別紙 項目編集'!$A$1:$BH$63</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="620">
   <si>
     <t>MD.020.概要設計書</t>
     <rPh sb="7" eb="9">
@@ -3234,72 +3234,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">【GL勘定が未更新の経費精算データを除外】
-NOT EXISTS
-(
-    SELECT EXM_EXPENSE_REPORTS. EXPENSE_REPORT_ID
-    FROM    EXM_EXPENSE_DISTS,
-                  GL_CODE_COMBINATIONS,
-     WHERE   EXM_EXPENSE_REPORTS. EXPENSE_REPORT_ID  =  EXM_EXPENSE_DISTS. EXPENSE_REPORT_ID
-    AND       EXM_EXPENSE_DISTS. CODE_COMBINATION_ID  &lt;&gt;  GL_CODE_COMBINATIONS. CODE_COMBINATION_ID
-    GROUP BY
-                 EXM_EXPENSE_REPORTS. EXPENSE_REPORT_ID
- )
-※EXM_EXPENSE_REPORTSは、明細取得時の別名を使用するためFROM句に記載なし。
-比較対象の組合せが登録されている確認
- EXISTS
-   (
-   SELECT
-     'X'
-   FROM
-     GL_CODE_COMBINATIONS
-   WHERE
-         GL_CODE_COMBINATIONS.SEGMENT1 = COALESCE( FND_LOOKUP_VALUES.ATTRIBUTE1, GL_CODE_COMBINATIONS.SEGMENT1 )
-     AND GL_CODE_COMBINATIONS.SEGMENT2 = COALESCE( FND_LOOKUP_VALUES.ATTRIBUTE2, GL_CODE_COMBINATIONS.SEGMENT2 )
-     AND GL_CODE_COMBINATIONS.SEGMENT3 = COALESCE( FND_LOOKUP_VALUES.ATTRIBUTE3, GL_CODE_COMBINATIONS.SEGMENT3 )
-     AND GL_CODE_COMBINATIONS.SEGMENT4 = COALESCE( FND_LOOKUP_VALUES.ATTRIBUTE4, GL_CODE_COMBINATIONS.SEGMENT4 )
-     AND GL_CODE_COMBINATIONS.SEGMENT5 = COALESCE( FND_LOOKUP_VALUES.ATTRIBUTE5, GL_CODE_COMBINATIONS.SEGMENT5 )
-     AND GL_CODE_COMBINATIONS.SEGMENT6 = COALESCE( FND_LOOKUP_VALUES.ATTRIBUTE6, GL_CODE_COMBINATIONS.SEGMENT6 )
-     AND GL_CODE_COMBINATIONS.SEGMENT7 = COALESCE( FND_LOOKUP_VALUES.ATTRIBUTE7, GL_CODE_COMBINATIONS.SEGMENT7 )
-     AND GL_CODE_COMBINATIONS.SEGMENT8 = COALESCE( FND_LOOKUP_VALUES.ATTRIBUTE8, GL_CODE_COMBINATIONS.SEGMENT8 )
-   )
-以下結合時の抽出条件
- FND_LOOKUP_VALUES.LOOKUP_TYPE = 'XXCFO_SALES_EXPENSE_AFF'
- FND_LOOKUP_VALUES.LANGUAGE = 'JA'
-</t>
-    <rPh sb="470" eb="472">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="472" eb="474">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="475" eb="477">
-      <t>クミアワ</t>
-    </rPh>
-    <rPh sb="479" eb="481">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="486" eb="488">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="1474" eb="1476">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="1476" eb="1478">
-      <t>ケツゴウ</t>
-    </rPh>
-    <rPh sb="1478" eb="1479">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="1480" eb="1482">
-      <t>チュウシュツ</t>
-    </rPh>
-    <rPh sb="1482" eb="1484">
-      <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>T_MD050_CFO_001_A09</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -3560,10 +3494,6 @@
   </si>
   <si>
     <t>PT課題No.PT0001対応</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Issue1.3</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -3657,6 +3587,106 @@
 ※EXM_EXPENSE_REPORTSおよびEXM_EXPENSESは、明細取得時の別名を使用するためFROM句に記載なし。</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>Issue1.4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SCSK 須藤賢太郎</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>E_本稼動_19805【会計】経費精算システム承認対応</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">【GL勘定が未更新の経費精算データを除外】
+NOT EXISTS
+(
+    SELECT EXM_EXPENSE_REPORTS. EXPENSE_REPORT_ID
+    FROM    EXM_EXPENSE_DISTS,
+                  GL_CODE_COMBINATIONS,
+     WHERE   EXM_EXPENSE_REPORTS. EXPENSE_REPORT_ID  =  EXM_EXPENSE_DISTS. EXPENSE_REPORT_ID
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>AND       EXM_EXPENSES. EXPENSE_ID  =  EXM_EXPENSE_DISTS. EXPENSE_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+      AND       EXM_EXPENSE_DISTS. CODE_COMBINATION_ID  &lt;&gt;  GL_CODE_COMBINATIONS. CODE_COMBINATION_ID
+    GROUP BY
+                 EXM_EXPENSE_REPORTS. EXPENSE_REPORT_ID
+ )
+※EXM_EXPENSE_REPORTSは、明細取得時の別名を使用するためFROM句に記載なし。
+比較対象の組合せが登録されている確認
+ EXISTS
+   (
+   SELECT
+     'X'
+   FROM
+     GL_CODE_COMBINATIONS
+   WHERE
+         GL_CODE_COMBINATIONS.SEGMENT1 = COALESCE( FND_LOOKUP_VALUES.ATTRIBUTE1, GL_CODE_COMBINATIONS.SEGMENT1 )
+     AND GL_CODE_COMBINATIONS.SEGMENT2 = COALESCE( FND_LOOKUP_VALUES.ATTRIBUTE2, GL_CODE_COMBINATIONS.SEGMENT2 )
+     AND GL_CODE_COMBINATIONS.SEGMENT3 = COALESCE( FND_LOOKUP_VALUES.ATTRIBUTE3, GL_CODE_COMBINATIONS.SEGMENT3 )
+     AND GL_CODE_COMBINATIONS.SEGMENT4 = COALESCE( FND_LOOKUP_VALUES.ATTRIBUTE4, GL_CODE_COMBINATIONS.SEGMENT4 )
+     AND GL_CODE_COMBINATIONS.SEGMENT5 = COALESCE( FND_LOOKUP_VALUES.ATTRIBUTE5, GL_CODE_COMBINATIONS.SEGMENT5 )
+     AND GL_CODE_COMBINATIONS.SEGMENT6 = COALESCE( FND_LOOKUP_VALUES.ATTRIBUTE6, GL_CODE_COMBINATIONS.SEGMENT6 )
+     AND GL_CODE_COMBINATIONS.SEGMENT7 = COALESCE( FND_LOOKUP_VALUES.ATTRIBUTE7, GL_CODE_COMBINATIONS.SEGMENT7 )
+     AND GL_CODE_COMBINATIONS.SEGMENT8 = COALESCE( FND_LOOKUP_VALUES.ATTRIBUTE8, GL_CODE_COMBINATIONS.SEGMENT8 )
+   )
+以下結合時の抽出条件
+ FND_LOOKUP_VALUES.LOOKUP_TYPE = 'XXCFO_SALES_EXPENSE_AFF'
+ FND_LOOKUP_VALUES.LANGUAGE = 'JA'
+</t>
+    </r>
+    <rPh sb="547" eb="549">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="549" eb="551">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="552" eb="554">
+      <t>クミアワ</t>
+    </rPh>
+    <rPh sb="556" eb="558">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="563" eb="565">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="1551" eb="1553">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="1553" eb="1555">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="1555" eb="1556">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="1557" eb="1559">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="1559" eb="1561">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -3666,7 +3696,7 @@
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4007,14 +4037,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF00FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -4476,7 +4498,7 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="288">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5058,13 +5080,13 @@
     <xf numFmtId="49" fontId="35" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5099,15 +5121,6 @@
     </xf>
     <xf numFmtId="49" fontId="22" fillId="6" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5333,8 +5346,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF00FF"/>
       <color rgb="FFFF99CC"/>
-      <color rgb="FFFF00FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -6234,8 +6247,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1485311" y="4172244"/>
-          <a:ext cx="921727" cy="540726"/>
+          <a:off x="1633901" y="4440849"/>
+          <a:ext cx="1007452" cy="597876"/>
           <a:chOff x="1633901" y="4440849"/>
           <a:chExt cx="1007452" cy="597876"/>
         </a:xfrm>
@@ -6490,8 +6503,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1494836" y="4640874"/>
-          <a:ext cx="921727" cy="540726"/>
+          <a:off x="1643426" y="4955199"/>
+          <a:ext cx="1007452" cy="597876"/>
           <a:chOff x="1633901" y="4440849"/>
           <a:chExt cx="1007452" cy="597876"/>
         </a:xfrm>
@@ -6731,8 +6744,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1494836" y="5099979"/>
-          <a:ext cx="921727" cy="552156"/>
+          <a:off x="1643426" y="5460024"/>
+          <a:ext cx="1007452" cy="597876"/>
           <a:chOff x="1633901" y="4440849"/>
           <a:chExt cx="1007452" cy="597876"/>
         </a:xfrm>
@@ -6987,8 +7000,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1048408" y="4162719"/>
-          <a:ext cx="451192" cy="531201"/>
+          <a:off x="1145563" y="4431324"/>
+          <a:ext cx="502627" cy="588351"/>
           <a:chOff x="1633901" y="4440849"/>
           <a:chExt cx="502627" cy="588351"/>
         </a:xfrm>
@@ -7108,8 +7121,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1041082" y="4640874"/>
-          <a:ext cx="465843" cy="542631"/>
+          <a:off x="1138237" y="4955199"/>
+          <a:ext cx="517278" cy="588351"/>
           <a:chOff x="1619250" y="4440849"/>
           <a:chExt cx="517278" cy="588351"/>
         </a:xfrm>
@@ -7229,8 +7242,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1041082" y="5119029"/>
-          <a:ext cx="465843" cy="542631"/>
+          <a:off x="1138237" y="5479074"/>
+          <a:ext cx="517278" cy="588351"/>
           <a:chOff x="1619250" y="4440849"/>
           <a:chExt cx="517278" cy="588351"/>
         </a:xfrm>
@@ -7350,8 +7363,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1269388" y="3713139"/>
-          <a:ext cx="451192" cy="531201"/>
+          <a:off x="1383688" y="3936024"/>
+          <a:ext cx="502627" cy="588351"/>
           <a:chOff x="1633901" y="4440849"/>
           <a:chExt cx="502627" cy="588351"/>
         </a:xfrm>
@@ -7471,8 +7484,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1808503" y="3713139"/>
-          <a:ext cx="451192" cy="531201"/>
+          <a:off x="1974238" y="3936024"/>
+          <a:ext cx="502627" cy="588351"/>
           <a:chOff x="1633901" y="4440849"/>
           <a:chExt cx="502627" cy="588351"/>
         </a:xfrm>
@@ -9129,7 +9142,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="179">
-        <v>45251</v>
+        <v>45330</v>
       </c>
       <c r="E16" s="178"/>
     </row>
@@ -9139,7 +9152,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="178" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E17" s="178"/>
     </row>
@@ -9149,7 +9162,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="180" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="E18" s="181"/>
     </row>
@@ -9291,34 +9304,34 @@
       <c r="BG4" s="101"/>
     </row>
     <row r="5" spans="1:59" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="C5" s="263" t="s">
+      <c r="C5" s="260" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="264"/>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
-      <c r="G5" s="264"/>
-      <c r="H5" s="264"/>
-      <c r="I5" s="264"/>
-      <c r="J5" s="265"/>
-      <c r="K5" s="279" t="s">
+      <c r="D5" s="261"/>
+      <c r="E5" s="261"/>
+      <c r="F5" s="261"/>
+      <c r="G5" s="261"/>
+      <c r="H5" s="261"/>
+      <c r="I5" s="261"/>
+      <c r="J5" s="262"/>
+      <c r="K5" s="276" t="s">
         <v>169</v>
       </c>
-      <c r="L5" s="280"/>
-      <c r="M5" s="280"/>
-      <c r="N5" s="280"/>
-      <c r="O5" s="280"/>
-      <c r="P5" s="280"/>
-      <c r="Q5" s="280"/>
-      <c r="R5" s="280"/>
-      <c r="S5" s="280"/>
-      <c r="T5" s="280"/>
-      <c r="U5" s="280"/>
-      <c r="V5" s="280"/>
-      <c r="W5" s="280"/>
-      <c r="X5" s="280"/>
-      <c r="Y5" s="280"/>
-      <c r="Z5" s="281"/>
+      <c r="L5" s="277"/>
+      <c r="M5" s="277"/>
+      <c r="N5" s="277"/>
+      <c r="O5" s="277"/>
+      <c r="P5" s="277"/>
+      <c r="Q5" s="277"/>
+      <c r="R5" s="277"/>
+      <c r="S5" s="277"/>
+      <c r="T5" s="277"/>
+      <c r="U5" s="277"/>
+      <c r="V5" s="277"/>
+      <c r="W5" s="277"/>
+      <c r="X5" s="277"/>
+      <c r="Y5" s="277"/>
+      <c r="Z5" s="278"/>
     </row>
     <row r="6" spans="1:59" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B6" s="30"/>
@@ -9354,127 +9367,127 @@
     </row>
     <row r="8" spans="1:59" s="153" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="152"/>
-      <c r="C8" s="275" t="s">
+      <c r="C8" s="272" t="s">
         <v>176</v>
       </c>
-      <c r="D8" s="275"/>
-      <c r="E8" s="282" t="s">
+      <c r="D8" s="272"/>
+      <c r="E8" s="279" t="s">
         <v>178</v>
       </c>
-      <c r="F8" s="282"/>
-      <c r="G8" s="282"/>
-      <c r="H8" s="282"/>
-      <c r="I8" s="282"/>
-      <c r="J8" s="282"/>
-      <c r="K8" s="282" t="s">
+      <c r="F8" s="279"/>
+      <c r="G8" s="279"/>
+      <c r="H8" s="279"/>
+      <c r="I8" s="279"/>
+      <c r="J8" s="279"/>
+      <c r="K8" s="279" t="s">
         <v>423</v>
       </c>
-      <c r="L8" s="282"/>
-      <c r="M8" s="282"/>
-      <c r="N8" s="282"/>
-      <c r="O8" s="282"/>
-      <c r="P8" s="282"/>
-      <c r="Q8" s="275" t="s">
+      <c r="L8" s="279"/>
+      <c r="M8" s="279"/>
+      <c r="N8" s="279"/>
+      <c r="O8" s="279"/>
+      <c r="P8" s="279"/>
+      <c r="Q8" s="272" t="s">
         <v>424</v>
       </c>
-      <c r="R8" s="275"/>
-      <c r="S8" s="275"/>
-      <c r="T8" s="275" t="s">
+      <c r="R8" s="272"/>
+      <c r="S8" s="272"/>
+      <c r="T8" s="272" t="s">
         <v>425</v>
       </c>
-      <c r="U8" s="275"/>
-      <c r="V8" s="275"/>
-      <c r="W8" s="275" t="s">
+      <c r="U8" s="272"/>
+      <c r="V8" s="272"/>
+      <c r="W8" s="272" t="s">
         <v>426</v>
       </c>
-      <c r="X8" s="275"/>
-      <c r="Y8" s="275"/>
-      <c r="Z8" s="275" t="s">
+      <c r="X8" s="272"/>
+      <c r="Y8" s="272"/>
+      <c r="Z8" s="272" t="s">
         <v>427</v>
       </c>
-      <c r="AA8" s="275"/>
-      <c r="AB8" s="275"/>
-      <c r="AC8" s="275" t="s">
+      <c r="AA8" s="272"/>
+      <c r="AB8" s="272"/>
+      <c r="AC8" s="272" t="s">
         <v>428</v>
       </c>
-      <c r="AD8" s="275"/>
-      <c r="AE8" s="275"/>
-      <c r="AF8" s="275" t="s">
+      <c r="AD8" s="272"/>
+      <c r="AE8" s="272"/>
+      <c r="AF8" s="272" t="s">
         <v>429</v>
       </c>
-      <c r="AG8" s="275"/>
-      <c r="AH8" s="275"/>
-      <c r="AI8" s="275" t="s">
+      <c r="AG8" s="272"/>
+      <c r="AH8" s="272"/>
+      <c r="AI8" s="272" t="s">
         <v>430</v>
       </c>
-      <c r="AJ8" s="275"/>
-      <c r="AK8" s="275"/>
-      <c r="AL8" s="275" t="s">
+      <c r="AJ8" s="272"/>
+      <c r="AK8" s="272"/>
+      <c r="AL8" s="272" t="s">
         <v>431</v>
       </c>
-      <c r="AM8" s="275"/>
-      <c r="AN8" s="275"/>
+      <c r="AM8" s="272"/>
+      <c r="AN8" s="272"/>
     </row>
     <row r="9" spans="1:59" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A9" s="70"/>
-      <c r="C9" s="276">
+      <c r="C9" s="273">
         <v>1</v>
       </c>
-      <c r="D9" s="276"/>
-      <c r="E9" s="277" t="s">
+      <c r="D9" s="273"/>
+      <c r="E9" s="274" t="s">
         <v>432</v>
       </c>
-      <c r="F9" s="277"/>
-      <c r="G9" s="277"/>
-      <c r="H9" s="277"/>
-      <c r="I9" s="277"/>
-      <c r="J9" s="277"/>
-      <c r="K9" s="277" t="s">
+      <c r="F9" s="274"/>
+      <c r="G9" s="274"/>
+      <c r="H9" s="274"/>
+      <c r="I9" s="274"/>
+      <c r="J9" s="274"/>
+      <c r="K9" s="274" t="s">
         <v>433</v>
       </c>
-      <c r="L9" s="277"/>
-      <c r="M9" s="277"/>
-      <c r="N9" s="277"/>
-      <c r="O9" s="277"/>
-      <c r="P9" s="277"/>
-      <c r="Q9" s="278" t="s">
+      <c r="L9" s="274"/>
+      <c r="M9" s="274"/>
+      <c r="N9" s="274"/>
+      <c r="O9" s="274"/>
+      <c r="P9" s="274"/>
+      <c r="Q9" s="275" t="s">
         <v>434</v>
       </c>
-      <c r="R9" s="278"/>
-      <c r="S9" s="278"/>
-      <c r="T9" s="278" t="s">
+      <c r="R9" s="275"/>
+      <c r="S9" s="275"/>
+      <c r="T9" s="275" t="s">
         <v>435</v>
       </c>
-      <c r="U9" s="278"/>
-      <c r="V9" s="278"/>
-      <c r="W9" s="278" t="s">
+      <c r="U9" s="275"/>
+      <c r="V9" s="275"/>
+      <c r="W9" s="275" t="s">
         <v>436</v>
       </c>
-      <c r="X9" s="278"/>
-      <c r="Y9" s="278"/>
-      <c r="Z9" s="278" t="s">
+      <c r="X9" s="275"/>
+      <c r="Y9" s="275"/>
+      <c r="Z9" s="275" t="s">
         <v>437</v>
       </c>
-      <c r="AA9" s="278"/>
-      <c r="AB9" s="278"/>
-      <c r="AC9" s="278"/>
-      <c r="AD9" s="278"/>
-      <c r="AE9" s="278"/>
-      <c r="AF9" s="278" t="s">
+      <c r="AA9" s="275"/>
+      <c r="AB9" s="275"/>
+      <c r="AC9" s="275"/>
+      <c r="AD9" s="275"/>
+      <c r="AE9" s="275"/>
+      <c r="AF9" s="275" t="s">
         <v>437</v>
       </c>
-      <c r="AG9" s="278"/>
-      <c r="AH9" s="278"/>
-      <c r="AI9" s="278" t="s">
+      <c r="AG9" s="275"/>
+      <c r="AH9" s="275"/>
+      <c r="AI9" s="275" t="s">
         <v>438</v>
       </c>
-      <c r="AJ9" s="278"/>
-      <c r="AK9" s="278"/>
-      <c r="AL9" s="278" t="s">
+      <c r="AJ9" s="275"/>
+      <c r="AK9" s="275"/>
+      <c r="AL9" s="275" t="s">
         <v>439</v>
       </c>
-      <c r="AM9" s="278"/>
-      <c r="AN9" s="278"/>
+      <c r="AM9" s="275"/>
+      <c r="AN9" s="275"/>
     </row>
     <row r="10" spans="1:59" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A10" s="70"/>
@@ -10537,30 +10550,30 @@
     </row>
     <row r="5" spans="1:46" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B5" s="92"/>
-      <c r="C5" s="263" t="s">
+      <c r="C5" s="260" t="s">
         <v>441</v>
       </c>
-      <c r="D5" s="264"/>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
-      <c r="G5" s="264"/>
-      <c r="H5" s="264"/>
-      <c r="I5" s="264"/>
-      <c r="J5" s="264"/>
-      <c r="K5" s="264"/>
-      <c r="L5" s="264"/>
-      <c r="M5" s="264"/>
-      <c r="N5" s="265"/>
-      <c r="O5" s="269" t="s">
+      <c r="D5" s="261"/>
+      <c r="E5" s="261"/>
+      <c r="F5" s="261"/>
+      <c r="G5" s="261"/>
+      <c r="H5" s="261"/>
+      <c r="I5" s="261"/>
+      <c r="J5" s="261"/>
+      <c r="K5" s="261"/>
+      <c r="L5" s="261"/>
+      <c r="M5" s="261"/>
+      <c r="N5" s="262"/>
+      <c r="O5" s="266" t="s">
         <v>442</v>
       </c>
-      <c r="P5" s="270"/>
-      <c r="Q5" s="270"/>
-      <c r="R5" s="270"/>
-      <c r="S5" s="270"/>
-      <c r="T5" s="270"/>
-      <c r="U5" s="270"/>
-      <c r="V5" s="271"/>
+      <c r="P5" s="267"/>
+      <c r="Q5" s="267"/>
+      <c r="R5" s="267"/>
+      <c r="S5" s="267"/>
+      <c r="T5" s="267"/>
+      <c r="U5" s="267"/>
+      <c r="V5" s="268"/>
     </row>
     <row r="6" spans="1:46" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C6" s="93" t="s">
@@ -11296,77 +11309,77 @@
     </row>
     <row r="5" spans="1:64" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B5" s="92"/>
-      <c r="C5" s="263" t="s">
+      <c r="C5" s="260" t="s">
         <v>176</v>
       </c>
-      <c r="D5" s="265"/>
-      <c r="E5" s="263" t="s">
+      <c r="D5" s="262"/>
+      <c r="E5" s="260" t="s">
         <v>178</v>
       </c>
-      <c r="F5" s="264"/>
-      <c r="G5" s="264"/>
-      <c r="H5" s="264"/>
-      <c r="I5" s="264"/>
-      <c r="J5" s="265"/>
-      <c r="K5" s="269" t="s">
+      <c r="F5" s="261"/>
+      <c r="G5" s="261"/>
+      <c r="H5" s="261"/>
+      <c r="I5" s="261"/>
+      <c r="J5" s="262"/>
+      <c r="K5" s="266" t="s">
         <v>424</v>
       </c>
-      <c r="L5" s="270"/>
-      <c r="M5" s="270"/>
-      <c r="N5" s="270"/>
-      <c r="O5" s="271"/>
-      <c r="P5" s="279" t="s">
+      <c r="L5" s="267"/>
+      <c r="M5" s="267"/>
+      <c r="N5" s="267"/>
+      <c r="O5" s="268"/>
+      <c r="P5" s="276" t="s">
         <v>472</v>
       </c>
-      <c r="Q5" s="280"/>
-      <c r="R5" s="280"/>
-      <c r="S5" s="280"/>
-      <c r="T5" s="281"/>
+      <c r="Q5" s="277"/>
+      <c r="R5" s="277"/>
+      <c r="S5" s="277"/>
+      <c r="T5" s="278"/>
       <c r="AU5" s="156" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:64" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="C6" s="283"/>
-      <c r="D6" s="284"/>
-      <c r="E6" s="285"/>
-      <c r="F6" s="286"/>
-      <c r="G6" s="286"/>
-      <c r="H6" s="286"/>
-      <c r="I6" s="286"/>
-      <c r="J6" s="287"/>
-      <c r="K6" s="288"/>
-      <c r="L6" s="289"/>
-      <c r="M6" s="289"/>
-      <c r="N6" s="289"/>
-      <c r="O6" s="290"/>
-      <c r="P6" s="288"/>
-      <c r="Q6" s="289"/>
-      <c r="R6" s="289"/>
-      <c r="S6" s="289"/>
-      <c r="T6" s="290"/>
-      <c r="AU6" s="263" t="s">
+      <c r="C6" s="280"/>
+      <c r="D6" s="281"/>
+      <c r="E6" s="282"/>
+      <c r="F6" s="283"/>
+      <c r="G6" s="283"/>
+      <c r="H6" s="283"/>
+      <c r="I6" s="283"/>
+      <c r="J6" s="284"/>
+      <c r="K6" s="285"/>
+      <c r="L6" s="286"/>
+      <c r="M6" s="286"/>
+      <c r="N6" s="286"/>
+      <c r="O6" s="287"/>
+      <c r="P6" s="285"/>
+      <c r="Q6" s="286"/>
+      <c r="R6" s="286"/>
+      <c r="S6" s="286"/>
+      <c r="T6" s="287"/>
+      <c r="AU6" s="260" t="s">
         <v>168</v>
       </c>
-      <c r="AV6" s="264"/>
-      <c r="AW6" s="264"/>
-      <c r="AX6" s="264"/>
-      <c r="AY6" s="264"/>
-      <c r="AZ6" s="264"/>
-      <c r="BA6" s="264"/>
-      <c r="BB6" s="264"/>
-      <c r="BC6" s="264"/>
-      <c r="BD6" s="264"/>
-      <c r="BE6" s="264"/>
-      <c r="BF6" s="265"/>
-      <c r="BG6" s="266" t="s">
+      <c r="AV6" s="261"/>
+      <c r="AW6" s="261"/>
+      <c r="AX6" s="261"/>
+      <c r="AY6" s="261"/>
+      <c r="AZ6" s="261"/>
+      <c r="BA6" s="261"/>
+      <c r="BB6" s="261"/>
+      <c r="BC6" s="261"/>
+      <c r="BD6" s="261"/>
+      <c r="BE6" s="261"/>
+      <c r="BF6" s="262"/>
+      <c r="BG6" s="263" t="s">
         <v>169</v>
       </c>
-      <c r="BH6" s="267"/>
-      <c r="BI6" s="267"/>
-      <c r="BJ6" s="267"/>
-      <c r="BK6" s="267"/>
-      <c r="BL6" s="268"/>
+      <c r="BH6" s="264"/>
+      <c r="BI6" s="264"/>
+      <c r="BJ6" s="264"/>
+      <c r="BK6" s="264"/>
+      <c r="BL6" s="265"/>
     </row>
     <row r="7" spans="1:64" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C7" s="92"/>
@@ -11585,28 +11598,28 @@
       <c r="W12" s="92"/>
       <c r="X12" s="92"/>
       <c r="Y12" s="92"/>
-      <c r="AU12" s="263" t="s">
+      <c r="AU12" s="260" t="s">
         <v>168</v>
       </c>
-      <c r="AV12" s="264"/>
-      <c r="AW12" s="264"/>
-      <c r="AX12" s="264"/>
-      <c r="AY12" s="264"/>
-      <c r="AZ12" s="264"/>
-      <c r="BA12" s="264"/>
-      <c r="BB12" s="264"/>
-      <c r="BC12" s="264"/>
-      <c r="BD12" s="264"/>
-      <c r="BE12" s="264"/>
-      <c r="BF12" s="265"/>
-      <c r="BG12" s="266" t="s">
+      <c r="AV12" s="261"/>
+      <c r="AW12" s="261"/>
+      <c r="AX12" s="261"/>
+      <c r="AY12" s="261"/>
+      <c r="AZ12" s="261"/>
+      <c r="BA12" s="261"/>
+      <c r="BB12" s="261"/>
+      <c r="BC12" s="261"/>
+      <c r="BD12" s="261"/>
+      <c r="BE12" s="261"/>
+      <c r="BF12" s="262"/>
+      <c r="BG12" s="263" t="s">
         <v>169</v>
       </c>
-      <c r="BH12" s="267"/>
-      <c r="BI12" s="267"/>
-      <c r="BJ12" s="267"/>
-      <c r="BK12" s="267"/>
-      <c r="BL12" s="268"/>
+      <c r="BH12" s="264"/>
+      <c r="BI12" s="264"/>
+      <c r="BJ12" s="264"/>
+      <c r="BK12" s="264"/>
+      <c r="BL12" s="265"/>
     </row>
     <row r="13" spans="1:64" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B13" s="92"/>
@@ -12109,57 +12122,57 @@
     </row>
     <row r="5" spans="1:65" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B5" s="92"/>
-      <c r="C5" s="263" t="s">
+      <c r="C5" s="260" t="s">
         <v>484</v>
       </c>
-      <c r="D5" s="265"/>
-      <c r="E5" s="263" t="s">
+      <c r="D5" s="262"/>
+      <c r="E5" s="260" t="s">
         <v>485</v>
       </c>
-      <c r="F5" s="264"/>
-      <c r="G5" s="264"/>
-      <c r="H5" s="264"/>
-      <c r="I5" s="264"/>
-      <c r="J5" s="265"/>
-      <c r="K5" s="269" t="s">
+      <c r="F5" s="261"/>
+      <c r="G5" s="261"/>
+      <c r="H5" s="261"/>
+      <c r="I5" s="261"/>
+      <c r="J5" s="262"/>
+      <c r="K5" s="266" t="s">
         <v>486</v>
       </c>
-      <c r="L5" s="270"/>
-      <c r="M5" s="270"/>
-      <c r="N5" s="270"/>
-      <c r="O5" s="270"/>
-      <c r="P5" s="270"/>
-      <c r="Q5" s="270"/>
-      <c r="R5" s="270"/>
-      <c r="S5" s="271"/>
-      <c r="T5" s="269" t="s">
+      <c r="L5" s="267"/>
+      <c r="M5" s="267"/>
+      <c r="N5" s="267"/>
+      <c r="O5" s="267"/>
+      <c r="P5" s="267"/>
+      <c r="Q5" s="267"/>
+      <c r="R5" s="267"/>
+      <c r="S5" s="268"/>
+      <c r="T5" s="266" t="s">
         <v>487</v>
       </c>
-      <c r="U5" s="270"/>
-      <c r="V5" s="270"/>
-      <c r="W5" s="270"/>
-      <c r="X5" s="270"/>
-      <c r="Y5" s="271"/>
-      <c r="Z5" s="269" t="s">
+      <c r="U5" s="267"/>
+      <c r="V5" s="267"/>
+      <c r="W5" s="267"/>
+      <c r="X5" s="267"/>
+      <c r="Y5" s="268"/>
+      <c r="Z5" s="266" t="s">
         <v>488</v>
       </c>
-      <c r="AA5" s="270"/>
-      <c r="AB5" s="270"/>
-      <c r="AC5" s="270"/>
-      <c r="AD5" s="270"/>
-      <c r="AE5" s="270"/>
-      <c r="AF5" s="270"/>
-      <c r="AG5" s="270"/>
-      <c r="AH5" s="271"/>
-      <c r="AI5" s="269" t="s">
+      <c r="AA5" s="267"/>
+      <c r="AB5" s="267"/>
+      <c r="AC5" s="267"/>
+      <c r="AD5" s="267"/>
+      <c r="AE5" s="267"/>
+      <c r="AF5" s="267"/>
+      <c r="AG5" s="267"/>
+      <c r="AH5" s="268"/>
+      <c r="AI5" s="266" t="s">
         <v>489</v>
       </c>
-      <c r="AJ5" s="270"/>
-      <c r="AK5" s="270"/>
-      <c r="AL5" s="270"/>
-      <c r="AM5" s="270"/>
-      <c r="AN5" s="270"/>
-      <c r="AO5" s="271"/>
+      <c r="AJ5" s="267"/>
+      <c r="AK5" s="267"/>
+      <c r="AL5" s="267"/>
+      <c r="AM5" s="267"/>
+      <c r="AN5" s="267"/>
+      <c r="AO5" s="268"/>
       <c r="AU5" s="120" t="s">
         <v>490</v>
       </c>
@@ -12183,67 +12196,67 @@
       <c r="BM5" s="113"/>
     </row>
     <row r="6" spans="1:65" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="C6" s="283"/>
-      <c r="D6" s="284"/>
-      <c r="E6" s="285"/>
-      <c r="F6" s="286"/>
-      <c r="G6" s="286"/>
-      <c r="H6" s="286"/>
-      <c r="I6" s="286"/>
-      <c r="J6" s="287"/>
-      <c r="K6" s="288"/>
-      <c r="L6" s="289"/>
-      <c r="M6" s="289"/>
-      <c r="N6" s="289"/>
-      <c r="O6" s="289"/>
-      <c r="P6" s="289"/>
-      <c r="Q6" s="289"/>
-      <c r="R6" s="289"/>
-      <c r="S6" s="290"/>
-      <c r="T6" s="288"/>
-      <c r="U6" s="289"/>
-      <c r="V6" s="289"/>
-      <c r="W6" s="289"/>
-      <c r="X6" s="289"/>
-      <c r="Y6" s="290"/>
-      <c r="Z6" s="288"/>
-      <c r="AA6" s="289"/>
-      <c r="AB6" s="289"/>
-      <c r="AC6" s="289"/>
-      <c r="AD6" s="289"/>
-      <c r="AE6" s="289"/>
-      <c r="AF6" s="289"/>
-      <c r="AG6" s="289"/>
-      <c r="AH6" s="290"/>
-      <c r="AI6" s="288"/>
-      <c r="AJ6" s="289"/>
-      <c r="AK6" s="289"/>
-      <c r="AL6" s="289"/>
-      <c r="AM6" s="289"/>
-      <c r="AN6" s="289"/>
-      <c r="AO6" s="290"/>
-      <c r="AU6" s="263" t="s">
+      <c r="C6" s="280"/>
+      <c r="D6" s="281"/>
+      <c r="E6" s="282"/>
+      <c r="F6" s="283"/>
+      <c r="G6" s="283"/>
+      <c r="H6" s="283"/>
+      <c r="I6" s="283"/>
+      <c r="J6" s="284"/>
+      <c r="K6" s="285"/>
+      <c r="L6" s="286"/>
+      <c r="M6" s="286"/>
+      <c r="N6" s="286"/>
+      <c r="O6" s="286"/>
+      <c r="P6" s="286"/>
+      <c r="Q6" s="286"/>
+      <c r="R6" s="286"/>
+      <c r="S6" s="287"/>
+      <c r="T6" s="285"/>
+      <c r="U6" s="286"/>
+      <c r="V6" s="286"/>
+      <c r="W6" s="286"/>
+      <c r="X6" s="286"/>
+      <c r="Y6" s="287"/>
+      <c r="Z6" s="285"/>
+      <c r="AA6" s="286"/>
+      <c r="AB6" s="286"/>
+      <c r="AC6" s="286"/>
+      <c r="AD6" s="286"/>
+      <c r="AE6" s="286"/>
+      <c r="AF6" s="286"/>
+      <c r="AG6" s="286"/>
+      <c r="AH6" s="287"/>
+      <c r="AI6" s="285"/>
+      <c r="AJ6" s="286"/>
+      <c r="AK6" s="286"/>
+      <c r="AL6" s="286"/>
+      <c r="AM6" s="286"/>
+      <c r="AN6" s="286"/>
+      <c r="AO6" s="287"/>
+      <c r="AU6" s="260" t="s">
         <v>168</v>
       </c>
-      <c r="AV6" s="264"/>
-      <c r="AW6" s="264"/>
-      <c r="AX6" s="264"/>
-      <c r="AY6" s="264"/>
-      <c r="AZ6" s="264"/>
-      <c r="BA6" s="264"/>
-      <c r="BB6" s="264"/>
-      <c r="BC6" s="264"/>
-      <c r="BD6" s="264"/>
-      <c r="BE6" s="264"/>
-      <c r="BF6" s="265"/>
-      <c r="BG6" s="269" t="s">
+      <c r="AV6" s="261"/>
+      <c r="AW6" s="261"/>
+      <c r="AX6" s="261"/>
+      <c r="AY6" s="261"/>
+      <c r="AZ6" s="261"/>
+      <c r="BA6" s="261"/>
+      <c r="BB6" s="261"/>
+      <c r="BC6" s="261"/>
+      <c r="BD6" s="261"/>
+      <c r="BE6" s="261"/>
+      <c r="BF6" s="262"/>
+      <c r="BG6" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="BH6" s="270"/>
-      <c r="BI6" s="270"/>
-      <c r="BJ6" s="270"/>
-      <c r="BK6" s="270"/>
-      <c r="BL6" s="271"/>
+      <c r="BH6" s="267"/>
+      <c r="BI6" s="267"/>
+      <c r="BJ6" s="267"/>
+      <c r="BK6" s="267"/>
+      <c r="BL6" s="268"/>
       <c r="BM6" s="113"/>
     </row>
     <row r="7" spans="1:65" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.15">
@@ -12670,28 +12683,28 @@
       <c r="AM13" s="92"/>
       <c r="AN13" s="92"/>
       <c r="AO13" s="92"/>
-      <c r="AU13" s="263" t="s">
+      <c r="AU13" s="260" t="s">
         <v>168</v>
       </c>
-      <c r="AV13" s="264"/>
-      <c r="AW13" s="264"/>
-      <c r="AX13" s="264"/>
-      <c r="AY13" s="264"/>
-      <c r="AZ13" s="264"/>
-      <c r="BA13" s="264"/>
-      <c r="BB13" s="264"/>
-      <c r="BC13" s="264"/>
-      <c r="BD13" s="264"/>
-      <c r="BE13" s="264"/>
-      <c r="BF13" s="265"/>
-      <c r="BG13" s="269" t="s">
+      <c r="AV13" s="261"/>
+      <c r="AW13" s="261"/>
+      <c r="AX13" s="261"/>
+      <c r="AY13" s="261"/>
+      <c r="AZ13" s="261"/>
+      <c r="BA13" s="261"/>
+      <c r="BB13" s="261"/>
+      <c r="BC13" s="261"/>
+      <c r="BD13" s="261"/>
+      <c r="BE13" s="261"/>
+      <c r="BF13" s="262"/>
+      <c r="BG13" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="BH13" s="270"/>
-      <c r="BI13" s="270"/>
-      <c r="BJ13" s="270"/>
-      <c r="BK13" s="270"/>
-      <c r="BL13" s="271"/>
+      <c r="BH13" s="267"/>
+      <c r="BI13" s="267"/>
+      <c r="BJ13" s="267"/>
+      <c r="BK13" s="267"/>
+      <c r="BL13" s="268"/>
       <c r="BM13" s="113"/>
     </row>
     <row r="14" spans="1:65" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.15">
@@ -13170,28 +13183,28 @@
       <c r="C22" s="92"/>
       <c r="D22" s="92"/>
       <c r="E22" s="92"/>
-      <c r="AU22" s="263" t="s">
+      <c r="AU22" s="260" t="s">
         <v>168</v>
       </c>
-      <c r="AV22" s="264"/>
-      <c r="AW22" s="264"/>
-      <c r="AX22" s="264"/>
-      <c r="AY22" s="264"/>
-      <c r="AZ22" s="264"/>
-      <c r="BA22" s="264"/>
-      <c r="BB22" s="264"/>
-      <c r="BC22" s="264"/>
-      <c r="BD22" s="264"/>
-      <c r="BE22" s="264"/>
-      <c r="BF22" s="265"/>
-      <c r="BG22" s="269" t="s">
+      <c r="AV22" s="261"/>
+      <c r="AW22" s="261"/>
+      <c r="AX22" s="261"/>
+      <c r="AY22" s="261"/>
+      <c r="AZ22" s="261"/>
+      <c r="BA22" s="261"/>
+      <c r="BB22" s="261"/>
+      <c r="BC22" s="261"/>
+      <c r="BD22" s="261"/>
+      <c r="BE22" s="261"/>
+      <c r="BF22" s="262"/>
+      <c r="BG22" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="BH22" s="270"/>
-      <c r="BI22" s="270"/>
-      <c r="BJ22" s="270"/>
-      <c r="BK22" s="270"/>
-      <c r="BL22" s="271"/>
+      <c r="BH22" s="267"/>
+      <c r="BI22" s="267"/>
+      <c r="BJ22" s="267"/>
+      <c r="BK22" s="267"/>
+      <c r="BL22" s="268"/>
       <c r="BM22" s="113"/>
     </row>
     <row r="23" spans="1:65" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.15">
@@ -13404,28 +13417,28 @@
       <c r="C31" s="92"/>
       <c r="D31" s="92"/>
       <c r="E31" s="92"/>
-      <c r="AU31" s="263" t="s">
+      <c r="AU31" s="260" t="s">
         <v>168</v>
       </c>
-      <c r="AV31" s="264"/>
-      <c r="AW31" s="264"/>
-      <c r="AX31" s="264"/>
-      <c r="AY31" s="264"/>
-      <c r="AZ31" s="264"/>
-      <c r="BA31" s="264"/>
-      <c r="BB31" s="264"/>
-      <c r="BC31" s="264"/>
-      <c r="BD31" s="264"/>
-      <c r="BE31" s="264"/>
-      <c r="BF31" s="265"/>
-      <c r="BG31" s="269" t="s">
+      <c r="AV31" s="261"/>
+      <c r="AW31" s="261"/>
+      <c r="AX31" s="261"/>
+      <c r="AY31" s="261"/>
+      <c r="AZ31" s="261"/>
+      <c r="BA31" s="261"/>
+      <c r="BB31" s="261"/>
+      <c r="BC31" s="261"/>
+      <c r="BD31" s="261"/>
+      <c r="BE31" s="261"/>
+      <c r="BF31" s="262"/>
+      <c r="BG31" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="BH31" s="270"/>
-      <c r="BI31" s="270"/>
-      <c r="BJ31" s="270"/>
-      <c r="BK31" s="270"/>
-      <c r="BL31" s="271"/>
+      <c r="BH31" s="267"/>
+      <c r="BI31" s="267"/>
+      <c r="BJ31" s="267"/>
+      <c r="BK31" s="267"/>
+      <c r="BL31" s="268"/>
       <c r="BM31" s="113"/>
     </row>
     <row r="32" spans="1:65" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.15">
@@ -13615,28 +13628,28 @@
       <c r="C39" s="92"/>
       <c r="D39" s="92"/>
       <c r="E39" s="92"/>
-      <c r="AU39" s="263" t="s">
+      <c r="AU39" s="260" t="s">
         <v>168</v>
       </c>
-      <c r="AV39" s="264"/>
-      <c r="AW39" s="264"/>
-      <c r="AX39" s="264"/>
-      <c r="AY39" s="264"/>
-      <c r="AZ39" s="264"/>
-      <c r="BA39" s="264"/>
-      <c r="BB39" s="264"/>
-      <c r="BC39" s="264"/>
-      <c r="BD39" s="264"/>
-      <c r="BE39" s="264"/>
-      <c r="BF39" s="265"/>
-      <c r="BG39" s="269" t="s">
+      <c r="AV39" s="261"/>
+      <c r="AW39" s="261"/>
+      <c r="AX39" s="261"/>
+      <c r="AY39" s="261"/>
+      <c r="AZ39" s="261"/>
+      <c r="BA39" s="261"/>
+      <c r="BB39" s="261"/>
+      <c r="BC39" s="261"/>
+      <c r="BD39" s="261"/>
+      <c r="BE39" s="261"/>
+      <c r="BF39" s="262"/>
+      <c r="BG39" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="BH39" s="270"/>
-      <c r="BI39" s="270"/>
-      <c r="BJ39" s="270"/>
-      <c r="BK39" s="270"/>
-      <c r="BL39" s="271"/>
+      <c r="BH39" s="267"/>
+      <c r="BI39" s="267"/>
+      <c r="BJ39" s="267"/>
+      <c r="BK39" s="267"/>
+      <c r="BL39" s="268"/>
       <c r="BM39" s="113"/>
     </row>
     <row r="40" spans="2:65" x14ac:dyDescent="0.15">
@@ -14001,75 +14014,75 @@
     </row>
     <row r="5" spans="1:65" s="113" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B5" s="116"/>
-      <c r="C5" s="263" t="s">
+      <c r="C5" s="260" t="s">
         <v>512</v>
       </c>
-      <c r="D5" s="265"/>
-      <c r="E5" s="263" t="s">
+      <c r="D5" s="262"/>
+      <c r="E5" s="260" t="s">
         <v>178</v>
       </c>
-      <c r="F5" s="264"/>
-      <c r="G5" s="264"/>
-      <c r="H5" s="264"/>
-      <c r="I5" s="264"/>
-      <c r="J5" s="265"/>
-      <c r="K5" s="269" t="s">
+      <c r="F5" s="261"/>
+      <c r="G5" s="261"/>
+      <c r="H5" s="261"/>
+      <c r="I5" s="261"/>
+      <c r="J5" s="262"/>
+      <c r="K5" s="266" t="s">
         <v>179</v>
       </c>
-      <c r="L5" s="270"/>
-      <c r="M5" s="270"/>
-      <c r="N5" s="271"/>
-      <c r="O5" s="269" t="s">
+      <c r="L5" s="267"/>
+      <c r="M5" s="267"/>
+      <c r="N5" s="268"/>
+      <c r="O5" s="266" t="s">
         <v>513</v>
       </c>
-      <c r="P5" s="270"/>
-      <c r="Q5" s="270"/>
-      <c r="R5" s="270"/>
-      <c r="S5" s="271"/>
+      <c r="P5" s="267"/>
+      <c r="Q5" s="267"/>
+      <c r="R5" s="267"/>
+      <c r="S5" s="268"/>
       <c r="AU5" s="120" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:65" s="113" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="C6" s="283"/>
-      <c r="D6" s="284"/>
-      <c r="E6" s="285"/>
-      <c r="F6" s="286"/>
-      <c r="G6" s="286"/>
-      <c r="H6" s="286"/>
-      <c r="I6" s="286"/>
-      <c r="J6" s="287"/>
-      <c r="K6" s="288"/>
-      <c r="L6" s="289"/>
-      <c r="M6" s="289"/>
-      <c r="N6" s="290"/>
-      <c r="O6" s="288"/>
-      <c r="P6" s="289"/>
-      <c r="Q6" s="289"/>
-      <c r="R6" s="289"/>
-      <c r="S6" s="290"/>
-      <c r="AU6" s="263" t="s">
+      <c r="C6" s="280"/>
+      <c r="D6" s="281"/>
+      <c r="E6" s="282"/>
+      <c r="F6" s="283"/>
+      <c r="G6" s="283"/>
+      <c r="H6" s="283"/>
+      <c r="I6" s="283"/>
+      <c r="J6" s="284"/>
+      <c r="K6" s="285"/>
+      <c r="L6" s="286"/>
+      <c r="M6" s="286"/>
+      <c r="N6" s="287"/>
+      <c r="O6" s="285"/>
+      <c r="P6" s="286"/>
+      <c r="Q6" s="286"/>
+      <c r="R6" s="286"/>
+      <c r="S6" s="287"/>
+      <c r="AU6" s="260" t="s">
         <v>168</v>
       </c>
-      <c r="AV6" s="264"/>
-      <c r="AW6" s="264"/>
-      <c r="AX6" s="264"/>
-      <c r="AY6" s="264"/>
-      <c r="AZ6" s="264"/>
-      <c r="BA6" s="264"/>
-      <c r="BB6" s="264"/>
-      <c r="BC6" s="264"/>
-      <c r="BD6" s="264"/>
-      <c r="BE6" s="264"/>
-      <c r="BF6" s="265"/>
-      <c r="BG6" s="269" t="s">
+      <c r="AV6" s="261"/>
+      <c r="AW6" s="261"/>
+      <c r="AX6" s="261"/>
+      <c r="AY6" s="261"/>
+      <c r="AZ6" s="261"/>
+      <c r="BA6" s="261"/>
+      <c r="BB6" s="261"/>
+      <c r="BC6" s="261"/>
+      <c r="BD6" s="261"/>
+      <c r="BE6" s="261"/>
+      <c r="BF6" s="262"/>
+      <c r="BG6" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="BH6" s="270"/>
-      <c r="BI6" s="270"/>
-      <c r="BJ6" s="270"/>
-      <c r="BK6" s="270"/>
-      <c r="BL6" s="271"/>
+      <c r="BH6" s="267"/>
+      <c r="BI6" s="267"/>
+      <c r="BJ6" s="267"/>
+      <c r="BK6" s="267"/>
+      <c r="BL6" s="268"/>
     </row>
     <row r="7" spans="1:65" s="113" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="AU7" s="97" t="s">
@@ -14144,28 +14157,28 @@
       </c>
     </row>
     <row r="12" spans="1:65" s="113" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="AU12" s="263" t="s">
+      <c r="AU12" s="260" t="s">
         <v>168</v>
       </c>
-      <c r="AV12" s="264"/>
-      <c r="AW12" s="264"/>
-      <c r="AX12" s="264"/>
-      <c r="AY12" s="264"/>
-      <c r="AZ12" s="264"/>
-      <c r="BA12" s="264"/>
-      <c r="BB12" s="264"/>
-      <c r="BC12" s="264"/>
-      <c r="BD12" s="264"/>
-      <c r="BE12" s="264"/>
-      <c r="BF12" s="265"/>
-      <c r="BG12" s="269" t="s">
+      <c r="AV12" s="261"/>
+      <c r="AW12" s="261"/>
+      <c r="AX12" s="261"/>
+      <c r="AY12" s="261"/>
+      <c r="AZ12" s="261"/>
+      <c r="BA12" s="261"/>
+      <c r="BB12" s="261"/>
+      <c r="BC12" s="261"/>
+      <c r="BD12" s="261"/>
+      <c r="BE12" s="261"/>
+      <c r="BF12" s="262"/>
+      <c r="BG12" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="BH12" s="270"/>
-      <c r="BI12" s="270"/>
-      <c r="BJ12" s="270"/>
-      <c r="BK12" s="270"/>
-      <c r="BL12" s="271"/>
+      <c r="BH12" s="267"/>
+      <c r="BI12" s="267"/>
+      <c r="BJ12" s="267"/>
+      <c r="BK12" s="267"/>
+      <c r="BL12" s="268"/>
     </row>
     <row r="13" spans="1:65" s="113" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="AU13" s="97" t="s">
@@ -14750,46 +14763,46 @@
     </row>
     <row r="5" spans="1:64" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B5" s="92"/>
-      <c r="C5" s="263" t="s">
+      <c r="C5" s="260" t="s">
         <v>512</v>
       </c>
-      <c r="D5" s="265"/>
-      <c r="E5" s="263" t="s">
+      <c r="D5" s="262"/>
+      <c r="E5" s="260" t="s">
         <v>178</v>
       </c>
-      <c r="F5" s="264"/>
-      <c r="G5" s="264"/>
-      <c r="H5" s="264"/>
-      <c r="I5" s="264"/>
-      <c r="J5" s="265"/>
-      <c r="K5" s="269" t="s">
+      <c r="F5" s="261"/>
+      <c r="G5" s="261"/>
+      <c r="H5" s="261"/>
+      <c r="I5" s="261"/>
+      <c r="J5" s="262"/>
+      <c r="K5" s="266" t="s">
         <v>521</v>
       </c>
-      <c r="L5" s="270"/>
-      <c r="M5" s="270"/>
-      <c r="N5" s="271"/>
-      <c r="O5" s="269" t="s">
+      <c r="L5" s="267"/>
+      <c r="M5" s="267"/>
+      <c r="N5" s="268"/>
+      <c r="O5" s="266" t="s">
         <v>183</v>
       </c>
-      <c r="P5" s="270"/>
-      <c r="Q5" s="270"/>
-      <c r="R5" s="270"/>
-      <c r="S5" s="271"/>
-      <c r="T5" s="269" t="s">
+      <c r="P5" s="267"/>
+      <c r="Q5" s="267"/>
+      <c r="R5" s="267"/>
+      <c r="S5" s="268"/>
+      <c r="T5" s="266" t="s">
         <v>522</v>
       </c>
-      <c r="U5" s="270"/>
-      <c r="V5" s="270"/>
-      <c r="W5" s="270"/>
-      <c r="X5" s="271"/>
-      <c r="Y5" s="269" t="s">
+      <c r="U5" s="267"/>
+      <c r="V5" s="267"/>
+      <c r="W5" s="267"/>
+      <c r="X5" s="268"/>
+      <c r="Y5" s="266" t="s">
         <v>523</v>
       </c>
-      <c r="Z5" s="271"/>
-      <c r="AA5" s="269" t="s">
+      <c r="Z5" s="268"/>
+      <c r="AA5" s="266" t="s">
         <v>524</v>
       </c>
-      <c r="AB5" s="271"/>
+      <c r="AB5" s="268"/>
       <c r="AU5" s="120" t="s">
         <v>525</v>
       </c>
@@ -14812,68 +14825,68 @@
       <c r="BL5" s="113"/>
     </row>
     <row r="6" spans="1:64" s="70" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="283">
+      <c r="C6" s="280">
         <v>1</v>
       </c>
-      <c r="D6" s="284"/>
-      <c r="E6" s="285" t="s">
+      <c r="D6" s="281"/>
+      <c r="E6" s="282" t="s">
         <v>186</v>
       </c>
-      <c r="F6" s="286"/>
-      <c r="G6" s="286"/>
-      <c r="H6" s="286"/>
-      <c r="I6" s="286"/>
-      <c r="J6" s="287"/>
-      <c r="K6" s="288" t="s">
+      <c r="F6" s="283"/>
+      <c r="G6" s="283"/>
+      <c r="H6" s="283"/>
+      <c r="I6" s="283"/>
+      <c r="J6" s="284"/>
+      <c r="K6" s="285" t="s">
         <v>158</v>
       </c>
-      <c r="L6" s="289"/>
-      <c r="M6" s="289"/>
-      <c r="N6" s="290"/>
-      <c r="O6" s="288" t="s">
+      <c r="L6" s="286"/>
+      <c r="M6" s="286"/>
+      <c r="N6" s="287"/>
+      <c r="O6" s="285" t="s">
         <v>526</v>
       </c>
-      <c r="P6" s="289"/>
-      <c r="Q6" s="289"/>
-      <c r="R6" s="289"/>
-      <c r="S6" s="290"/>
-      <c r="T6" s="288" t="s">
+      <c r="P6" s="286"/>
+      <c r="Q6" s="286"/>
+      <c r="R6" s="286"/>
+      <c r="S6" s="287"/>
+      <c r="T6" s="285" t="s">
         <v>157</v>
       </c>
-      <c r="U6" s="289"/>
-      <c r="V6" s="289"/>
-      <c r="W6" s="289"/>
-      <c r="X6" s="290"/>
-      <c r="Y6" s="288" t="s">
+      <c r="U6" s="286"/>
+      <c r="V6" s="286"/>
+      <c r="W6" s="286"/>
+      <c r="X6" s="287"/>
+      <c r="Y6" s="285" t="s">
         <v>437</v>
       </c>
-      <c r="Z6" s="290"/>
-      <c r="AA6" s="288">
+      <c r="Z6" s="287"/>
+      <c r="AA6" s="285">
         <v>1</v>
       </c>
-      <c r="AB6" s="290"/>
-      <c r="AU6" s="263" t="s">
+      <c r="AB6" s="287"/>
+      <c r="AU6" s="260" t="s">
         <v>168</v>
       </c>
-      <c r="AV6" s="264"/>
-      <c r="AW6" s="264"/>
-      <c r="AX6" s="264"/>
-      <c r="AY6" s="264"/>
-      <c r="AZ6" s="264"/>
-      <c r="BA6" s="264"/>
-      <c r="BB6" s="264"/>
-      <c r="BC6" s="264"/>
-      <c r="BD6" s="264"/>
-      <c r="BE6" s="264"/>
-      <c r="BF6" s="265"/>
-      <c r="BG6" s="269" t="s">
+      <c r="AV6" s="261"/>
+      <c r="AW6" s="261"/>
+      <c r="AX6" s="261"/>
+      <c r="AY6" s="261"/>
+      <c r="AZ6" s="261"/>
+      <c r="BA6" s="261"/>
+      <c r="BB6" s="261"/>
+      <c r="BC6" s="261"/>
+      <c r="BD6" s="261"/>
+      <c r="BE6" s="261"/>
+      <c r="BF6" s="262"/>
+      <c r="BG6" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="BH6" s="270"/>
-      <c r="BI6" s="270"/>
-      <c r="BJ6" s="270"/>
-      <c r="BK6" s="270"/>
-      <c r="BL6" s="271"/>
+      <c r="BH6" s="267"/>
+      <c r="BI6" s="267"/>
+      <c r="BJ6" s="267"/>
+      <c r="BK6" s="267"/>
+      <c r="BL6" s="268"/>
     </row>
     <row r="7" spans="1:64" s="70" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7"/>
@@ -14924,28 +14937,28 @@
       <c r="BL7" s="118"/>
     </row>
     <row r="8" spans="1:64" s="70" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="263" t="s">
+      <c r="C8" s="260" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="264"/>
-      <c r="E8" s="264"/>
-      <c r="F8" s="264"/>
-      <c r="G8" s="264"/>
-      <c r="H8" s="264"/>
-      <c r="I8" s="264"/>
-      <c r="J8" s="264"/>
-      <c r="K8" s="264"/>
-      <c r="L8" s="264"/>
-      <c r="M8" s="264"/>
-      <c r="N8" s="265"/>
-      <c r="O8" s="269" t="s">
+      <c r="D8" s="261"/>
+      <c r="E8" s="261"/>
+      <c r="F8" s="261"/>
+      <c r="G8" s="261"/>
+      <c r="H8" s="261"/>
+      <c r="I8" s="261"/>
+      <c r="J8" s="261"/>
+      <c r="K8" s="261"/>
+      <c r="L8" s="261"/>
+      <c r="M8" s="261"/>
+      <c r="N8" s="262"/>
+      <c r="O8" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="P8" s="270"/>
-      <c r="Q8" s="270"/>
-      <c r="R8" s="270"/>
-      <c r="S8" s="270"/>
-      <c r="T8" s="271"/>
+      <c r="P8" s="267"/>
+      <c r="Q8" s="267"/>
+      <c r="R8" s="267"/>
+      <c r="S8" s="267"/>
+      <c r="T8" s="268"/>
       <c r="U8"/>
       <c r="V8"/>
       <c r="W8"/>
@@ -15314,28 +15327,28 @@
       <c r="BL17" s="120"/>
     </row>
     <row r="18" spans="2:64" s="70" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AU18" s="263" t="s">
+      <c r="AU18" s="260" t="s">
         <v>168</v>
       </c>
-      <c r="AV18" s="264"/>
-      <c r="AW18" s="264"/>
-      <c r="AX18" s="264"/>
-      <c r="AY18" s="264"/>
-      <c r="AZ18" s="264"/>
-      <c r="BA18" s="264"/>
-      <c r="BB18" s="264"/>
-      <c r="BC18" s="264"/>
-      <c r="BD18" s="264"/>
-      <c r="BE18" s="264"/>
-      <c r="BF18" s="265"/>
-      <c r="BG18" s="269" t="s">
+      <c r="AV18" s="261"/>
+      <c r="AW18" s="261"/>
+      <c r="AX18" s="261"/>
+      <c r="AY18" s="261"/>
+      <c r="AZ18" s="261"/>
+      <c r="BA18" s="261"/>
+      <c r="BB18" s="261"/>
+      <c r="BC18" s="261"/>
+      <c r="BD18" s="261"/>
+      <c r="BE18" s="261"/>
+      <c r="BF18" s="262"/>
+      <c r="BG18" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="BH18" s="270"/>
-      <c r="BI18" s="270"/>
-      <c r="BJ18" s="270"/>
-      <c r="BK18" s="270"/>
-      <c r="BL18" s="271"/>
+      <c r="BH18" s="267"/>
+      <c r="BI18" s="267"/>
+      <c r="BJ18" s="267"/>
+      <c r="BK18" s="267"/>
+      <c r="BL18" s="268"/>
     </row>
     <row r="19" spans="2:64" s="70" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AU19" s="97" t="s">
@@ -15542,28 +15555,28 @@
       <c r="AC27"/>
       <c r="AD27"/>
       <c r="AE27"/>
-      <c r="AU27" s="263" t="s">
+      <c r="AU27" s="260" t="s">
         <v>168</v>
       </c>
-      <c r="AV27" s="264"/>
-      <c r="AW27" s="264"/>
-      <c r="AX27" s="264"/>
-      <c r="AY27" s="264"/>
-      <c r="AZ27" s="264"/>
-      <c r="BA27" s="264"/>
-      <c r="BB27" s="264"/>
-      <c r="BC27" s="264"/>
-      <c r="BD27" s="264"/>
-      <c r="BE27" s="264"/>
-      <c r="BF27" s="265"/>
-      <c r="BG27" s="269" t="s">
+      <c r="AV27" s="261"/>
+      <c r="AW27" s="261"/>
+      <c r="AX27" s="261"/>
+      <c r="AY27" s="261"/>
+      <c r="AZ27" s="261"/>
+      <c r="BA27" s="261"/>
+      <c r="BB27" s="261"/>
+      <c r="BC27" s="261"/>
+      <c r="BD27" s="261"/>
+      <c r="BE27" s="261"/>
+      <c r="BF27" s="262"/>
+      <c r="BG27" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="BH27" s="270"/>
-      <c r="BI27" s="270"/>
-      <c r="BJ27" s="270"/>
-      <c r="BK27" s="270"/>
-      <c r="BL27" s="271"/>
+      <c r="BH27" s="267"/>
+      <c r="BI27" s="267"/>
+      <c r="BJ27" s="267"/>
+      <c r="BK27" s="267"/>
+      <c r="BL27" s="268"/>
     </row>
     <row r="28" spans="2:64" s="70" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28"/>
@@ -15848,28 +15861,28 @@
       <c r="Y35"/>
       <c r="Z35"/>
       <c r="AA35"/>
-      <c r="AU35" s="263" t="s">
+      <c r="AU35" s="260" t="s">
         <v>168</v>
       </c>
-      <c r="AV35" s="264"/>
-      <c r="AW35" s="264"/>
-      <c r="AX35" s="264"/>
-      <c r="AY35" s="264"/>
-      <c r="AZ35" s="264"/>
-      <c r="BA35" s="264"/>
-      <c r="BB35" s="264"/>
-      <c r="BC35" s="264"/>
-      <c r="BD35" s="264"/>
-      <c r="BE35" s="264"/>
-      <c r="BF35" s="265"/>
-      <c r="BG35" s="269" t="s">
+      <c r="AV35" s="261"/>
+      <c r="AW35" s="261"/>
+      <c r="AX35" s="261"/>
+      <c r="AY35" s="261"/>
+      <c r="AZ35" s="261"/>
+      <c r="BA35" s="261"/>
+      <c r="BB35" s="261"/>
+      <c r="BC35" s="261"/>
+      <c r="BD35" s="261"/>
+      <c r="BE35" s="261"/>
+      <c r="BF35" s="262"/>
+      <c r="BG35" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="BH35" s="270"/>
-      <c r="BI35" s="270"/>
-      <c r="BJ35" s="270"/>
-      <c r="BK35" s="270"/>
-      <c r="BL35" s="271"/>
+      <c r="BH35" s="267"/>
+      <c r="BI35" s="267"/>
+      <c r="BJ35" s="267"/>
+      <c r="BK35" s="267"/>
+      <c r="BL35" s="268"/>
     </row>
     <row r="36" spans="2:64" s="70" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36"/>
@@ -15990,28 +16003,28 @@
       <c r="BL39" s="113"/>
     </row>
     <row r="40" spans="2:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AU40" s="263" t="s">
+      <c r="AU40" s="260" t="s">
         <v>168</v>
       </c>
-      <c r="AV40" s="264"/>
-      <c r="AW40" s="264"/>
-      <c r="AX40" s="264"/>
-      <c r="AY40" s="264"/>
-      <c r="AZ40" s="264"/>
-      <c r="BA40" s="264"/>
-      <c r="BB40" s="264"/>
-      <c r="BC40" s="264"/>
-      <c r="BD40" s="264"/>
-      <c r="BE40" s="264"/>
-      <c r="BF40" s="265"/>
-      <c r="BG40" s="269" t="s">
+      <c r="AV40" s="261"/>
+      <c r="AW40" s="261"/>
+      <c r="AX40" s="261"/>
+      <c r="AY40" s="261"/>
+      <c r="AZ40" s="261"/>
+      <c r="BA40" s="261"/>
+      <c r="BB40" s="261"/>
+      <c r="BC40" s="261"/>
+      <c r="BD40" s="261"/>
+      <c r="BE40" s="261"/>
+      <c r="BF40" s="262"/>
+      <c r="BG40" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="BH40" s="270"/>
-      <c r="BI40" s="270"/>
-      <c r="BJ40" s="270"/>
-      <c r="BK40" s="270"/>
-      <c r="BL40" s="271"/>
+      <c r="BH40" s="267"/>
+      <c r="BI40" s="267"/>
+      <c r="BJ40" s="267"/>
+      <c r="BK40" s="267"/>
+      <c r="BL40" s="268"/>
     </row>
     <row r="41" spans="2:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AU41" s="159" t="s">
@@ -16792,7 +16805,7 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E16"/>
+  <dimension ref="B1:E17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -17298,7 +17311,7 @@
         <v>120</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>18</v>
@@ -17312,7 +17325,7 @@
         <v>155</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>156</v>
@@ -17354,10 +17367,10 @@
         <v>155</v>
       </c>
       <c r="D12" s="26" t="s">
+        <v>565</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>566</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.15">
@@ -17365,37 +17378,51 @@
         <v>45069</v>
       </c>
       <c r="C13" s="23" t="s">
+        <v>607</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>608</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="E13" s="172" t="s">
         <v>609</v>
       </c>
-      <c r="E13" s="172" t="s">
+    </row>
+    <row r="14" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+      <c r="B14" s="171">
+        <v>45251</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>617</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>611</v>
+      </c>
+      <c r="E14" s="172" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+      <c r="B15" s="173">
+        <v>45330</v>
+      </c>
+      <c r="C15" s="174" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="21" x14ac:dyDescent="0.15">
-      <c r="B14" s="173">
-        <v>45251</v>
-      </c>
-      <c r="C14" s="174" t="s">
-        <v>612</v>
-      </c>
-      <c r="D14" s="174" t="s">
-        <v>613</v>
-      </c>
-      <c r="E14" s="175" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="170"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="11"/>
+      <c r="D15" s="174" t="s">
+        <v>616</v>
+      </c>
+      <c r="E15" s="175" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="170"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="28"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -18446,7 +18473,7 @@
     </row>
     <row r="3" spans="1:46" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B3" s="32" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.15">
@@ -18503,14 +18530,14 @@
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.15">
       <c r="D14" s="169" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E14" s="169"/>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.15">
       <c r="D15" s="169"/>
       <c r="E15" s="169" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="17" spans="2:36" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -18541,7 +18568,7 @@
         <v>124</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M19" s="30" t="s">
         <v>30</v>
@@ -18808,7 +18835,7 @@
       <c r="V39" s="35"/>
       <c r="W39" s="35"/>
       <c r="X39" s="33" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="Y39" s="35"/>
       <c r="Z39" s="35"/>
@@ -18882,13 +18909,13 @@
       <c r="AB40" s="46"/>
       <c r="AC40" s="46"/>
       <c r="AD40" s="44" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AE40" s="46"/>
       <c r="AF40" s="46"/>
       <c r="AG40" s="46"/>
       <c r="AH40" s="44" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AI40" s="46"/>
       <c r="AJ40" s="46"/>
@@ -19028,7 +19055,7 @@
     </row>
     <row r="44" spans="2:53" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B44" s="32" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AF44" s="48"/>
       <c r="AG44" s="48"/>
@@ -19142,7 +19169,7 @@
     </row>
     <row r="59" spans="2:36" x14ac:dyDescent="0.15">
       <c r="D59" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AJ59" s="43"/>
     </row>
@@ -19602,7 +19629,7 @@
     </row>
     <row r="9" spans="1:29" s="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="32" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.15">
@@ -19628,7 +19655,7 @@
     </row>
     <row r="17" spans="1:60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="206" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E17" s="208" t="s">
         <v>75</v>
@@ -19639,7 +19666,7 @@
       <c r="I17" s="209"/>
       <c r="J17" s="210"/>
       <c r="K17" s="208" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L17" s="210"/>
       <c r="M17" s="208" t="s">
@@ -19673,16 +19700,16 @@
       <c r="AK17" s="215"/>
       <c r="AL17" s="215"/>
       <c r="AM17" s="216"/>
-      <c r="AN17" s="228" t="s">
+      <c r="AN17" s="225" t="s">
         <v>47</v>
       </c>
-      <c r="AO17" s="230"/>
-      <c r="AP17" s="230"/>
-      <c r="AQ17" s="230"/>
-      <c r="AR17" s="230"/>
-      <c r="AS17" s="230"/>
-      <c r="AT17" s="230"/>
-      <c r="AU17" s="230"/>
+      <c r="AO17" s="227"/>
+      <c r="AP17" s="227"/>
+      <c r="AQ17" s="227"/>
+      <c r="AR17" s="227"/>
+      <c r="AS17" s="227"/>
+      <c r="AT17" s="227"/>
+      <c r="AU17" s="227"/>
       <c r="AV17" s="208" t="s">
         <v>27</v>
       </c>
@@ -19712,11 +19739,11 @@
       <c r="M18" s="211"/>
       <c r="N18" s="213"/>
       <c r="O18" s="214" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P18" s="216"/>
       <c r="Q18" s="214" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="R18" s="215"/>
       <c r="S18" s="215"/>
@@ -19733,7 +19760,7 @@
       <c r="AB18" s="215"/>
       <c r="AC18" s="216"/>
       <c r="AD18" s="215" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AE18" s="215"/>
       <c r="AF18" s="215"/>
@@ -19744,20 +19771,20 @@
       <c r="AK18" s="215"/>
       <c r="AL18" s="215"/>
       <c r="AM18" s="216"/>
-      <c r="AN18" s="226" t="s">
+      <c r="AN18" s="223" t="s">
         <v>80</v>
       </c>
-      <c r="AO18" s="227"/>
-      <c r="AP18" s="228" t="s">
+      <c r="AO18" s="224"/>
+      <c r="AP18" s="225" t="s">
         <v>81</v>
       </c>
-      <c r="AQ18" s="229"/>
-      <c r="AR18" s="230" t="s">
+      <c r="AQ18" s="226"/>
+      <c r="AR18" s="227" t="s">
         <v>82</v>
       </c>
-      <c r="AS18" s="230"/>
-      <c r="AT18" s="230"/>
-      <c r="AU18" s="229"/>
+      <c r="AS18" s="227"/>
+      <c r="AT18" s="227"/>
+      <c r="AU18" s="226"/>
       <c r="AV18" s="211"/>
       <c r="AW18" s="212"/>
       <c r="AX18" s="212"/>
@@ -19776,78 +19803,78 @@
       <c r="D19" s="52">
         <v>1</v>
       </c>
-      <c r="E19" s="217" t="s">
-        <v>583</v>
-      </c>
-      <c r="F19" s="236"/>
-      <c r="G19" s="236"/>
-      <c r="H19" s="236"/>
-      <c r="I19" s="236"/>
-      <c r="J19" s="237"/>
+      <c r="E19" s="203" t="s">
+        <v>582</v>
+      </c>
+      <c r="F19" s="233"/>
+      <c r="G19" s="233"/>
+      <c r="H19" s="233"/>
+      <c r="I19" s="233"/>
+      <c r="J19" s="234"/>
       <c r="K19" s="83">
         <v>1</v>
       </c>
       <c r="L19" s="167"/>
       <c r="M19" s="168"/>
       <c r="N19" s="166"/>
-      <c r="O19" s="238" t="s">
+      <c r="O19" s="235" t="s">
         <v>98</v>
       </c>
-      <c r="P19" s="239"/>
-      <c r="Q19" s="240" t="s">
+      <c r="P19" s="236"/>
+      <c r="Q19" s="237" t="s">
+        <v>583</v>
+      </c>
+      <c r="R19" s="233"/>
+      <c r="S19" s="233"/>
+      <c r="T19" s="233"/>
+      <c r="U19" s="233"/>
+      <c r="V19" s="233"/>
+      <c r="W19" s="233"/>
+      <c r="X19" s="234"/>
+      <c r="Y19" s="203" t="s">
         <v>584</v>
       </c>
-      <c r="R19" s="236"/>
-      <c r="S19" s="236"/>
-      <c r="T19" s="236"/>
-      <c r="U19" s="236"/>
-      <c r="V19" s="236"/>
-      <c r="W19" s="236"/>
-      <c r="X19" s="237"/>
-      <c r="Y19" s="217" t="s">
+      <c r="Z19" s="233"/>
+      <c r="AA19" s="233"/>
+      <c r="AB19" s="233"/>
+      <c r="AC19" s="234"/>
+      <c r="AD19" s="231" t="s">
         <v>585</v>
       </c>
-      <c r="Z19" s="236"/>
-      <c r="AA19" s="236"/>
-      <c r="AB19" s="236"/>
-      <c r="AC19" s="237"/>
-      <c r="AD19" s="234" t="s">
+      <c r="AE19" s="238"/>
+      <c r="AF19" s="238"/>
+      <c r="AG19" s="238"/>
+      <c r="AH19" s="238"/>
+      <c r="AI19" s="238"/>
+      <c r="AJ19" s="238"/>
+      <c r="AK19" s="238"/>
+      <c r="AL19" s="238"/>
+      <c r="AM19" s="232"/>
+      <c r="AN19" s="231" t="s">
         <v>586</v>
       </c>
-      <c r="AE19" s="241"/>
-      <c r="AF19" s="241"/>
-      <c r="AG19" s="241"/>
-      <c r="AH19" s="241"/>
-      <c r="AI19" s="241"/>
-      <c r="AJ19" s="241"/>
-      <c r="AK19" s="241"/>
-      <c r="AL19" s="241"/>
-      <c r="AM19" s="235"/>
-      <c r="AN19" s="234" t="s">
-        <v>587</v>
-      </c>
-      <c r="AO19" s="235"/>
-      <c r="AP19" s="234">
+      <c r="AO19" s="232"/>
+      <c r="AP19" s="231">
         <v>18</v>
       </c>
-      <c r="AQ19" s="235"/>
-      <c r="AR19" s="242"/>
-      <c r="AS19" s="243"/>
-      <c r="AT19" s="243"/>
-      <c r="AU19" s="244"/>
-      <c r="AV19" s="231"/>
-      <c r="AW19" s="232"/>
-      <c r="AX19" s="232"/>
-      <c r="AY19" s="232"/>
-      <c r="AZ19" s="232"/>
-      <c r="BA19" s="232"/>
-      <c r="BB19" s="232"/>
-      <c r="BC19" s="232"/>
-      <c r="BD19" s="232"/>
-      <c r="BE19" s="232"/>
-      <c r="BF19" s="232"/>
-      <c r="BG19" s="232"/>
-      <c r="BH19" s="233"/>
+      <c r="AQ19" s="232"/>
+      <c r="AR19" s="239"/>
+      <c r="AS19" s="240"/>
+      <c r="AT19" s="240"/>
+      <c r="AU19" s="241"/>
+      <c r="AV19" s="228"/>
+      <c r="AW19" s="229"/>
+      <c r="AX19" s="229"/>
+      <c r="AY19" s="229"/>
+      <c r="AZ19" s="229"/>
+      <c r="BA19" s="229"/>
+      <c r="BB19" s="229"/>
+      <c r="BC19" s="229"/>
+      <c r="BD19" s="229"/>
+      <c r="BE19" s="229"/>
+      <c r="BF19" s="229"/>
+      <c r="BG19" s="229"/>
+      <c r="BH19" s="230"/>
     </row>
     <row r="22" spans="1:60" x14ac:dyDescent="0.15">
       <c r="B22" s="48"/>
@@ -19857,7 +19884,7 @@
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.15">
       <c r="D24" s="206" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E24" s="85"/>
       <c r="F24" s="86"/>
@@ -19917,7 +19944,7 @@
       <c r="BH24" s="80"/>
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.15">
-      <c r="D25" s="225"/>
+      <c r="D25" s="222"/>
       <c r="E25" s="88"/>
       <c r="F25" s="89"/>
       <c r="G25" s="89"/>
@@ -19978,35 +20005,35 @@
     <row r="26" spans="1:60" s="30" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="36"/>
       <c r="D26" s="52"/>
-      <c r="E26" s="217" t="s">
+      <c r="E26" s="203" t="s">
         <v>552</v>
       </c>
-      <c r="F26" s="218"/>
-      <c r="G26" s="218"/>
-      <c r="H26" s="218"/>
-      <c r="I26" s="218"/>
-      <c r="J26" s="218"/>
-      <c r="K26" s="218"/>
-      <c r="L26" s="218"/>
-      <c r="M26" s="218"/>
-      <c r="N26" s="218"/>
-      <c r="O26" s="218"/>
-      <c r="P26" s="218"/>
-      <c r="Q26" s="218"/>
-      <c r="R26" s="218"/>
-      <c r="S26" s="218"/>
-      <c r="T26" s="218"/>
-      <c r="U26" s="218"/>
-      <c r="V26" s="218"/>
-      <c r="W26" s="218"/>
-      <c r="X26" s="218"/>
-      <c r="Y26" s="218"/>
-      <c r="Z26" s="218"/>
-      <c r="AA26" s="218"/>
-      <c r="AB26" s="218"/>
-      <c r="AC26" s="218"/>
-      <c r="AD26" s="218"/>
-      <c r="AE26" s="219"/>
+      <c r="F26" s="204"/>
+      <c r="G26" s="204"/>
+      <c r="H26" s="204"/>
+      <c r="I26" s="204"/>
+      <c r="J26" s="204"/>
+      <c r="K26" s="204"/>
+      <c r="L26" s="204"/>
+      <c r="M26" s="204"/>
+      <c r="N26" s="204"/>
+      <c r="O26" s="204"/>
+      <c r="P26" s="204"/>
+      <c r="Q26" s="204"/>
+      <c r="R26" s="204"/>
+      <c r="S26" s="204"/>
+      <c r="T26" s="204"/>
+      <c r="U26" s="204"/>
+      <c r="V26" s="204"/>
+      <c r="W26" s="204"/>
+      <c r="X26" s="204"/>
+      <c r="Y26" s="204"/>
+      <c r="Z26" s="204"/>
+      <c r="AA26" s="204"/>
+      <c r="AB26" s="204"/>
+      <c r="AC26" s="204"/>
+      <c r="AD26" s="204"/>
+      <c r="AE26" s="205"/>
       <c r="AF26" s="43"/>
       <c r="AG26" s="43"/>
       <c r="AH26" s="43"/>
@@ -20041,35 +20068,35 @@
       <c r="D27" s="52">
         <v>1</v>
       </c>
-      <c r="E27" s="217" t="s">
+      <c r="E27" s="203" t="s">
         <v>154</v>
       </c>
-      <c r="F27" s="218"/>
-      <c r="G27" s="218"/>
-      <c r="H27" s="218"/>
-      <c r="I27" s="218"/>
-      <c r="J27" s="218"/>
-      <c r="K27" s="218"/>
-      <c r="L27" s="218"/>
-      <c r="M27" s="218"/>
-      <c r="N27" s="218"/>
-      <c r="O27" s="218"/>
-      <c r="P27" s="218"/>
-      <c r="Q27" s="218"/>
-      <c r="R27" s="218"/>
-      <c r="S27" s="218"/>
-      <c r="T27" s="218"/>
-      <c r="U27" s="218"/>
-      <c r="V27" s="218"/>
-      <c r="W27" s="218"/>
-      <c r="X27" s="218"/>
-      <c r="Y27" s="218"/>
-      <c r="Z27" s="218"/>
-      <c r="AA27" s="218"/>
-      <c r="AB27" s="218"/>
-      <c r="AC27" s="218"/>
-      <c r="AD27" s="218"/>
-      <c r="AE27" s="219"/>
+      <c r="F27" s="204"/>
+      <c r="G27" s="204"/>
+      <c r="H27" s="204"/>
+      <c r="I27" s="204"/>
+      <c r="J27" s="204"/>
+      <c r="K27" s="204"/>
+      <c r="L27" s="204"/>
+      <c r="M27" s="204"/>
+      <c r="N27" s="204"/>
+      <c r="O27" s="204"/>
+      <c r="P27" s="204"/>
+      <c r="Q27" s="204"/>
+      <c r="R27" s="204"/>
+      <c r="S27" s="204"/>
+      <c r="T27" s="204"/>
+      <c r="U27" s="204"/>
+      <c r="V27" s="204"/>
+      <c r="W27" s="204"/>
+      <c r="X27" s="204"/>
+      <c r="Y27" s="204"/>
+      <c r="Z27" s="204"/>
+      <c r="AA27" s="204"/>
+      <c r="AB27" s="204"/>
+      <c r="AC27" s="204"/>
+      <c r="AD27" s="204"/>
+      <c r="AE27" s="205"/>
       <c r="AF27" s="43"/>
       <c r="AG27" s="43"/>
       <c r="AH27" s="43"/>
@@ -20104,35 +20131,35 @@
       <c r="D28" s="52">
         <v>2</v>
       </c>
-      <c r="E28" s="217" t="s">
-        <v>589</v>
-      </c>
-      <c r="F28" s="223"/>
-      <c r="G28" s="223"/>
-      <c r="H28" s="223"/>
-      <c r="I28" s="223"/>
-      <c r="J28" s="223"/>
-      <c r="K28" s="223"/>
-      <c r="L28" s="223"/>
-      <c r="M28" s="223"/>
-      <c r="N28" s="223"/>
-      <c r="O28" s="223"/>
-      <c r="P28" s="223"/>
-      <c r="Q28" s="223"/>
-      <c r="R28" s="223"/>
-      <c r="S28" s="223"/>
-      <c r="T28" s="223"/>
-      <c r="U28" s="223"/>
-      <c r="V28" s="223"/>
-      <c r="W28" s="223"/>
-      <c r="X28" s="223"/>
-      <c r="Y28" s="223"/>
-      <c r="Z28" s="223"/>
-      <c r="AA28" s="223"/>
-      <c r="AB28" s="223"/>
-      <c r="AC28" s="223"/>
-      <c r="AD28" s="223"/>
-      <c r="AE28" s="224"/>
+      <c r="E28" s="203" t="s">
+        <v>588</v>
+      </c>
+      <c r="F28" s="220"/>
+      <c r="G28" s="220"/>
+      <c r="H28" s="220"/>
+      <c r="I28" s="220"/>
+      <c r="J28" s="220"/>
+      <c r="K28" s="220"/>
+      <c r="L28" s="220"/>
+      <c r="M28" s="220"/>
+      <c r="N28" s="220"/>
+      <c r="O28" s="220"/>
+      <c r="P28" s="220"/>
+      <c r="Q28" s="220"/>
+      <c r="R28" s="220"/>
+      <c r="S28" s="220"/>
+      <c r="T28" s="220"/>
+      <c r="U28" s="220"/>
+      <c r="V28" s="220"/>
+      <c r="W28" s="220"/>
+      <c r="X28" s="220"/>
+      <c r="Y28" s="220"/>
+      <c r="Z28" s="220"/>
+      <c r="AA28" s="220"/>
+      <c r="AB28" s="220"/>
+      <c r="AC28" s="220"/>
+      <c r="AD28" s="220"/>
+      <c r="AE28" s="221"/>
       <c r="AF28" s="43"/>
       <c r="AG28" s="43"/>
       <c r="AH28" s="43"/>
@@ -20166,35 +20193,35 @@
     <row r="29" spans="1:60" s="30" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="36"/>
       <c r="D29" s="52"/>
-      <c r="E29" s="217" t="s">
+      <c r="E29" s="203" t="s">
         <v>557</v>
       </c>
-      <c r="F29" s="218"/>
-      <c r="G29" s="218"/>
-      <c r="H29" s="218"/>
-      <c r="I29" s="218"/>
-      <c r="J29" s="218"/>
-      <c r="K29" s="218"/>
-      <c r="L29" s="218"/>
-      <c r="M29" s="218"/>
-      <c r="N29" s="218"/>
-      <c r="O29" s="218"/>
-      <c r="P29" s="218"/>
-      <c r="Q29" s="218"/>
-      <c r="R29" s="218"/>
-      <c r="S29" s="218"/>
-      <c r="T29" s="218"/>
-      <c r="U29" s="218"/>
-      <c r="V29" s="218"/>
-      <c r="W29" s="218"/>
-      <c r="X29" s="218"/>
-      <c r="Y29" s="218"/>
-      <c r="Z29" s="218"/>
-      <c r="AA29" s="218"/>
-      <c r="AB29" s="218"/>
-      <c r="AC29" s="218"/>
-      <c r="AD29" s="218"/>
-      <c r="AE29" s="219"/>
+      <c r="F29" s="204"/>
+      <c r="G29" s="204"/>
+      <c r="H29" s="204"/>
+      <c r="I29" s="204"/>
+      <c r="J29" s="204"/>
+      <c r="K29" s="204"/>
+      <c r="L29" s="204"/>
+      <c r="M29" s="204"/>
+      <c r="N29" s="204"/>
+      <c r="O29" s="204"/>
+      <c r="P29" s="204"/>
+      <c r="Q29" s="204"/>
+      <c r="R29" s="204"/>
+      <c r="S29" s="204"/>
+      <c r="T29" s="204"/>
+      <c r="U29" s="204"/>
+      <c r="V29" s="204"/>
+      <c r="W29" s="204"/>
+      <c r="X29" s="204"/>
+      <c r="Y29" s="204"/>
+      <c r="Z29" s="204"/>
+      <c r="AA29" s="204"/>
+      <c r="AB29" s="204"/>
+      <c r="AC29" s="204"/>
+      <c r="AD29" s="204"/>
+      <c r="AE29" s="205"/>
       <c r="AF29" s="43"/>
       <c r="AG29" s="43"/>
       <c r="AH29" s="43"/>
@@ -20229,35 +20256,35 @@
       <c r="D30" s="52">
         <v>3</v>
       </c>
-      <c r="E30" s="217" t="s">
-        <v>590</v>
-      </c>
-      <c r="F30" s="218"/>
-      <c r="G30" s="218"/>
-      <c r="H30" s="218"/>
-      <c r="I30" s="218"/>
-      <c r="J30" s="218"/>
-      <c r="K30" s="218"/>
-      <c r="L30" s="218"/>
-      <c r="M30" s="218"/>
-      <c r="N30" s="218"/>
-      <c r="O30" s="218"/>
-      <c r="P30" s="218"/>
-      <c r="Q30" s="218"/>
-      <c r="R30" s="218"/>
-      <c r="S30" s="218"/>
-      <c r="T30" s="218"/>
-      <c r="U30" s="218"/>
-      <c r="V30" s="218"/>
-      <c r="W30" s="218"/>
-      <c r="X30" s="218"/>
-      <c r="Y30" s="218"/>
-      <c r="Z30" s="218"/>
-      <c r="AA30" s="218"/>
-      <c r="AB30" s="218"/>
-      <c r="AC30" s="218"/>
-      <c r="AD30" s="218"/>
-      <c r="AE30" s="219"/>
+      <c r="E30" s="203" t="s">
+        <v>589</v>
+      </c>
+      <c r="F30" s="204"/>
+      <c r="G30" s="204"/>
+      <c r="H30" s="204"/>
+      <c r="I30" s="204"/>
+      <c r="J30" s="204"/>
+      <c r="K30" s="204"/>
+      <c r="L30" s="204"/>
+      <c r="M30" s="204"/>
+      <c r="N30" s="204"/>
+      <c r="O30" s="204"/>
+      <c r="P30" s="204"/>
+      <c r="Q30" s="204"/>
+      <c r="R30" s="204"/>
+      <c r="S30" s="204"/>
+      <c r="T30" s="204"/>
+      <c r="U30" s="204"/>
+      <c r="V30" s="204"/>
+      <c r="W30" s="204"/>
+      <c r="X30" s="204"/>
+      <c r="Y30" s="204"/>
+      <c r="Z30" s="204"/>
+      <c r="AA30" s="204"/>
+      <c r="AB30" s="204"/>
+      <c r="AC30" s="204"/>
+      <c r="AD30" s="204"/>
+      <c r="AE30" s="205"/>
       <c r="AF30" s="43"/>
       <c r="AG30" s="43"/>
       <c r="AH30" s="43"/>
@@ -20292,35 +20319,35 @@
       <c r="D31" s="52">
         <v>4</v>
       </c>
-      <c r="E31" s="217" t="s">
+      <c r="E31" s="203" t="s">
         <v>553</v>
       </c>
-      <c r="F31" s="218"/>
-      <c r="G31" s="218"/>
-      <c r="H31" s="218"/>
-      <c r="I31" s="218"/>
-      <c r="J31" s="218"/>
-      <c r="K31" s="218"/>
-      <c r="L31" s="218"/>
-      <c r="M31" s="218"/>
-      <c r="N31" s="218"/>
-      <c r="O31" s="218"/>
-      <c r="P31" s="218"/>
-      <c r="Q31" s="218"/>
-      <c r="R31" s="218"/>
-      <c r="S31" s="218"/>
-      <c r="T31" s="218"/>
-      <c r="U31" s="218"/>
-      <c r="V31" s="218"/>
-      <c r="W31" s="218"/>
-      <c r="X31" s="218"/>
-      <c r="Y31" s="218"/>
-      <c r="Z31" s="218"/>
-      <c r="AA31" s="218"/>
-      <c r="AB31" s="218"/>
-      <c r="AC31" s="218"/>
-      <c r="AD31" s="218"/>
-      <c r="AE31" s="219"/>
+      <c r="F31" s="204"/>
+      <c r="G31" s="204"/>
+      <c r="H31" s="204"/>
+      <c r="I31" s="204"/>
+      <c r="J31" s="204"/>
+      <c r="K31" s="204"/>
+      <c r="L31" s="204"/>
+      <c r="M31" s="204"/>
+      <c r="N31" s="204"/>
+      <c r="O31" s="204"/>
+      <c r="P31" s="204"/>
+      <c r="Q31" s="204"/>
+      <c r="R31" s="204"/>
+      <c r="S31" s="204"/>
+      <c r="T31" s="204"/>
+      <c r="U31" s="204"/>
+      <c r="V31" s="204"/>
+      <c r="W31" s="204"/>
+      <c r="X31" s="204"/>
+      <c r="Y31" s="204"/>
+      <c r="Z31" s="204"/>
+      <c r="AA31" s="204"/>
+      <c r="AB31" s="204"/>
+      <c r="AC31" s="204"/>
+      <c r="AD31" s="204"/>
+      <c r="AE31" s="205"/>
       <c r="AF31" s="43"/>
       <c r="AG31" s="43"/>
       <c r="AH31" s="43"/>
@@ -20355,35 +20382,35 @@
       <c r="D32" s="52">
         <v>5</v>
       </c>
-      <c r="E32" s="217" t="s">
-        <v>591</v>
-      </c>
-      <c r="F32" s="218"/>
-      <c r="G32" s="218"/>
-      <c r="H32" s="218"/>
-      <c r="I32" s="218"/>
-      <c r="J32" s="218"/>
-      <c r="K32" s="218"/>
-      <c r="L32" s="218"/>
-      <c r="M32" s="218"/>
-      <c r="N32" s="218"/>
-      <c r="O32" s="218"/>
-      <c r="P32" s="218"/>
-      <c r="Q32" s="218"/>
-      <c r="R32" s="218"/>
-      <c r="S32" s="218"/>
-      <c r="T32" s="218"/>
-      <c r="U32" s="218"/>
-      <c r="V32" s="218"/>
-      <c r="W32" s="218"/>
-      <c r="X32" s="218"/>
-      <c r="Y32" s="218"/>
-      <c r="Z32" s="218"/>
-      <c r="AA32" s="218"/>
-      <c r="AB32" s="218"/>
-      <c r="AC32" s="218"/>
-      <c r="AD32" s="218"/>
-      <c r="AE32" s="219"/>
+      <c r="E32" s="203" t="s">
+        <v>590</v>
+      </c>
+      <c r="F32" s="204"/>
+      <c r="G32" s="204"/>
+      <c r="H32" s="204"/>
+      <c r="I32" s="204"/>
+      <c r="J32" s="204"/>
+      <c r="K32" s="204"/>
+      <c r="L32" s="204"/>
+      <c r="M32" s="204"/>
+      <c r="N32" s="204"/>
+      <c r="O32" s="204"/>
+      <c r="P32" s="204"/>
+      <c r="Q32" s="204"/>
+      <c r="R32" s="204"/>
+      <c r="S32" s="204"/>
+      <c r="T32" s="204"/>
+      <c r="U32" s="204"/>
+      <c r="V32" s="204"/>
+      <c r="W32" s="204"/>
+      <c r="X32" s="204"/>
+      <c r="Y32" s="204"/>
+      <c r="Z32" s="204"/>
+      <c r="AA32" s="204"/>
+      <c r="AB32" s="204"/>
+      <c r="AC32" s="204"/>
+      <c r="AD32" s="204"/>
+      <c r="AE32" s="205"/>
       <c r="AF32" s="43"/>
       <c r="AG32" s="43"/>
       <c r="AH32" s="43"/>
@@ -20418,35 +20445,35 @@
       <c r="D33" s="52">
         <v>6</v>
       </c>
-      <c r="E33" s="217" t="s">
-        <v>592</v>
-      </c>
-      <c r="F33" s="218"/>
-      <c r="G33" s="218"/>
-      <c r="H33" s="218"/>
-      <c r="I33" s="218"/>
-      <c r="J33" s="218"/>
-      <c r="K33" s="218"/>
-      <c r="L33" s="218"/>
-      <c r="M33" s="218"/>
-      <c r="N33" s="218"/>
-      <c r="O33" s="218"/>
-      <c r="P33" s="218"/>
-      <c r="Q33" s="218"/>
-      <c r="R33" s="218"/>
-      <c r="S33" s="218"/>
-      <c r="T33" s="218"/>
-      <c r="U33" s="218"/>
-      <c r="V33" s="218"/>
-      <c r="W33" s="218"/>
-      <c r="X33" s="218"/>
-      <c r="Y33" s="218"/>
-      <c r="Z33" s="218"/>
-      <c r="AA33" s="218"/>
-      <c r="AB33" s="218"/>
-      <c r="AC33" s="218"/>
-      <c r="AD33" s="218"/>
-      <c r="AE33" s="219"/>
+      <c r="E33" s="203" t="s">
+        <v>591</v>
+      </c>
+      <c r="F33" s="204"/>
+      <c r="G33" s="204"/>
+      <c r="H33" s="204"/>
+      <c r="I33" s="204"/>
+      <c r="J33" s="204"/>
+      <c r="K33" s="204"/>
+      <c r="L33" s="204"/>
+      <c r="M33" s="204"/>
+      <c r="N33" s="204"/>
+      <c r="O33" s="204"/>
+      <c r="P33" s="204"/>
+      <c r="Q33" s="204"/>
+      <c r="R33" s="204"/>
+      <c r="S33" s="204"/>
+      <c r="T33" s="204"/>
+      <c r="U33" s="204"/>
+      <c r="V33" s="204"/>
+      <c r="W33" s="204"/>
+      <c r="X33" s="204"/>
+      <c r="Y33" s="204"/>
+      <c r="Z33" s="204"/>
+      <c r="AA33" s="204"/>
+      <c r="AB33" s="204"/>
+      <c r="AC33" s="204"/>
+      <c r="AD33" s="204"/>
+      <c r="AE33" s="205"/>
       <c r="AF33" s="43"/>
       <c r="AG33" s="43"/>
       <c r="AH33" s="43"/>
@@ -20481,35 +20508,35 @@
       <c r="D34" s="52">
         <v>7</v>
       </c>
-      <c r="E34" s="220" t="s">
+      <c r="E34" s="217" t="s">
         <v>554</v>
       </c>
-      <c r="F34" s="221"/>
-      <c r="G34" s="221"/>
-      <c r="H34" s="221"/>
-      <c r="I34" s="221"/>
-      <c r="J34" s="221"/>
-      <c r="K34" s="221"/>
-      <c r="L34" s="221"/>
-      <c r="M34" s="221"/>
-      <c r="N34" s="221"/>
-      <c r="O34" s="221"/>
-      <c r="P34" s="221"/>
-      <c r="Q34" s="221"/>
-      <c r="R34" s="221"/>
-      <c r="S34" s="221"/>
-      <c r="T34" s="221"/>
-      <c r="U34" s="221"/>
-      <c r="V34" s="221"/>
-      <c r="W34" s="221"/>
-      <c r="X34" s="221"/>
-      <c r="Y34" s="221"/>
-      <c r="Z34" s="221"/>
-      <c r="AA34" s="221"/>
-      <c r="AB34" s="221"/>
-      <c r="AC34" s="221"/>
-      <c r="AD34" s="221"/>
-      <c r="AE34" s="222"/>
+      <c r="F34" s="218"/>
+      <c r="G34" s="218"/>
+      <c r="H34" s="218"/>
+      <c r="I34" s="218"/>
+      <c r="J34" s="218"/>
+      <c r="K34" s="218"/>
+      <c r="L34" s="218"/>
+      <c r="M34" s="218"/>
+      <c r="N34" s="218"/>
+      <c r="O34" s="218"/>
+      <c r="P34" s="218"/>
+      <c r="Q34" s="218"/>
+      <c r="R34" s="218"/>
+      <c r="S34" s="218"/>
+      <c r="T34" s="218"/>
+      <c r="U34" s="218"/>
+      <c r="V34" s="218"/>
+      <c r="W34" s="218"/>
+      <c r="X34" s="218"/>
+      <c r="Y34" s="218"/>
+      <c r="Z34" s="218"/>
+      <c r="AA34" s="218"/>
+      <c r="AB34" s="218"/>
+      <c r="AC34" s="218"/>
+      <c r="AD34" s="218"/>
+      <c r="AE34" s="219"/>
       <c r="AF34" s="43"/>
       <c r="AG34" s="43"/>
       <c r="AH34" s="43"/>
@@ -20545,35 +20572,35 @@
       <c r="D35" s="52">
         <v>8</v>
       </c>
-      <c r="E35" s="217" t="s">
+      <c r="E35" s="203" t="s">
         <v>555</v>
       </c>
-      <c r="F35" s="218"/>
-      <c r="G35" s="218"/>
-      <c r="H35" s="218"/>
-      <c r="I35" s="218"/>
-      <c r="J35" s="218"/>
-      <c r="K35" s="218"/>
-      <c r="L35" s="218"/>
-      <c r="M35" s="218"/>
-      <c r="N35" s="218"/>
-      <c r="O35" s="218"/>
-      <c r="P35" s="218"/>
-      <c r="Q35" s="218"/>
-      <c r="R35" s="218"/>
-      <c r="S35" s="218"/>
-      <c r="T35" s="218"/>
-      <c r="U35" s="218"/>
-      <c r="V35" s="218"/>
-      <c r="W35" s="218"/>
-      <c r="X35" s="218"/>
-      <c r="Y35" s="218"/>
-      <c r="Z35" s="218"/>
-      <c r="AA35" s="218"/>
-      <c r="AB35" s="218"/>
-      <c r="AC35" s="218"/>
-      <c r="AD35" s="218"/>
-      <c r="AE35" s="219"/>
+      <c r="F35" s="204"/>
+      <c r="G35" s="204"/>
+      <c r="H35" s="204"/>
+      <c r="I35" s="204"/>
+      <c r="J35" s="204"/>
+      <c r="K35" s="204"/>
+      <c r="L35" s="204"/>
+      <c r="M35" s="204"/>
+      <c r="N35" s="204"/>
+      <c r="O35" s="204"/>
+      <c r="P35" s="204"/>
+      <c r="Q35" s="204"/>
+      <c r="R35" s="204"/>
+      <c r="S35" s="204"/>
+      <c r="T35" s="204"/>
+      <c r="U35" s="204"/>
+      <c r="V35" s="204"/>
+      <c r="W35" s="204"/>
+      <c r="X35" s="204"/>
+      <c r="Y35" s="204"/>
+      <c r="Z35" s="204"/>
+      <c r="AA35" s="204"/>
+      <c r="AB35" s="204"/>
+      <c r="AC35" s="204"/>
+      <c r="AD35" s="204"/>
+      <c r="AE35" s="205"/>
       <c r="AF35" s="43"/>
       <c r="AG35" s="43"/>
       <c r="AI35" s="43"/>
@@ -20614,7 +20641,7 @@
     <row r="39" spans="1:60" s="55" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="40" spans="1:60" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D40" s="206" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E40" s="85"/>
       <c r="F40" s="86"/>
@@ -20674,7 +20701,7 @@
       <c r="BH40" s="80"/>
     </row>
     <row r="41" spans="1:60" s="55" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D41" s="225"/>
+      <c r="D41" s="222"/>
       <c r="E41" s="88"/>
       <c r="F41" s="89"/>
       <c r="G41" s="89"/>
@@ -20737,35 +20764,35 @@
       <c r="D42" s="52">
         <v>1</v>
       </c>
-      <c r="E42" s="217" t="s">
-        <v>594</v>
-      </c>
-      <c r="F42" s="218"/>
-      <c r="G42" s="218"/>
-      <c r="H42" s="218"/>
-      <c r="I42" s="218"/>
-      <c r="J42" s="218"/>
-      <c r="K42" s="218"/>
-      <c r="L42" s="218"/>
-      <c r="M42" s="218"/>
-      <c r="N42" s="218"/>
-      <c r="O42" s="218"/>
-      <c r="P42" s="218"/>
-      <c r="Q42" s="218"/>
-      <c r="R42" s="218"/>
-      <c r="S42" s="218"/>
-      <c r="T42" s="218"/>
-      <c r="U42" s="218"/>
-      <c r="V42" s="218"/>
-      <c r="W42" s="218"/>
-      <c r="X42" s="218"/>
-      <c r="Y42" s="218"/>
-      <c r="Z42" s="218"/>
-      <c r="AA42" s="218"/>
-      <c r="AB42" s="218"/>
-      <c r="AC42" s="218"/>
-      <c r="AD42" s="218"/>
-      <c r="AE42" s="219"/>
+      <c r="E42" s="203" t="s">
+        <v>593</v>
+      </c>
+      <c r="F42" s="204"/>
+      <c r="G42" s="204"/>
+      <c r="H42" s="204"/>
+      <c r="I42" s="204"/>
+      <c r="J42" s="204"/>
+      <c r="K42" s="204"/>
+      <c r="L42" s="204"/>
+      <c r="M42" s="204"/>
+      <c r="N42" s="204"/>
+      <c r="O42" s="204"/>
+      <c r="P42" s="204"/>
+      <c r="Q42" s="204"/>
+      <c r="R42" s="204"/>
+      <c r="S42" s="204"/>
+      <c r="T42" s="204"/>
+      <c r="U42" s="204"/>
+      <c r="V42" s="204"/>
+      <c r="W42" s="204"/>
+      <c r="X42" s="204"/>
+      <c r="Y42" s="204"/>
+      <c r="Z42" s="204"/>
+      <c r="AA42" s="204"/>
+      <c r="AB42" s="204"/>
+      <c r="AC42" s="204"/>
+      <c r="AD42" s="204"/>
+      <c r="AE42" s="205"/>
       <c r="AF42" s="43"/>
       <c r="AG42" s="43"/>
       <c r="AH42" s="43"/>
@@ -20801,35 +20828,35 @@
       <c r="D43" s="52">
         <v>2</v>
       </c>
-      <c r="E43" s="217" t="s">
-        <v>595</v>
-      </c>
-      <c r="F43" s="218"/>
-      <c r="G43" s="218"/>
-      <c r="H43" s="218"/>
-      <c r="I43" s="218"/>
-      <c r="J43" s="218"/>
-      <c r="K43" s="218"/>
-      <c r="L43" s="218"/>
-      <c r="M43" s="218"/>
-      <c r="N43" s="218"/>
-      <c r="O43" s="218"/>
-      <c r="P43" s="218"/>
-      <c r="Q43" s="218"/>
-      <c r="R43" s="218"/>
-      <c r="S43" s="218"/>
-      <c r="T43" s="218"/>
-      <c r="U43" s="218"/>
-      <c r="V43" s="218"/>
-      <c r="W43" s="218"/>
-      <c r="X43" s="218"/>
-      <c r="Y43" s="218"/>
-      <c r="Z43" s="218"/>
-      <c r="AA43" s="218"/>
-      <c r="AB43" s="218"/>
-      <c r="AC43" s="218"/>
-      <c r="AD43" s="218"/>
-      <c r="AE43" s="219"/>
+      <c r="E43" s="203" t="s">
+        <v>594</v>
+      </c>
+      <c r="F43" s="204"/>
+      <c r="G43" s="204"/>
+      <c r="H43" s="204"/>
+      <c r="I43" s="204"/>
+      <c r="J43" s="204"/>
+      <c r="K43" s="204"/>
+      <c r="L43" s="204"/>
+      <c r="M43" s="204"/>
+      <c r="N43" s="204"/>
+      <c r="O43" s="204"/>
+      <c r="P43" s="204"/>
+      <c r="Q43" s="204"/>
+      <c r="R43" s="204"/>
+      <c r="S43" s="204"/>
+      <c r="T43" s="204"/>
+      <c r="U43" s="204"/>
+      <c r="V43" s="204"/>
+      <c r="W43" s="204"/>
+      <c r="X43" s="204"/>
+      <c r="Y43" s="204"/>
+      <c r="Z43" s="204"/>
+      <c r="AA43" s="204"/>
+      <c r="AB43" s="204"/>
+      <c r="AC43" s="204"/>
+      <c r="AD43" s="204"/>
+      <c r="AE43" s="205"/>
       <c r="AF43" s="43"/>
       <c r="AG43" s="43"/>
       <c r="AH43" s="43"/>
@@ -20865,35 +20892,35 @@
       <c r="D44" s="52">
         <v>3</v>
       </c>
-      <c r="E44" s="217" t="s">
-        <v>596</v>
-      </c>
-      <c r="F44" s="218"/>
-      <c r="G44" s="218"/>
-      <c r="H44" s="218"/>
-      <c r="I44" s="218"/>
-      <c r="J44" s="218"/>
-      <c r="K44" s="218"/>
-      <c r="L44" s="218"/>
-      <c r="M44" s="218"/>
-      <c r="N44" s="218"/>
-      <c r="O44" s="218"/>
-      <c r="P44" s="218"/>
-      <c r="Q44" s="218"/>
-      <c r="R44" s="218"/>
-      <c r="S44" s="218"/>
-      <c r="T44" s="218"/>
-      <c r="U44" s="218"/>
-      <c r="V44" s="218"/>
-      <c r="W44" s="218"/>
-      <c r="X44" s="218"/>
-      <c r="Y44" s="218"/>
-      <c r="Z44" s="218"/>
-      <c r="AA44" s="218"/>
-      <c r="AB44" s="218"/>
-      <c r="AC44" s="218"/>
-      <c r="AD44" s="218"/>
-      <c r="AE44" s="219"/>
+      <c r="E44" s="203" t="s">
+        <v>595</v>
+      </c>
+      <c r="F44" s="204"/>
+      <c r="G44" s="204"/>
+      <c r="H44" s="204"/>
+      <c r="I44" s="204"/>
+      <c r="J44" s="204"/>
+      <c r="K44" s="204"/>
+      <c r="L44" s="204"/>
+      <c r="M44" s="204"/>
+      <c r="N44" s="204"/>
+      <c r="O44" s="204"/>
+      <c r="P44" s="204"/>
+      <c r="Q44" s="204"/>
+      <c r="R44" s="204"/>
+      <c r="S44" s="204"/>
+      <c r="T44" s="204"/>
+      <c r="U44" s="204"/>
+      <c r="V44" s="204"/>
+      <c r="W44" s="204"/>
+      <c r="X44" s="204"/>
+      <c r="Y44" s="204"/>
+      <c r="Z44" s="204"/>
+      <c r="AA44" s="204"/>
+      <c r="AB44" s="204"/>
+      <c r="AC44" s="204"/>
+      <c r="AD44" s="204"/>
+      <c r="AE44" s="205"/>
       <c r="AF44" s="43"/>
       <c r="AG44" s="43"/>
       <c r="AH44" s="43"/>
@@ -20929,35 +20956,35 @@
       <c r="D45" s="52">
         <v>4</v>
       </c>
-      <c r="E45" s="217" t="s">
-        <v>606</v>
-      </c>
-      <c r="F45" s="218"/>
-      <c r="G45" s="218"/>
-      <c r="H45" s="218"/>
-      <c r="I45" s="218"/>
-      <c r="J45" s="218"/>
-      <c r="K45" s="218"/>
-      <c r="L45" s="218"/>
-      <c r="M45" s="218"/>
-      <c r="N45" s="218"/>
-      <c r="O45" s="218"/>
-      <c r="P45" s="218"/>
-      <c r="Q45" s="218"/>
-      <c r="R45" s="218"/>
-      <c r="S45" s="218"/>
-      <c r="T45" s="218"/>
-      <c r="U45" s="218"/>
-      <c r="V45" s="218"/>
-      <c r="W45" s="218"/>
-      <c r="X45" s="218"/>
-      <c r="Y45" s="218"/>
-      <c r="Z45" s="218"/>
-      <c r="AA45" s="218"/>
-      <c r="AB45" s="218"/>
-      <c r="AC45" s="218"/>
-      <c r="AD45" s="218"/>
-      <c r="AE45" s="219"/>
+      <c r="E45" s="203" t="s">
+        <v>605</v>
+      </c>
+      <c r="F45" s="204"/>
+      <c r="G45" s="204"/>
+      <c r="H45" s="204"/>
+      <c r="I45" s="204"/>
+      <c r="J45" s="204"/>
+      <c r="K45" s="204"/>
+      <c r="L45" s="204"/>
+      <c r="M45" s="204"/>
+      <c r="N45" s="204"/>
+      <c r="O45" s="204"/>
+      <c r="P45" s="204"/>
+      <c r="Q45" s="204"/>
+      <c r="R45" s="204"/>
+      <c r="S45" s="204"/>
+      <c r="T45" s="204"/>
+      <c r="U45" s="204"/>
+      <c r="V45" s="204"/>
+      <c r="W45" s="204"/>
+      <c r="X45" s="204"/>
+      <c r="Y45" s="204"/>
+      <c r="Z45" s="204"/>
+      <c r="AA45" s="204"/>
+      <c r="AB45" s="204"/>
+      <c r="AC45" s="204"/>
+      <c r="AD45" s="204"/>
+      <c r="AE45" s="205"/>
       <c r="AF45" s="43"/>
       <c r="AG45" s="43"/>
       <c r="AH45" s="43"/>
@@ -20993,35 +21020,35 @@
       <c r="D46" s="52">
         <v>5</v>
       </c>
-      <c r="E46" s="217" t="s">
-        <v>607</v>
-      </c>
-      <c r="F46" s="223"/>
-      <c r="G46" s="223"/>
-      <c r="H46" s="223"/>
-      <c r="I46" s="223"/>
-      <c r="J46" s="223"/>
-      <c r="K46" s="223"/>
-      <c r="L46" s="223"/>
-      <c r="M46" s="223"/>
-      <c r="N46" s="223"/>
-      <c r="O46" s="223"/>
-      <c r="P46" s="223"/>
-      <c r="Q46" s="223"/>
-      <c r="R46" s="223"/>
-      <c r="S46" s="223"/>
-      <c r="T46" s="223"/>
-      <c r="U46" s="223"/>
-      <c r="V46" s="223"/>
-      <c r="W46" s="223"/>
-      <c r="X46" s="223"/>
-      <c r="Y46" s="223"/>
-      <c r="Z46" s="223"/>
-      <c r="AA46" s="223"/>
-      <c r="AB46" s="223"/>
-      <c r="AC46" s="223"/>
-      <c r="AD46" s="223"/>
-      <c r="AE46" s="224"/>
+      <c r="E46" s="203" t="s">
+        <v>606</v>
+      </c>
+      <c r="F46" s="220"/>
+      <c r="G46" s="220"/>
+      <c r="H46" s="220"/>
+      <c r="I46" s="220"/>
+      <c r="J46" s="220"/>
+      <c r="K46" s="220"/>
+      <c r="L46" s="220"/>
+      <c r="M46" s="220"/>
+      <c r="N46" s="220"/>
+      <c r="O46" s="220"/>
+      <c r="P46" s="220"/>
+      <c r="Q46" s="220"/>
+      <c r="R46" s="220"/>
+      <c r="S46" s="220"/>
+      <c r="T46" s="220"/>
+      <c r="U46" s="220"/>
+      <c r="V46" s="220"/>
+      <c r="W46" s="220"/>
+      <c r="X46" s="220"/>
+      <c r="Y46" s="220"/>
+      <c r="Z46" s="220"/>
+      <c r="AA46" s="220"/>
+      <c r="AB46" s="220"/>
+      <c r="AC46" s="220"/>
+      <c r="AD46" s="220"/>
+      <c r="AE46" s="221"/>
       <c r="AF46" s="43"/>
       <c r="AG46" s="43"/>
       <c r="AH46" s="43"/>
@@ -21055,35 +21082,35 @@
     <row r="47" spans="1:60" s="30" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="36"/>
       <c r="D47" s="52"/>
-      <c r="E47" s="217" t="s">
-        <v>597</v>
-      </c>
-      <c r="F47" s="218"/>
-      <c r="G47" s="218"/>
-      <c r="H47" s="218"/>
-      <c r="I47" s="218"/>
-      <c r="J47" s="218"/>
-      <c r="K47" s="218"/>
-      <c r="L47" s="218"/>
-      <c r="M47" s="218"/>
-      <c r="N47" s="218"/>
-      <c r="O47" s="218"/>
-      <c r="P47" s="218"/>
-      <c r="Q47" s="218"/>
-      <c r="R47" s="218"/>
-      <c r="S47" s="218"/>
-      <c r="T47" s="218"/>
-      <c r="U47" s="218"/>
-      <c r="V47" s="218"/>
-      <c r="W47" s="218"/>
-      <c r="X47" s="218"/>
-      <c r="Y47" s="218"/>
-      <c r="Z47" s="218"/>
-      <c r="AA47" s="218"/>
-      <c r="AB47" s="218"/>
-      <c r="AC47" s="218"/>
-      <c r="AD47" s="218"/>
-      <c r="AE47" s="219"/>
+      <c r="E47" s="203" t="s">
+        <v>596</v>
+      </c>
+      <c r="F47" s="204"/>
+      <c r="G47" s="204"/>
+      <c r="H47" s="204"/>
+      <c r="I47" s="204"/>
+      <c r="J47" s="204"/>
+      <c r="K47" s="204"/>
+      <c r="L47" s="204"/>
+      <c r="M47" s="204"/>
+      <c r="N47" s="204"/>
+      <c r="O47" s="204"/>
+      <c r="P47" s="204"/>
+      <c r="Q47" s="204"/>
+      <c r="R47" s="204"/>
+      <c r="S47" s="204"/>
+      <c r="T47" s="204"/>
+      <c r="U47" s="204"/>
+      <c r="V47" s="204"/>
+      <c r="W47" s="204"/>
+      <c r="X47" s="204"/>
+      <c r="Y47" s="204"/>
+      <c r="Z47" s="204"/>
+      <c r="AA47" s="204"/>
+      <c r="AB47" s="204"/>
+      <c r="AC47" s="204"/>
+      <c r="AD47" s="204"/>
+      <c r="AE47" s="205"/>
       <c r="AF47" s="43"/>
       <c r="AG47" s="43"/>
       <c r="AH47" s="43"/>
@@ -21119,35 +21146,35 @@
       <c r="D48" s="52">
         <v>6</v>
       </c>
-      <c r="E48" s="217" t="s">
-        <v>598</v>
-      </c>
-      <c r="F48" s="218"/>
-      <c r="G48" s="218"/>
-      <c r="H48" s="218"/>
-      <c r="I48" s="218"/>
-      <c r="J48" s="218"/>
-      <c r="K48" s="218"/>
-      <c r="L48" s="218"/>
-      <c r="M48" s="218"/>
-      <c r="N48" s="218"/>
-      <c r="O48" s="218"/>
-      <c r="P48" s="218"/>
-      <c r="Q48" s="218"/>
-      <c r="R48" s="218"/>
-      <c r="S48" s="218"/>
-      <c r="T48" s="218"/>
-      <c r="U48" s="218"/>
-      <c r="V48" s="218"/>
-      <c r="W48" s="218"/>
-      <c r="X48" s="218"/>
-      <c r="Y48" s="218"/>
-      <c r="Z48" s="218"/>
-      <c r="AA48" s="218"/>
-      <c r="AB48" s="218"/>
-      <c r="AC48" s="218"/>
-      <c r="AD48" s="218"/>
-      <c r="AE48" s="219"/>
+      <c r="E48" s="203" t="s">
+        <v>597</v>
+      </c>
+      <c r="F48" s="204"/>
+      <c r="G48" s="204"/>
+      <c r="H48" s="204"/>
+      <c r="I48" s="204"/>
+      <c r="J48" s="204"/>
+      <c r="K48" s="204"/>
+      <c r="L48" s="204"/>
+      <c r="M48" s="204"/>
+      <c r="N48" s="204"/>
+      <c r="O48" s="204"/>
+      <c r="P48" s="204"/>
+      <c r="Q48" s="204"/>
+      <c r="R48" s="204"/>
+      <c r="S48" s="204"/>
+      <c r="T48" s="204"/>
+      <c r="U48" s="204"/>
+      <c r="V48" s="204"/>
+      <c r="W48" s="204"/>
+      <c r="X48" s="204"/>
+      <c r="Y48" s="204"/>
+      <c r="Z48" s="204"/>
+      <c r="AA48" s="204"/>
+      <c r="AB48" s="204"/>
+      <c r="AC48" s="204"/>
+      <c r="AD48" s="204"/>
+      <c r="AE48" s="205"/>
       <c r="AF48" s="43"/>
       <c r="AG48" s="43"/>
       <c r="AH48" s="43"/>
@@ -21183,35 +21210,35 @@
       <c r="D49" s="52">
         <v>7</v>
       </c>
-      <c r="E49" s="217" t="s">
-        <v>599</v>
-      </c>
-      <c r="F49" s="218"/>
-      <c r="G49" s="218"/>
-      <c r="H49" s="218"/>
-      <c r="I49" s="218"/>
-      <c r="J49" s="218"/>
-      <c r="K49" s="218"/>
-      <c r="L49" s="218"/>
-      <c r="M49" s="218"/>
-      <c r="N49" s="218"/>
-      <c r="O49" s="218"/>
-      <c r="P49" s="218"/>
-      <c r="Q49" s="218"/>
-      <c r="R49" s="218"/>
-      <c r="S49" s="218"/>
-      <c r="T49" s="218"/>
-      <c r="U49" s="218"/>
-      <c r="V49" s="218"/>
-      <c r="W49" s="218"/>
-      <c r="X49" s="218"/>
-      <c r="Y49" s="218"/>
-      <c r="Z49" s="218"/>
-      <c r="AA49" s="218"/>
-      <c r="AB49" s="218"/>
-      <c r="AC49" s="218"/>
-      <c r="AD49" s="218"/>
-      <c r="AE49" s="219"/>
+      <c r="E49" s="203" t="s">
+        <v>598</v>
+      </c>
+      <c r="F49" s="204"/>
+      <c r="G49" s="204"/>
+      <c r="H49" s="204"/>
+      <c r="I49" s="204"/>
+      <c r="J49" s="204"/>
+      <c r="K49" s="204"/>
+      <c r="L49" s="204"/>
+      <c r="M49" s="204"/>
+      <c r="N49" s="204"/>
+      <c r="O49" s="204"/>
+      <c r="P49" s="204"/>
+      <c r="Q49" s="204"/>
+      <c r="R49" s="204"/>
+      <c r="S49" s="204"/>
+      <c r="T49" s="204"/>
+      <c r="U49" s="204"/>
+      <c r="V49" s="204"/>
+      <c r="W49" s="204"/>
+      <c r="X49" s="204"/>
+      <c r="Y49" s="204"/>
+      <c r="Z49" s="204"/>
+      <c r="AA49" s="204"/>
+      <c r="AB49" s="204"/>
+      <c r="AC49" s="204"/>
+      <c r="AD49" s="204"/>
+      <c r="AE49" s="205"/>
       <c r="AF49" s="43"/>
       <c r="AG49" s="43"/>
       <c r="AH49" s="43"/>
@@ -21247,35 +21274,35 @@
       <c r="D50" s="52">
         <v>8</v>
       </c>
-      <c r="E50" s="217" t="s">
-        <v>600</v>
-      </c>
-      <c r="F50" s="218"/>
-      <c r="G50" s="218"/>
-      <c r="H50" s="218"/>
-      <c r="I50" s="218"/>
-      <c r="J50" s="218"/>
-      <c r="K50" s="218"/>
-      <c r="L50" s="218"/>
-      <c r="M50" s="218"/>
-      <c r="N50" s="218"/>
-      <c r="O50" s="218"/>
-      <c r="P50" s="218"/>
-      <c r="Q50" s="218"/>
-      <c r="R50" s="218"/>
-      <c r="S50" s="218"/>
-      <c r="T50" s="218"/>
-      <c r="U50" s="218"/>
-      <c r="V50" s="218"/>
-      <c r="W50" s="218"/>
-      <c r="X50" s="218"/>
-      <c r="Y50" s="218"/>
-      <c r="Z50" s="218"/>
-      <c r="AA50" s="218"/>
-      <c r="AB50" s="218"/>
-      <c r="AC50" s="218"/>
-      <c r="AD50" s="218"/>
-      <c r="AE50" s="219"/>
+      <c r="E50" s="203" t="s">
+        <v>599</v>
+      </c>
+      <c r="F50" s="204"/>
+      <c r="G50" s="204"/>
+      <c r="H50" s="204"/>
+      <c r="I50" s="204"/>
+      <c r="J50" s="204"/>
+      <c r="K50" s="204"/>
+      <c r="L50" s="204"/>
+      <c r="M50" s="204"/>
+      <c r="N50" s="204"/>
+      <c r="O50" s="204"/>
+      <c r="P50" s="204"/>
+      <c r="Q50" s="204"/>
+      <c r="R50" s="204"/>
+      <c r="S50" s="204"/>
+      <c r="T50" s="204"/>
+      <c r="U50" s="204"/>
+      <c r="V50" s="204"/>
+      <c r="W50" s="204"/>
+      <c r="X50" s="204"/>
+      <c r="Y50" s="204"/>
+      <c r="Z50" s="204"/>
+      <c r="AA50" s="204"/>
+      <c r="AB50" s="204"/>
+      <c r="AC50" s="204"/>
+      <c r="AD50" s="204"/>
+      <c r="AE50" s="205"/>
       <c r="AF50" s="43"/>
       <c r="AG50" s="43"/>
       <c r="AH50" s="43"/>
@@ -21311,35 +21338,35 @@
       <c r="D51" s="52">
         <v>9</v>
       </c>
-      <c r="E51" s="217" t="s">
-        <v>601</v>
-      </c>
-      <c r="F51" s="218"/>
-      <c r="G51" s="218"/>
-      <c r="H51" s="218"/>
-      <c r="I51" s="218"/>
-      <c r="J51" s="218"/>
-      <c r="K51" s="218"/>
-      <c r="L51" s="218"/>
-      <c r="M51" s="218"/>
-      <c r="N51" s="218"/>
-      <c r="O51" s="218"/>
-      <c r="P51" s="218"/>
-      <c r="Q51" s="218"/>
-      <c r="R51" s="218"/>
-      <c r="S51" s="218"/>
-      <c r="T51" s="218"/>
-      <c r="U51" s="218"/>
-      <c r="V51" s="218"/>
-      <c r="W51" s="218"/>
-      <c r="X51" s="218"/>
-      <c r="Y51" s="218"/>
-      <c r="Z51" s="218"/>
-      <c r="AA51" s="218"/>
-      <c r="AB51" s="218"/>
-      <c r="AC51" s="218"/>
-      <c r="AD51" s="218"/>
-      <c r="AE51" s="219"/>
+      <c r="E51" s="203" t="s">
+        <v>600</v>
+      </c>
+      <c r="F51" s="204"/>
+      <c r="G51" s="204"/>
+      <c r="H51" s="204"/>
+      <c r="I51" s="204"/>
+      <c r="J51" s="204"/>
+      <c r="K51" s="204"/>
+      <c r="L51" s="204"/>
+      <c r="M51" s="204"/>
+      <c r="N51" s="204"/>
+      <c r="O51" s="204"/>
+      <c r="P51" s="204"/>
+      <c r="Q51" s="204"/>
+      <c r="R51" s="204"/>
+      <c r="S51" s="204"/>
+      <c r="T51" s="204"/>
+      <c r="U51" s="204"/>
+      <c r="V51" s="204"/>
+      <c r="W51" s="204"/>
+      <c r="X51" s="204"/>
+      <c r="Y51" s="204"/>
+      <c r="Z51" s="204"/>
+      <c r="AA51" s="204"/>
+      <c r="AB51" s="204"/>
+      <c r="AC51" s="204"/>
+      <c r="AD51" s="204"/>
+      <c r="AE51" s="205"/>
       <c r="AF51" s="43"/>
       <c r="AG51" s="43"/>
       <c r="AH51" s="43"/>
@@ -21375,35 +21402,35 @@
       <c r="D52" s="52">
         <v>10</v>
       </c>
-      <c r="E52" s="217" t="s">
+      <c r="E52" s="203" t="s">
         <v>162</v>
       </c>
-      <c r="F52" s="218"/>
-      <c r="G52" s="218"/>
-      <c r="H52" s="218"/>
-      <c r="I52" s="218"/>
-      <c r="J52" s="218"/>
-      <c r="K52" s="218"/>
-      <c r="L52" s="218"/>
-      <c r="M52" s="218"/>
-      <c r="N52" s="218"/>
-      <c r="O52" s="218"/>
-      <c r="P52" s="218"/>
-      <c r="Q52" s="218"/>
-      <c r="R52" s="218"/>
-      <c r="S52" s="218"/>
-      <c r="T52" s="218"/>
-      <c r="U52" s="218"/>
-      <c r="V52" s="218"/>
-      <c r="W52" s="218"/>
-      <c r="X52" s="218"/>
-      <c r="Y52" s="218"/>
-      <c r="Z52" s="218"/>
-      <c r="AA52" s="218"/>
-      <c r="AB52" s="218"/>
-      <c r="AC52" s="218"/>
-      <c r="AD52" s="218"/>
-      <c r="AE52" s="219"/>
+      <c r="F52" s="204"/>
+      <c r="G52" s="204"/>
+      <c r="H52" s="204"/>
+      <c r="I52" s="204"/>
+      <c r="J52" s="204"/>
+      <c r="K52" s="204"/>
+      <c r="L52" s="204"/>
+      <c r="M52" s="204"/>
+      <c r="N52" s="204"/>
+      <c r="O52" s="204"/>
+      <c r="P52" s="204"/>
+      <c r="Q52" s="204"/>
+      <c r="R52" s="204"/>
+      <c r="S52" s="204"/>
+      <c r="T52" s="204"/>
+      <c r="U52" s="204"/>
+      <c r="V52" s="204"/>
+      <c r="W52" s="204"/>
+      <c r="X52" s="204"/>
+      <c r="Y52" s="204"/>
+      <c r="Z52" s="204"/>
+      <c r="AA52" s="204"/>
+      <c r="AB52" s="204"/>
+      <c r="AC52" s="204"/>
+      <c r="AD52" s="204"/>
+      <c r="AE52" s="205"/>
       <c r="AF52" s="43"/>
       <c r="AG52" s="43"/>
       <c r="AH52" s="43"/>
@@ -21439,35 +21466,35 @@
       <c r="D53" s="52">
         <v>11</v>
       </c>
-      <c r="E53" s="217" t="s">
-        <v>602</v>
-      </c>
-      <c r="F53" s="218"/>
-      <c r="G53" s="218"/>
-      <c r="H53" s="218"/>
-      <c r="I53" s="218"/>
-      <c r="J53" s="218"/>
-      <c r="K53" s="218"/>
-      <c r="L53" s="218"/>
-      <c r="M53" s="218"/>
-      <c r="N53" s="218"/>
-      <c r="O53" s="218"/>
-      <c r="P53" s="218"/>
-      <c r="Q53" s="218"/>
-      <c r="R53" s="218"/>
-      <c r="S53" s="218"/>
-      <c r="T53" s="218"/>
-      <c r="U53" s="218"/>
-      <c r="V53" s="218"/>
-      <c r="W53" s="218"/>
-      <c r="X53" s="218"/>
-      <c r="Y53" s="218"/>
-      <c r="Z53" s="218"/>
-      <c r="AA53" s="218"/>
-      <c r="AB53" s="218"/>
-      <c r="AC53" s="218"/>
-      <c r="AD53" s="218"/>
-      <c r="AE53" s="219"/>
+      <c r="E53" s="203" t="s">
+        <v>601</v>
+      </c>
+      <c r="F53" s="204"/>
+      <c r="G53" s="204"/>
+      <c r="H53" s="204"/>
+      <c r="I53" s="204"/>
+      <c r="J53" s="204"/>
+      <c r="K53" s="204"/>
+      <c r="L53" s="204"/>
+      <c r="M53" s="204"/>
+      <c r="N53" s="204"/>
+      <c r="O53" s="204"/>
+      <c r="P53" s="204"/>
+      <c r="Q53" s="204"/>
+      <c r="R53" s="204"/>
+      <c r="S53" s="204"/>
+      <c r="T53" s="204"/>
+      <c r="U53" s="204"/>
+      <c r="V53" s="204"/>
+      <c r="W53" s="204"/>
+      <c r="X53" s="204"/>
+      <c r="Y53" s="204"/>
+      <c r="Z53" s="204"/>
+      <c r="AA53" s="204"/>
+      <c r="AB53" s="204"/>
+      <c r="AC53" s="204"/>
+      <c r="AD53" s="204"/>
+      <c r="AE53" s="205"/>
       <c r="AF53" s="43"/>
       <c r="AG53" s="43"/>
       <c r="AH53" s="43"/>
@@ -21503,35 +21530,35 @@
       <c r="D54" s="52">
         <v>12</v>
       </c>
-      <c r="E54" s="217" t="s">
-        <v>603</v>
-      </c>
-      <c r="F54" s="218"/>
-      <c r="G54" s="218"/>
-      <c r="H54" s="218"/>
-      <c r="I54" s="218"/>
-      <c r="J54" s="218"/>
-      <c r="K54" s="218"/>
-      <c r="L54" s="218"/>
-      <c r="M54" s="218"/>
-      <c r="N54" s="218"/>
-      <c r="O54" s="218"/>
-      <c r="P54" s="218"/>
-      <c r="Q54" s="218"/>
-      <c r="R54" s="218"/>
-      <c r="S54" s="218"/>
-      <c r="T54" s="218"/>
-      <c r="U54" s="218"/>
-      <c r="V54" s="218"/>
-      <c r="W54" s="218"/>
-      <c r="X54" s="218"/>
-      <c r="Y54" s="218"/>
-      <c r="Z54" s="218"/>
-      <c r="AA54" s="218"/>
-      <c r="AB54" s="218"/>
-      <c r="AC54" s="218"/>
-      <c r="AD54" s="218"/>
-      <c r="AE54" s="219"/>
+      <c r="E54" s="203" t="s">
+        <v>602</v>
+      </c>
+      <c r="F54" s="204"/>
+      <c r="G54" s="204"/>
+      <c r="H54" s="204"/>
+      <c r="I54" s="204"/>
+      <c r="J54" s="204"/>
+      <c r="K54" s="204"/>
+      <c r="L54" s="204"/>
+      <c r="M54" s="204"/>
+      <c r="N54" s="204"/>
+      <c r="O54" s="204"/>
+      <c r="P54" s="204"/>
+      <c r="Q54" s="204"/>
+      <c r="R54" s="204"/>
+      <c r="S54" s="204"/>
+      <c r="T54" s="204"/>
+      <c r="U54" s="204"/>
+      <c r="V54" s="204"/>
+      <c r="W54" s="204"/>
+      <c r="X54" s="204"/>
+      <c r="Y54" s="204"/>
+      <c r="Z54" s="204"/>
+      <c r="AA54" s="204"/>
+      <c r="AB54" s="204"/>
+      <c r="AC54" s="204"/>
+      <c r="AD54" s="204"/>
+      <c r="AE54" s="205"/>
       <c r="AF54" s="43"/>
       <c r="AG54" s="43"/>
       <c r="AH54" s="43"/>
@@ -21567,35 +21594,35 @@
       <c r="D55" s="52">
         <v>13</v>
       </c>
-      <c r="E55" s="217" t="s">
-        <v>604</v>
-      </c>
-      <c r="F55" s="218"/>
-      <c r="G55" s="218"/>
-      <c r="H55" s="218"/>
-      <c r="I55" s="218"/>
-      <c r="J55" s="218"/>
-      <c r="K55" s="218"/>
-      <c r="L55" s="218"/>
-      <c r="M55" s="218"/>
-      <c r="N55" s="218"/>
-      <c r="O55" s="218"/>
-      <c r="P55" s="218"/>
-      <c r="Q55" s="218"/>
-      <c r="R55" s="218"/>
-      <c r="S55" s="218"/>
-      <c r="T55" s="218"/>
-      <c r="U55" s="218"/>
-      <c r="V55" s="218"/>
-      <c r="W55" s="218"/>
-      <c r="X55" s="218"/>
-      <c r="Y55" s="218"/>
-      <c r="Z55" s="218"/>
-      <c r="AA55" s="218"/>
-      <c r="AB55" s="218"/>
-      <c r="AC55" s="218"/>
-      <c r="AD55" s="218"/>
-      <c r="AE55" s="219"/>
+      <c r="E55" s="203" t="s">
+        <v>603</v>
+      </c>
+      <c r="F55" s="204"/>
+      <c r="G55" s="204"/>
+      <c r="H55" s="204"/>
+      <c r="I55" s="204"/>
+      <c r="J55" s="204"/>
+      <c r="K55" s="204"/>
+      <c r="L55" s="204"/>
+      <c r="M55" s="204"/>
+      <c r="N55" s="204"/>
+      <c r="O55" s="204"/>
+      <c r="P55" s="204"/>
+      <c r="Q55" s="204"/>
+      <c r="R55" s="204"/>
+      <c r="S55" s="204"/>
+      <c r="T55" s="204"/>
+      <c r="U55" s="204"/>
+      <c r="V55" s="204"/>
+      <c r="W55" s="204"/>
+      <c r="X55" s="204"/>
+      <c r="Y55" s="204"/>
+      <c r="Z55" s="204"/>
+      <c r="AA55" s="204"/>
+      <c r="AB55" s="204"/>
+      <c r="AC55" s="204"/>
+      <c r="AD55" s="204"/>
+      <c r="AE55" s="205"/>
       <c r="AF55" s="43"/>
       <c r="AG55" s="43"/>
       <c r="AH55" s="43"/>
@@ -21631,35 +21658,35 @@
       <c r="D56" s="52">
         <v>14</v>
       </c>
-      <c r="E56" s="217" t="s">
-        <v>605</v>
-      </c>
-      <c r="F56" s="218"/>
-      <c r="G56" s="218"/>
-      <c r="H56" s="218"/>
-      <c r="I56" s="218"/>
-      <c r="J56" s="218"/>
-      <c r="K56" s="218"/>
-      <c r="L56" s="218"/>
-      <c r="M56" s="218"/>
-      <c r="N56" s="218"/>
-      <c r="O56" s="218"/>
-      <c r="P56" s="218"/>
-      <c r="Q56" s="218"/>
-      <c r="R56" s="218"/>
-      <c r="S56" s="218"/>
-      <c r="T56" s="218"/>
-      <c r="U56" s="218"/>
-      <c r="V56" s="218"/>
-      <c r="W56" s="218"/>
-      <c r="X56" s="218"/>
-      <c r="Y56" s="218"/>
-      <c r="Z56" s="218"/>
-      <c r="AA56" s="218"/>
-      <c r="AB56" s="218"/>
-      <c r="AC56" s="218"/>
-      <c r="AD56" s="218"/>
-      <c r="AE56" s="219"/>
+      <c r="E56" s="203" t="s">
+        <v>604</v>
+      </c>
+      <c r="F56" s="204"/>
+      <c r="G56" s="204"/>
+      <c r="H56" s="204"/>
+      <c r="I56" s="204"/>
+      <c r="J56" s="204"/>
+      <c r="K56" s="204"/>
+      <c r="L56" s="204"/>
+      <c r="M56" s="204"/>
+      <c r="N56" s="204"/>
+      <c r="O56" s="204"/>
+      <c r="P56" s="204"/>
+      <c r="Q56" s="204"/>
+      <c r="R56" s="204"/>
+      <c r="S56" s="204"/>
+      <c r="T56" s="204"/>
+      <c r="U56" s="204"/>
+      <c r="V56" s="204"/>
+      <c r="W56" s="204"/>
+      <c r="X56" s="204"/>
+      <c r="Y56" s="204"/>
+      <c r="Z56" s="204"/>
+      <c r="AA56" s="204"/>
+      <c r="AB56" s="204"/>
+      <c r="AC56" s="204"/>
+      <c r="AD56" s="204"/>
+      <c r="AE56" s="205"/>
       <c r="AF56" s="43"/>
       <c r="AG56" s="43"/>
       <c r="AH56" s="43"/>
@@ -21695,35 +21722,35 @@
       <c r="D57" s="52">
         <v>15</v>
       </c>
-      <c r="E57" s="217" t="s">
+      <c r="E57" s="203" t="s">
         <v>551</v>
       </c>
-      <c r="F57" s="218"/>
-      <c r="G57" s="218"/>
-      <c r="H57" s="218"/>
-      <c r="I57" s="218"/>
-      <c r="J57" s="218"/>
-      <c r="K57" s="218"/>
-      <c r="L57" s="218"/>
-      <c r="M57" s="218"/>
-      <c r="N57" s="218"/>
-      <c r="O57" s="218"/>
-      <c r="P57" s="218"/>
-      <c r="Q57" s="218"/>
-      <c r="R57" s="218"/>
-      <c r="S57" s="218"/>
-      <c r="T57" s="218"/>
-      <c r="U57" s="218"/>
-      <c r="V57" s="218"/>
-      <c r="W57" s="218"/>
-      <c r="X57" s="218"/>
-      <c r="Y57" s="218"/>
-      <c r="Z57" s="218"/>
-      <c r="AA57" s="218"/>
-      <c r="AB57" s="218"/>
-      <c r="AC57" s="218"/>
-      <c r="AD57" s="218"/>
-      <c r="AE57" s="219"/>
+      <c r="F57" s="204"/>
+      <c r="G57" s="204"/>
+      <c r="H57" s="204"/>
+      <c r="I57" s="204"/>
+      <c r="J57" s="204"/>
+      <c r="K57" s="204"/>
+      <c r="L57" s="204"/>
+      <c r="M57" s="204"/>
+      <c r="N57" s="204"/>
+      <c r="O57" s="204"/>
+      <c r="P57" s="204"/>
+      <c r="Q57" s="204"/>
+      <c r="R57" s="204"/>
+      <c r="S57" s="204"/>
+      <c r="T57" s="204"/>
+      <c r="U57" s="204"/>
+      <c r="V57" s="204"/>
+      <c r="W57" s="204"/>
+      <c r="X57" s="204"/>
+      <c r="Y57" s="204"/>
+      <c r="Z57" s="204"/>
+      <c r="AA57" s="204"/>
+      <c r="AB57" s="204"/>
+      <c r="AC57" s="204"/>
+      <c r="AD57" s="204"/>
+      <c r="AE57" s="205"/>
       <c r="AF57" s="43"/>
       <c r="AG57" s="43"/>
       <c r="AH57" s="43"/>
@@ -21759,35 +21786,35 @@
       <c r="D58" s="52">
         <v>16</v>
       </c>
-      <c r="E58" s="217" t="s">
-        <v>614</v>
-      </c>
-      <c r="F58" s="218"/>
-      <c r="G58" s="218"/>
-      <c r="H58" s="218"/>
-      <c r="I58" s="218"/>
-      <c r="J58" s="218"/>
-      <c r="K58" s="218"/>
-      <c r="L58" s="218"/>
-      <c r="M58" s="218"/>
-      <c r="N58" s="218"/>
-      <c r="O58" s="218"/>
-      <c r="P58" s="218"/>
-      <c r="Q58" s="218"/>
-      <c r="R58" s="218"/>
-      <c r="S58" s="218"/>
-      <c r="T58" s="218"/>
-      <c r="U58" s="218"/>
-      <c r="V58" s="218"/>
-      <c r="W58" s="218"/>
-      <c r="X58" s="218"/>
-      <c r="Y58" s="218"/>
-      <c r="Z58" s="218"/>
-      <c r="AA58" s="218"/>
-      <c r="AB58" s="218"/>
-      <c r="AC58" s="218"/>
-      <c r="AD58" s="218"/>
-      <c r="AE58" s="219"/>
+      <c r="E58" s="203" t="s">
+        <v>612</v>
+      </c>
+      <c r="F58" s="204"/>
+      <c r="G58" s="204"/>
+      <c r="H58" s="204"/>
+      <c r="I58" s="204"/>
+      <c r="J58" s="204"/>
+      <c r="K58" s="204"/>
+      <c r="L58" s="204"/>
+      <c r="M58" s="204"/>
+      <c r="N58" s="204"/>
+      <c r="O58" s="204"/>
+      <c r="P58" s="204"/>
+      <c r="Q58" s="204"/>
+      <c r="R58" s="204"/>
+      <c r="S58" s="204"/>
+      <c r="T58" s="204"/>
+      <c r="U58" s="204"/>
+      <c r="V58" s="204"/>
+      <c r="W58" s="204"/>
+      <c r="X58" s="204"/>
+      <c r="Y58" s="204"/>
+      <c r="Z58" s="204"/>
+      <c r="AA58" s="204"/>
+      <c r="AB58" s="204"/>
+      <c r="AC58" s="204"/>
+      <c r="AD58" s="204"/>
+      <c r="AE58" s="205"/>
       <c r="AF58" s="43"/>
       <c r="AG58" s="43"/>
       <c r="AH58" s="43"/>
@@ -21823,35 +21850,35 @@
       <c r="D59" s="52">
         <v>17</v>
       </c>
-      <c r="E59" s="217" t="s">
+      <c r="E59" s="203" t="s">
         <v>556</v>
       </c>
-      <c r="F59" s="218"/>
-      <c r="G59" s="218"/>
-      <c r="H59" s="218"/>
-      <c r="I59" s="218"/>
-      <c r="J59" s="218"/>
-      <c r="K59" s="218"/>
-      <c r="L59" s="218"/>
-      <c r="M59" s="218"/>
-      <c r="N59" s="218"/>
-      <c r="O59" s="218"/>
-      <c r="P59" s="218"/>
-      <c r="Q59" s="218"/>
-      <c r="R59" s="218"/>
-      <c r="S59" s="218"/>
-      <c r="T59" s="218"/>
-      <c r="U59" s="218"/>
-      <c r="V59" s="218"/>
-      <c r="W59" s="218"/>
-      <c r="X59" s="218"/>
-      <c r="Y59" s="218"/>
-      <c r="Z59" s="218"/>
-      <c r="AA59" s="218"/>
-      <c r="AB59" s="218"/>
-      <c r="AC59" s="218"/>
-      <c r="AD59" s="218"/>
-      <c r="AE59" s="219"/>
+      <c r="F59" s="204"/>
+      <c r="G59" s="204"/>
+      <c r="H59" s="204"/>
+      <c r="I59" s="204"/>
+      <c r="J59" s="204"/>
+      <c r="K59" s="204"/>
+      <c r="L59" s="204"/>
+      <c r="M59" s="204"/>
+      <c r="N59" s="204"/>
+      <c r="O59" s="204"/>
+      <c r="P59" s="204"/>
+      <c r="Q59" s="204"/>
+      <c r="R59" s="204"/>
+      <c r="S59" s="204"/>
+      <c r="T59" s="204"/>
+      <c r="U59" s="204"/>
+      <c r="V59" s="204"/>
+      <c r="W59" s="204"/>
+      <c r="X59" s="204"/>
+      <c r="Y59" s="204"/>
+      <c r="Z59" s="204"/>
+      <c r="AA59" s="204"/>
+      <c r="AB59" s="204"/>
+      <c r="AC59" s="204"/>
+      <c r="AD59" s="204"/>
+      <c r="AE59" s="205"/>
       <c r="AF59" s="43"/>
       <c r="AG59" s="43"/>
       <c r="AH59" s="43"/>
@@ -21887,35 +21914,35 @@
       <c r="D60" s="52">
         <v>18</v>
       </c>
-      <c r="E60" s="217" t="s">
-        <v>562</v>
-      </c>
-      <c r="F60" s="218"/>
-      <c r="G60" s="218"/>
-      <c r="H60" s="218"/>
-      <c r="I60" s="218"/>
-      <c r="J60" s="218"/>
-      <c r="K60" s="218"/>
-      <c r="L60" s="218"/>
-      <c r="M60" s="218"/>
-      <c r="N60" s="218"/>
-      <c r="O60" s="218"/>
-      <c r="P60" s="218"/>
-      <c r="Q60" s="218"/>
-      <c r="R60" s="218"/>
-      <c r="S60" s="218"/>
-      <c r="T60" s="218"/>
-      <c r="U60" s="218"/>
-      <c r="V60" s="218"/>
-      <c r="W60" s="218"/>
-      <c r="X60" s="218"/>
-      <c r="Y60" s="218"/>
-      <c r="Z60" s="218"/>
-      <c r="AA60" s="218"/>
-      <c r="AB60" s="218"/>
-      <c r="AC60" s="218"/>
-      <c r="AD60" s="218"/>
-      <c r="AE60" s="219"/>
+      <c r="E60" s="203" t="s">
+        <v>619</v>
+      </c>
+      <c r="F60" s="204"/>
+      <c r="G60" s="204"/>
+      <c r="H60" s="204"/>
+      <c r="I60" s="204"/>
+      <c r="J60" s="204"/>
+      <c r="K60" s="204"/>
+      <c r="L60" s="204"/>
+      <c r="M60" s="204"/>
+      <c r="N60" s="204"/>
+      <c r="O60" s="204"/>
+      <c r="P60" s="204"/>
+      <c r="Q60" s="204"/>
+      <c r="R60" s="204"/>
+      <c r="S60" s="204"/>
+      <c r="T60" s="204"/>
+      <c r="U60" s="204"/>
+      <c r="V60" s="204"/>
+      <c r="W60" s="204"/>
+      <c r="X60" s="204"/>
+      <c r="Y60" s="204"/>
+      <c r="Z60" s="204"/>
+      <c r="AA60" s="204"/>
+      <c r="AB60" s="204"/>
+      <c r="AC60" s="204"/>
+      <c r="AD60" s="204"/>
+      <c r="AE60" s="205"/>
       <c r="AF60" s="43"/>
       <c r="AG60" s="43"/>
       <c r="AH60" s="43"/>
@@ -21952,7 +21979,7 @@
         <v>19</v>
       </c>
       <c r="E61" s="203" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F61" s="204"/>
       <c r="G61" s="204"/>
@@ -22016,7 +22043,7 @@
         <v>20</v>
       </c>
       <c r="E62" s="203" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F62" s="204"/>
       <c r="G62" s="204"/>
@@ -22421,241 +22448,241 @@
     </row>
     <row r="20" spans="2:46" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="2:46" x14ac:dyDescent="0.15">
-      <c r="D21" s="248" t="s">
+      <c r="D21" s="245" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="248"/>
-      <c r="F21" s="248"/>
-      <c r="G21" s="248"/>
-      <c r="H21" s="248"/>
-      <c r="I21" s="248"/>
-      <c r="J21" s="248"/>
-      <c r="K21" s="248"/>
-      <c r="L21" s="248" t="s">
+      <c r="E21" s="245"/>
+      <c r="F21" s="245"/>
+      <c r="G21" s="245"/>
+      <c r="H21" s="245"/>
+      <c r="I21" s="245"/>
+      <c r="J21" s="245"/>
+      <c r="K21" s="245"/>
+      <c r="L21" s="245" t="s">
         <v>90</v>
       </c>
-      <c r="M21" s="248"/>
-      <c r="N21" s="248"/>
-      <c r="O21" s="248" t="s">
+      <c r="M21" s="245"/>
+      <c r="N21" s="245"/>
+      <c r="O21" s="245" t="s">
         <v>49</v>
       </c>
-      <c r="P21" s="248"/>
-      <c r="Q21" s="248"/>
-      <c r="R21" s="248"/>
-      <c r="S21" s="248"/>
-      <c r="T21" s="248"/>
-      <c r="U21" s="248"/>
-      <c r="V21" s="248"/>
-      <c r="W21" s="248"/>
-      <c r="X21" s="248"/>
-      <c r="Y21" s="248"/>
-      <c r="Z21" s="248"/>
-      <c r="AA21" s="248"/>
-      <c r="AB21" s="248"/>
-      <c r="AC21" s="248"/>
-      <c r="AD21" s="248"/>
-      <c r="AE21" s="248"/>
-      <c r="AF21" s="248"/>
-      <c r="AG21" s="248"/>
-      <c r="AH21" s="248"/>
-      <c r="AI21" s="248"/>
-      <c r="AJ21" s="248"/>
-      <c r="AK21" s="248"/>
-      <c r="AL21" s="248"/>
-      <c r="AM21" s="248"/>
-      <c r="AN21" s="248"/>
-      <c r="AO21" s="248"/>
-      <c r="AP21" s="248"/>
-      <c r="AQ21" s="248"/>
-      <c r="AR21" s="248"/>
-      <c r="AS21" s="248"/>
-      <c r="AT21" s="248"/>
+      <c r="P21" s="245"/>
+      <c r="Q21" s="245"/>
+      <c r="R21" s="245"/>
+      <c r="S21" s="245"/>
+      <c r="T21" s="245"/>
+      <c r="U21" s="245"/>
+      <c r="V21" s="245"/>
+      <c r="W21" s="245"/>
+      <c r="X21" s="245"/>
+      <c r="Y21" s="245"/>
+      <c r="Z21" s="245"/>
+      <c r="AA21" s="245"/>
+      <c r="AB21" s="245"/>
+      <c r="AC21" s="245"/>
+      <c r="AD21" s="245"/>
+      <c r="AE21" s="245"/>
+      <c r="AF21" s="245"/>
+      <c r="AG21" s="245"/>
+      <c r="AH21" s="245"/>
+      <c r="AI21" s="245"/>
+      <c r="AJ21" s="245"/>
+      <c r="AK21" s="245"/>
+      <c r="AL21" s="245"/>
+      <c r="AM21" s="245"/>
+      <c r="AN21" s="245"/>
+      <c r="AO21" s="245"/>
+      <c r="AP21" s="245"/>
+      <c r="AQ21" s="245"/>
+      <c r="AR21" s="245"/>
+      <c r="AS21" s="245"/>
+      <c r="AT21" s="245"/>
     </row>
     <row r="22" spans="2:46" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D22" s="245" t="s">
+      <c r="D22" s="242" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="245"/>
-      <c r="F22" s="245"/>
-      <c r="G22" s="245"/>
-      <c r="H22" s="245"/>
-      <c r="I22" s="245"/>
-      <c r="J22" s="245"/>
-      <c r="K22" s="245"/>
-      <c r="L22" s="246" t="s">
+      <c r="E22" s="242"/>
+      <c r="F22" s="242"/>
+      <c r="G22" s="242"/>
+      <c r="H22" s="242"/>
+      <c r="I22" s="242"/>
+      <c r="J22" s="242"/>
+      <c r="K22" s="242"/>
+      <c r="L22" s="243" t="s">
         <v>129</v>
       </c>
-      <c r="M22" s="246"/>
-      <c r="N22" s="246"/>
-      <c r="O22" s="247" t="s">
+      <c r="M22" s="243"/>
+      <c r="N22" s="243"/>
+      <c r="O22" s="244" t="s">
         <v>151</v>
       </c>
-      <c r="P22" s="245"/>
-      <c r="Q22" s="245"/>
-      <c r="R22" s="245"/>
-      <c r="S22" s="245"/>
-      <c r="T22" s="245"/>
-      <c r="U22" s="245"/>
-      <c r="V22" s="245"/>
-      <c r="W22" s="245"/>
-      <c r="X22" s="245"/>
-      <c r="Y22" s="245"/>
-      <c r="Z22" s="245"/>
-      <c r="AA22" s="245"/>
-      <c r="AB22" s="245"/>
-      <c r="AC22" s="245"/>
-      <c r="AD22" s="245"/>
-      <c r="AE22" s="245"/>
-      <c r="AF22" s="245"/>
-      <c r="AG22" s="245"/>
-      <c r="AH22" s="245"/>
-      <c r="AI22" s="245"/>
-      <c r="AJ22" s="245"/>
-      <c r="AK22" s="245"/>
-      <c r="AL22" s="245"/>
-      <c r="AM22" s="245"/>
-      <c r="AN22" s="245"/>
-      <c r="AO22" s="245"/>
-      <c r="AP22" s="245"/>
-      <c r="AQ22" s="245"/>
-      <c r="AR22" s="245"/>
-      <c r="AS22" s="245"/>
-      <c r="AT22" s="245"/>
+      <c r="P22" s="242"/>
+      <c r="Q22" s="242"/>
+      <c r="R22" s="242"/>
+      <c r="S22" s="242"/>
+      <c r="T22" s="242"/>
+      <c r="U22" s="242"/>
+      <c r="V22" s="242"/>
+      <c r="W22" s="242"/>
+      <c r="X22" s="242"/>
+      <c r="Y22" s="242"/>
+      <c r="Z22" s="242"/>
+      <c r="AA22" s="242"/>
+      <c r="AB22" s="242"/>
+      <c r="AC22" s="242"/>
+      <c r="AD22" s="242"/>
+      <c r="AE22" s="242"/>
+      <c r="AF22" s="242"/>
+      <c r="AG22" s="242"/>
+      <c r="AH22" s="242"/>
+      <c r="AI22" s="242"/>
+      <c r="AJ22" s="242"/>
+      <c r="AK22" s="242"/>
+      <c r="AL22" s="242"/>
+      <c r="AM22" s="242"/>
+      <c r="AN22" s="242"/>
+      <c r="AO22" s="242"/>
+      <c r="AP22" s="242"/>
+      <c r="AQ22" s="242"/>
+      <c r="AR22" s="242"/>
+      <c r="AS22" s="242"/>
+      <c r="AT22" s="242"/>
     </row>
     <row r="23" spans="2:46" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D23" s="245"/>
-      <c r="E23" s="245"/>
-      <c r="F23" s="245"/>
-      <c r="G23" s="245"/>
-      <c r="H23" s="245"/>
-      <c r="I23" s="245"/>
-      <c r="J23" s="245"/>
-      <c r="K23" s="245"/>
-      <c r="L23" s="246"/>
-      <c r="M23" s="246"/>
-      <c r="N23" s="246"/>
-      <c r="O23" s="247"/>
-      <c r="P23" s="245"/>
-      <c r="Q23" s="245"/>
-      <c r="R23" s="245"/>
-      <c r="S23" s="245"/>
-      <c r="T23" s="245"/>
-      <c r="U23" s="245"/>
-      <c r="V23" s="245"/>
-      <c r="W23" s="245"/>
-      <c r="X23" s="245"/>
-      <c r="Y23" s="245"/>
-      <c r="Z23" s="245"/>
-      <c r="AA23" s="245"/>
-      <c r="AB23" s="245"/>
-      <c r="AC23" s="245"/>
-      <c r="AD23" s="245"/>
-      <c r="AE23" s="245"/>
-      <c r="AF23" s="245"/>
-      <c r="AG23" s="245"/>
-      <c r="AH23" s="245"/>
-      <c r="AI23" s="245"/>
-      <c r="AJ23" s="245"/>
-      <c r="AK23" s="245"/>
-      <c r="AL23" s="245"/>
-      <c r="AM23" s="245"/>
-      <c r="AN23" s="245"/>
-      <c r="AO23" s="245"/>
-      <c r="AP23" s="245"/>
-      <c r="AQ23" s="245"/>
-      <c r="AR23" s="245"/>
-      <c r="AS23" s="245"/>
-      <c r="AT23" s="245"/>
+      <c r="D23" s="242"/>
+      <c r="E23" s="242"/>
+      <c r="F23" s="242"/>
+      <c r="G23" s="242"/>
+      <c r="H23" s="242"/>
+      <c r="I23" s="242"/>
+      <c r="J23" s="242"/>
+      <c r="K23" s="242"/>
+      <c r="L23" s="243"/>
+      <c r="M23" s="243"/>
+      <c r="N23" s="243"/>
+      <c r="O23" s="244"/>
+      <c r="P23" s="242"/>
+      <c r="Q23" s="242"/>
+      <c r="R23" s="242"/>
+      <c r="S23" s="242"/>
+      <c r="T23" s="242"/>
+      <c r="U23" s="242"/>
+      <c r="V23" s="242"/>
+      <c r="W23" s="242"/>
+      <c r="X23" s="242"/>
+      <c r="Y23" s="242"/>
+      <c r="Z23" s="242"/>
+      <c r="AA23" s="242"/>
+      <c r="AB23" s="242"/>
+      <c r="AC23" s="242"/>
+      <c r="AD23" s="242"/>
+      <c r="AE23" s="242"/>
+      <c r="AF23" s="242"/>
+      <c r="AG23" s="242"/>
+      <c r="AH23" s="242"/>
+      <c r="AI23" s="242"/>
+      <c r="AJ23" s="242"/>
+      <c r="AK23" s="242"/>
+      <c r="AL23" s="242"/>
+      <c r="AM23" s="242"/>
+      <c r="AN23" s="242"/>
+      <c r="AO23" s="242"/>
+      <c r="AP23" s="242"/>
+      <c r="AQ23" s="242"/>
+      <c r="AR23" s="242"/>
+      <c r="AS23" s="242"/>
+      <c r="AT23" s="242"/>
     </row>
     <row r="24" spans="2:46" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D24" s="245"/>
-      <c r="E24" s="245"/>
-      <c r="F24" s="245"/>
-      <c r="G24" s="245"/>
-      <c r="H24" s="245"/>
-      <c r="I24" s="245"/>
-      <c r="J24" s="245"/>
-      <c r="K24" s="245"/>
-      <c r="L24" s="246"/>
-      <c r="M24" s="246"/>
-      <c r="N24" s="246"/>
-      <c r="O24" s="247"/>
-      <c r="P24" s="247"/>
-      <c r="Q24" s="247"/>
-      <c r="R24" s="247"/>
-      <c r="S24" s="247"/>
-      <c r="T24" s="247"/>
-      <c r="U24" s="247"/>
-      <c r="V24" s="247"/>
-      <c r="W24" s="247"/>
-      <c r="X24" s="247"/>
-      <c r="Y24" s="247"/>
-      <c r="Z24" s="247"/>
-      <c r="AA24" s="247"/>
-      <c r="AB24" s="247"/>
-      <c r="AC24" s="247"/>
-      <c r="AD24" s="247"/>
-      <c r="AE24" s="247"/>
-      <c r="AF24" s="247"/>
-      <c r="AG24" s="247"/>
-      <c r="AH24" s="247"/>
-      <c r="AI24" s="247"/>
-      <c r="AJ24" s="247"/>
-      <c r="AK24" s="247"/>
-      <c r="AL24" s="247"/>
-      <c r="AM24" s="247"/>
-      <c r="AN24" s="247"/>
-      <c r="AO24" s="247"/>
-      <c r="AP24" s="247"/>
-      <c r="AQ24" s="247"/>
-      <c r="AR24" s="247"/>
-      <c r="AS24" s="247"/>
-      <c r="AT24" s="247"/>
+      <c r="D24" s="242"/>
+      <c r="E24" s="242"/>
+      <c r="F24" s="242"/>
+      <c r="G24" s="242"/>
+      <c r="H24" s="242"/>
+      <c r="I24" s="242"/>
+      <c r="J24" s="242"/>
+      <c r="K24" s="242"/>
+      <c r="L24" s="243"/>
+      <c r="M24" s="243"/>
+      <c r="N24" s="243"/>
+      <c r="O24" s="244"/>
+      <c r="P24" s="244"/>
+      <c r="Q24" s="244"/>
+      <c r="R24" s="244"/>
+      <c r="S24" s="244"/>
+      <c r="T24" s="244"/>
+      <c r="U24" s="244"/>
+      <c r="V24" s="244"/>
+      <c r="W24" s="244"/>
+      <c r="X24" s="244"/>
+      <c r="Y24" s="244"/>
+      <c r="Z24" s="244"/>
+      <c r="AA24" s="244"/>
+      <c r="AB24" s="244"/>
+      <c r="AC24" s="244"/>
+      <c r="AD24" s="244"/>
+      <c r="AE24" s="244"/>
+      <c r="AF24" s="244"/>
+      <c r="AG24" s="244"/>
+      <c r="AH24" s="244"/>
+      <c r="AI24" s="244"/>
+      <c r="AJ24" s="244"/>
+      <c r="AK24" s="244"/>
+      <c r="AL24" s="244"/>
+      <c r="AM24" s="244"/>
+      <c r="AN24" s="244"/>
+      <c r="AO24" s="244"/>
+      <c r="AP24" s="244"/>
+      <c r="AQ24" s="244"/>
+      <c r="AR24" s="244"/>
+      <c r="AS24" s="244"/>
+      <c r="AT24" s="244"/>
     </row>
     <row r="25" spans="2:46" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D25" s="245"/>
-      <c r="E25" s="245"/>
-      <c r="F25" s="245"/>
-      <c r="G25" s="245"/>
-      <c r="H25" s="245"/>
-      <c r="I25" s="245"/>
-      <c r="J25" s="245"/>
-      <c r="K25" s="245"/>
-      <c r="L25" s="246"/>
-      <c r="M25" s="246"/>
-      <c r="N25" s="246"/>
-      <c r="O25" s="247"/>
-      <c r="P25" s="247"/>
-      <c r="Q25" s="247"/>
-      <c r="R25" s="247"/>
-      <c r="S25" s="247"/>
-      <c r="T25" s="247"/>
-      <c r="U25" s="247"/>
-      <c r="V25" s="247"/>
-      <c r="W25" s="247"/>
-      <c r="X25" s="247"/>
-      <c r="Y25" s="247"/>
-      <c r="Z25" s="247"/>
-      <c r="AA25" s="247"/>
-      <c r="AB25" s="247"/>
-      <c r="AC25" s="247"/>
-      <c r="AD25" s="247"/>
-      <c r="AE25" s="247"/>
-      <c r="AF25" s="247"/>
-      <c r="AG25" s="247"/>
-      <c r="AH25" s="247"/>
-      <c r="AI25" s="247"/>
-      <c r="AJ25" s="247"/>
-      <c r="AK25" s="247"/>
-      <c r="AL25" s="247"/>
-      <c r="AM25" s="247"/>
-      <c r="AN25" s="247"/>
-      <c r="AO25" s="247"/>
-      <c r="AP25" s="247"/>
-      <c r="AQ25" s="247"/>
-      <c r="AR25" s="247"/>
-      <c r="AS25" s="247"/>
-      <c r="AT25" s="247"/>
+      <c r="D25" s="242"/>
+      <c r="E25" s="242"/>
+      <c r="F25" s="242"/>
+      <c r="G25" s="242"/>
+      <c r="H25" s="242"/>
+      <c r="I25" s="242"/>
+      <c r="J25" s="242"/>
+      <c r="K25" s="242"/>
+      <c r="L25" s="243"/>
+      <c r="M25" s="243"/>
+      <c r="N25" s="243"/>
+      <c r="O25" s="244"/>
+      <c r="P25" s="244"/>
+      <c r="Q25" s="244"/>
+      <c r="R25" s="244"/>
+      <c r="S25" s="244"/>
+      <c r="T25" s="244"/>
+      <c r="U25" s="244"/>
+      <c r="V25" s="244"/>
+      <c r="W25" s="244"/>
+      <c r="X25" s="244"/>
+      <c r="Y25" s="244"/>
+      <c r="Z25" s="244"/>
+      <c r="AA25" s="244"/>
+      <c r="AB25" s="244"/>
+      <c r="AC25" s="244"/>
+      <c r="AD25" s="244"/>
+      <c r="AE25" s="244"/>
+      <c r="AF25" s="244"/>
+      <c r="AG25" s="244"/>
+      <c r="AH25" s="244"/>
+      <c r="AI25" s="244"/>
+      <c r="AJ25" s="244"/>
+      <c r="AK25" s="244"/>
+      <c r="AL25" s="244"/>
+      <c r="AM25" s="244"/>
+      <c r="AN25" s="244"/>
+      <c r="AO25" s="244"/>
+      <c r="AP25" s="244"/>
+      <c r="AQ25" s="244"/>
+      <c r="AR25" s="244"/>
+      <c r="AS25" s="244"/>
+      <c r="AT25" s="244"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -22774,26 +22801,26 @@
     <row r="6" spans="1:46" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C6" s="30"/>
       <c r="D6" s="92"/>
-      <c r="E6" s="263" t="s">
+      <c r="E6" s="260" t="s">
         <v>168</v>
       </c>
-      <c r="F6" s="264"/>
-      <c r="G6" s="264"/>
-      <c r="H6" s="264"/>
-      <c r="I6" s="264"/>
-      <c r="J6" s="264"/>
-      <c r="K6" s="264"/>
-      <c r="L6" s="265"/>
-      <c r="M6" s="266" t="s">
+      <c r="F6" s="261"/>
+      <c r="G6" s="261"/>
+      <c r="H6" s="261"/>
+      <c r="I6" s="261"/>
+      <c r="J6" s="261"/>
+      <c r="K6" s="261"/>
+      <c r="L6" s="262"/>
+      <c r="M6" s="263" t="s">
         <v>169</v>
       </c>
-      <c r="N6" s="267"/>
-      <c r="O6" s="267"/>
-      <c r="P6" s="267"/>
-      <c r="Q6" s="267"/>
-      <c r="R6" s="267"/>
-      <c r="S6" s="267"/>
-      <c r="T6" s="268"/>
+      <c r="N6" s="264"/>
+      <c r="O6" s="264"/>
+      <c r="P6" s="264"/>
+      <c r="Q6" s="264"/>
+      <c r="R6" s="264"/>
+      <c r="S6" s="264"/>
+      <c r="T6" s="265"/>
     </row>
     <row r="7" spans="1:46" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B7" s="30"/>
@@ -22874,193 +22901,193 @@
     </row>
     <row r="11" spans="1:46" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A11" s="70"/>
-      <c r="C11" s="260" t="s">
+      <c r="C11" s="257" t="s">
         <v>176</v>
       </c>
-      <c r="D11" s="262"/>
-      <c r="E11" s="260" t="s">
+      <c r="D11" s="259"/>
+      <c r="E11" s="257" t="s">
         <v>177</v>
       </c>
-      <c r="F11" s="262"/>
-      <c r="G11" s="263" t="s">
+      <c r="F11" s="259"/>
+      <c r="G11" s="260" t="s">
         <v>178</v>
       </c>
-      <c r="H11" s="264"/>
-      <c r="I11" s="264"/>
-      <c r="J11" s="264"/>
-      <c r="K11" s="264"/>
-      <c r="L11" s="265"/>
-      <c r="M11" s="260" t="s">
+      <c r="H11" s="261"/>
+      <c r="I11" s="261"/>
+      <c r="J11" s="261"/>
+      <c r="K11" s="261"/>
+      <c r="L11" s="262"/>
+      <c r="M11" s="257" t="s">
         <v>179</v>
       </c>
-      <c r="N11" s="261"/>
-      <c r="O11" s="261"/>
-      <c r="P11" s="261"/>
-      <c r="Q11" s="262"/>
-      <c r="R11" s="260" t="s">
+      <c r="N11" s="258"/>
+      <c r="O11" s="258"/>
+      <c r="P11" s="258"/>
+      <c r="Q11" s="259"/>
+      <c r="R11" s="257" t="s">
         <v>180</v>
       </c>
-      <c r="S11" s="261"/>
-      <c r="T11" s="261"/>
-      <c r="U11" s="262"/>
-      <c r="V11" s="260" t="s">
+      <c r="S11" s="258"/>
+      <c r="T11" s="258"/>
+      <c r="U11" s="259"/>
+      <c r="V11" s="257" t="s">
         <v>182</v>
       </c>
-      <c r="W11" s="261"/>
-      <c r="X11" s="261"/>
-      <c r="Y11" s="261"/>
-      <c r="Z11" s="261"/>
-      <c r="AA11" s="261"/>
-      <c r="AB11" s="262"/>
-      <c r="AC11" s="260" t="s">
+      <c r="W11" s="258"/>
+      <c r="X11" s="258"/>
+      <c r="Y11" s="258"/>
+      <c r="Z11" s="258"/>
+      <c r="AA11" s="258"/>
+      <c r="AB11" s="259"/>
+      <c r="AC11" s="257" t="s">
         <v>183</v>
       </c>
-      <c r="AD11" s="261"/>
-      <c r="AE11" s="261"/>
-      <c r="AF11" s="261"/>
-      <c r="AG11" s="261"/>
-      <c r="AH11" s="261"/>
-      <c r="AI11" s="261"/>
-      <c r="AJ11" s="262"/>
-      <c r="AK11" s="260" t="s">
+      <c r="AD11" s="258"/>
+      <c r="AE11" s="258"/>
+      <c r="AF11" s="258"/>
+      <c r="AG11" s="258"/>
+      <c r="AH11" s="258"/>
+      <c r="AI11" s="258"/>
+      <c r="AJ11" s="259"/>
+      <c r="AK11" s="257" t="s">
         <v>184</v>
       </c>
-      <c r="AL11" s="261"/>
-      <c r="AM11" s="262"/>
+      <c r="AL11" s="258"/>
+      <c r="AM11" s="259"/>
     </row>
     <row r="12" spans="1:46" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A12" s="70"/>
-      <c r="C12" s="249">
+      <c r="C12" s="246">
         <v>1</v>
       </c>
-      <c r="D12" s="250"/>
-      <c r="E12" s="251" t="s">
+      <c r="D12" s="247"/>
+      <c r="E12" s="248" t="s">
         <v>185</v>
       </c>
-      <c r="F12" s="252"/>
-      <c r="G12" s="253" t="s">
+      <c r="F12" s="249"/>
+      <c r="G12" s="250" t="s">
         <v>186</v>
       </c>
-      <c r="H12" s="254"/>
-      <c r="I12" s="254"/>
-      <c r="J12" s="254"/>
-      <c r="K12" s="254"/>
-      <c r="L12" s="255"/>
-      <c r="M12" s="251" t="s">
+      <c r="H12" s="251"/>
+      <c r="I12" s="251"/>
+      <c r="J12" s="251"/>
+      <c r="K12" s="251"/>
+      <c r="L12" s="252"/>
+      <c r="M12" s="248" t="s">
         <v>157</v>
       </c>
-      <c r="N12" s="256"/>
-      <c r="O12" s="256"/>
-      <c r="P12" s="256"/>
-      <c r="Q12" s="252"/>
-      <c r="R12" s="251" t="s">
+      <c r="N12" s="253"/>
+      <c r="O12" s="253"/>
+      <c r="P12" s="253"/>
+      <c r="Q12" s="249"/>
+      <c r="R12" s="248" t="s">
         <v>187</v>
       </c>
-      <c r="S12" s="256"/>
-      <c r="T12" s="256"/>
-      <c r="U12" s="252"/>
-      <c r="V12" s="251" t="s">
+      <c r="S12" s="253"/>
+      <c r="T12" s="253"/>
+      <c r="U12" s="249"/>
+      <c r="V12" s="248" t="s">
         <v>186</v>
       </c>
-      <c r="W12" s="256"/>
-      <c r="X12" s="256"/>
-      <c r="Y12" s="256"/>
-      <c r="Z12" s="256"/>
-      <c r="AA12" s="256"/>
-      <c r="AB12" s="252"/>
-      <c r="AC12" s="257"/>
-      <c r="AD12" s="258"/>
-      <c r="AE12" s="258"/>
-      <c r="AF12" s="258"/>
-      <c r="AG12" s="258"/>
-      <c r="AH12" s="258"/>
-      <c r="AI12" s="258"/>
-      <c r="AJ12" s="259"/>
-      <c r="AK12" s="251">
+      <c r="W12" s="253"/>
+      <c r="X12" s="253"/>
+      <c r="Y12" s="253"/>
+      <c r="Z12" s="253"/>
+      <c r="AA12" s="253"/>
+      <c r="AB12" s="249"/>
+      <c r="AC12" s="254"/>
+      <c r="AD12" s="255"/>
+      <c r="AE12" s="255"/>
+      <c r="AF12" s="255"/>
+      <c r="AG12" s="255"/>
+      <c r="AH12" s="255"/>
+      <c r="AI12" s="255"/>
+      <c r="AJ12" s="256"/>
+      <c r="AK12" s="248">
         <v>1</v>
       </c>
-      <c r="AL12" s="256"/>
-      <c r="AM12" s="252"/>
+      <c r="AL12" s="253"/>
+      <c r="AM12" s="249"/>
     </row>
     <row r="13" spans="1:46" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" s="70"/>
-      <c r="C13" s="249"/>
-      <c r="D13" s="250"/>
-      <c r="E13" s="251"/>
-      <c r="F13" s="252"/>
-      <c r="G13" s="253"/>
-      <c r="H13" s="254"/>
-      <c r="I13" s="254"/>
-      <c r="J13" s="254"/>
-      <c r="K13" s="254"/>
-      <c r="L13" s="255"/>
-      <c r="M13" s="251"/>
-      <c r="N13" s="256"/>
-      <c r="O13" s="256"/>
-      <c r="P13" s="256"/>
-      <c r="Q13" s="252"/>
-      <c r="R13" s="251"/>
-      <c r="S13" s="256"/>
-      <c r="T13" s="256"/>
-      <c r="U13" s="252"/>
-      <c r="V13" s="251"/>
-      <c r="W13" s="256"/>
-      <c r="X13" s="256"/>
-      <c r="Y13" s="256"/>
-      <c r="Z13" s="256"/>
-      <c r="AA13" s="256"/>
-      <c r="AB13" s="252"/>
-      <c r="AC13" s="257"/>
-      <c r="AD13" s="258"/>
-      <c r="AE13" s="258"/>
-      <c r="AF13" s="258"/>
-      <c r="AG13" s="258"/>
-      <c r="AH13" s="258"/>
-      <c r="AI13" s="258"/>
-      <c r="AJ13" s="259"/>
-      <c r="AK13" s="251"/>
-      <c r="AL13" s="256"/>
-      <c r="AM13" s="252"/>
+      <c r="C13" s="246"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="248"/>
+      <c r="F13" s="249"/>
+      <c r="G13" s="250"/>
+      <c r="H13" s="251"/>
+      <c r="I13" s="251"/>
+      <c r="J13" s="251"/>
+      <c r="K13" s="251"/>
+      <c r="L13" s="252"/>
+      <c r="M13" s="248"/>
+      <c r="N13" s="253"/>
+      <c r="O13" s="253"/>
+      <c r="P13" s="253"/>
+      <c r="Q13" s="249"/>
+      <c r="R13" s="248"/>
+      <c r="S13" s="253"/>
+      <c r="T13" s="253"/>
+      <c r="U13" s="249"/>
+      <c r="V13" s="248"/>
+      <c r="W13" s="253"/>
+      <c r="X13" s="253"/>
+      <c r="Y13" s="253"/>
+      <c r="Z13" s="253"/>
+      <c r="AA13" s="253"/>
+      <c r="AB13" s="249"/>
+      <c r="AC13" s="254"/>
+      <c r="AD13" s="255"/>
+      <c r="AE13" s="255"/>
+      <c r="AF13" s="255"/>
+      <c r="AG13" s="255"/>
+      <c r="AH13" s="255"/>
+      <c r="AI13" s="255"/>
+      <c r="AJ13" s="256"/>
+      <c r="AK13" s="248"/>
+      <c r="AL13" s="253"/>
+      <c r="AM13" s="249"/>
     </row>
     <row r="14" spans="1:46" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A14" s="70"/>
-      <c r="C14" s="249"/>
-      <c r="D14" s="250"/>
-      <c r="E14" s="251"/>
-      <c r="F14" s="252"/>
-      <c r="G14" s="253"/>
-      <c r="H14" s="254"/>
-      <c r="I14" s="254"/>
-      <c r="J14" s="254"/>
-      <c r="K14" s="254"/>
-      <c r="L14" s="255"/>
-      <c r="M14" s="251"/>
-      <c r="N14" s="256"/>
-      <c r="O14" s="256"/>
-      <c r="P14" s="256"/>
-      <c r="Q14" s="252"/>
-      <c r="R14" s="251"/>
-      <c r="S14" s="256"/>
-      <c r="T14" s="256"/>
-      <c r="U14" s="252"/>
-      <c r="V14" s="251"/>
-      <c r="W14" s="256"/>
-      <c r="X14" s="256"/>
-      <c r="Y14" s="256"/>
-      <c r="Z14" s="256"/>
-      <c r="AA14" s="256"/>
-      <c r="AB14" s="252"/>
-      <c r="AC14" s="257"/>
-      <c r="AD14" s="258"/>
-      <c r="AE14" s="258"/>
-      <c r="AF14" s="258"/>
-      <c r="AG14" s="258"/>
-      <c r="AH14" s="258"/>
-      <c r="AI14" s="258"/>
-      <c r="AJ14" s="259"/>
-      <c r="AK14" s="251"/>
-      <c r="AL14" s="256"/>
-      <c r="AM14" s="252"/>
+      <c r="C14" s="246"/>
+      <c r="D14" s="247"/>
+      <c r="E14" s="248"/>
+      <c r="F14" s="249"/>
+      <c r="G14" s="250"/>
+      <c r="H14" s="251"/>
+      <c r="I14" s="251"/>
+      <c r="J14" s="251"/>
+      <c r="K14" s="251"/>
+      <c r="L14" s="252"/>
+      <c r="M14" s="248"/>
+      <c r="N14" s="253"/>
+      <c r="O14" s="253"/>
+      <c r="P14" s="253"/>
+      <c r="Q14" s="249"/>
+      <c r="R14" s="248"/>
+      <c r="S14" s="253"/>
+      <c r="T14" s="253"/>
+      <c r="U14" s="249"/>
+      <c r="V14" s="248"/>
+      <c r="W14" s="253"/>
+      <c r="X14" s="253"/>
+      <c r="Y14" s="253"/>
+      <c r="Z14" s="253"/>
+      <c r="AA14" s="253"/>
+      <c r="AB14" s="249"/>
+      <c r="AC14" s="254"/>
+      <c r="AD14" s="255"/>
+      <c r="AE14" s="255"/>
+      <c r="AF14" s="255"/>
+      <c r="AG14" s="255"/>
+      <c r="AH14" s="255"/>
+      <c r="AI14" s="255"/>
+      <c r="AJ14" s="256"/>
+      <c r="AK14" s="248"/>
+      <c r="AL14" s="253"/>
+      <c r="AM14" s="249"/>
     </row>
     <row r="15" spans="1:46" s="101" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" s="70"/>
@@ -24170,37 +24197,37 @@
         <v>一般</v>
       </c>
       <c r="D6" s="115"/>
-      <c r="E6" s="263" t="s">
+      <c r="E6" s="260" t="s">
         <v>168</v>
       </c>
-      <c r="F6" s="264"/>
-      <c r="G6" s="264"/>
-      <c r="H6" s="264"/>
-      <c r="I6" s="264"/>
-      <c r="J6" s="264"/>
-      <c r="K6" s="264"/>
-      <c r="L6" s="264"/>
-      <c r="M6" s="264"/>
-      <c r="N6" s="264"/>
-      <c r="O6" s="264"/>
-      <c r="P6" s="264"/>
-      <c r="Q6" s="264"/>
-      <c r="R6" s="264"/>
-      <c r="S6" s="264"/>
-      <c r="T6" s="265"/>
-      <c r="U6" s="269" t="s">
+      <c r="F6" s="261"/>
+      <c r="G6" s="261"/>
+      <c r="H6" s="261"/>
+      <c r="I6" s="261"/>
+      <c r="J6" s="261"/>
+      <c r="K6" s="261"/>
+      <c r="L6" s="261"/>
+      <c r="M6" s="261"/>
+      <c r="N6" s="261"/>
+      <c r="O6" s="261"/>
+      <c r="P6" s="261"/>
+      <c r="Q6" s="261"/>
+      <c r="R6" s="261"/>
+      <c r="S6" s="261"/>
+      <c r="T6" s="262"/>
+      <c r="U6" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="V6" s="270"/>
-      <c r="W6" s="270"/>
-      <c r="X6" s="270"/>
-      <c r="Y6" s="270"/>
-      <c r="Z6" s="270"/>
-      <c r="AA6" s="270"/>
-      <c r="AB6" s="270"/>
-      <c r="AC6" s="270"/>
-      <c r="AD6" s="270"/>
-      <c r="AE6" s="271"/>
+      <c r="V6" s="267"/>
+      <c r="W6" s="267"/>
+      <c r="X6" s="267"/>
+      <c r="Y6" s="267"/>
+      <c r="Z6" s="267"/>
+      <c r="AA6" s="267"/>
+      <c r="AB6" s="267"/>
+      <c r="AC6" s="267"/>
+      <c r="AD6" s="267"/>
+      <c r="AE6" s="268"/>
     </row>
     <row r="7" spans="1:46" s="113" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B7" s="116"/>
@@ -24595,24 +24622,24 @@
         <v>一般</v>
       </c>
       <c r="D17" s="122"/>
-      <c r="E17" s="272" t="s">
+      <c r="E17" s="269" t="s">
         <v>201</v>
       </c>
-      <c r="F17" s="273"/>
-      <c r="G17" s="273"/>
-      <c r="H17" s="273"/>
-      <c r="I17" s="273"/>
-      <c r="J17" s="273"/>
-      <c r="K17" s="273"/>
-      <c r="L17" s="273"/>
-      <c r="M17" s="273"/>
-      <c r="N17" s="273"/>
-      <c r="O17" s="273"/>
-      <c r="P17" s="273"/>
-      <c r="Q17" s="273"/>
-      <c r="R17" s="273"/>
-      <c r="S17" s="273"/>
-      <c r="T17" s="274"/>
+      <c r="F17" s="270"/>
+      <c r="G17" s="270"/>
+      <c r="H17" s="270"/>
+      <c r="I17" s="270"/>
+      <c r="J17" s="270"/>
+      <c r="K17" s="270"/>
+      <c r="L17" s="270"/>
+      <c r="M17" s="270"/>
+      <c r="N17" s="270"/>
+      <c r="O17" s="270"/>
+      <c r="P17" s="270"/>
+      <c r="Q17" s="270"/>
+      <c r="R17" s="270"/>
+      <c r="S17" s="270"/>
+      <c r="T17" s="271"/>
       <c r="U17" s="97"/>
       <c r="V17" s="94"/>
       <c r="W17" s="94"/>
@@ -24752,37 +24779,37 @@
         <v>キャッシュ</v>
       </c>
       <c r="D22" s="115"/>
-      <c r="E22" s="263" t="s">
+      <c r="E22" s="260" t="s">
         <v>168</v>
       </c>
-      <c r="F22" s="264"/>
-      <c r="G22" s="264"/>
-      <c r="H22" s="264"/>
-      <c r="I22" s="264"/>
-      <c r="J22" s="264"/>
-      <c r="K22" s="264"/>
-      <c r="L22" s="264"/>
-      <c r="M22" s="264"/>
-      <c r="N22" s="264"/>
-      <c r="O22" s="264"/>
-      <c r="P22" s="264"/>
-      <c r="Q22" s="264"/>
-      <c r="R22" s="264"/>
-      <c r="S22" s="264"/>
-      <c r="T22" s="265"/>
-      <c r="U22" s="269" t="s">
+      <c r="F22" s="261"/>
+      <c r="G22" s="261"/>
+      <c r="H22" s="261"/>
+      <c r="I22" s="261"/>
+      <c r="J22" s="261"/>
+      <c r="K22" s="261"/>
+      <c r="L22" s="261"/>
+      <c r="M22" s="261"/>
+      <c r="N22" s="261"/>
+      <c r="O22" s="261"/>
+      <c r="P22" s="261"/>
+      <c r="Q22" s="261"/>
+      <c r="R22" s="261"/>
+      <c r="S22" s="261"/>
+      <c r="T22" s="262"/>
+      <c r="U22" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="V22" s="270"/>
-      <c r="W22" s="270"/>
-      <c r="X22" s="270"/>
-      <c r="Y22" s="270"/>
-      <c r="Z22" s="270"/>
-      <c r="AA22" s="270"/>
-      <c r="AB22" s="270"/>
-      <c r="AC22" s="270"/>
-      <c r="AD22" s="270"/>
-      <c r="AE22" s="271"/>
+      <c r="V22" s="267"/>
+      <c r="W22" s="267"/>
+      <c r="X22" s="267"/>
+      <c r="Y22" s="267"/>
+      <c r="Z22" s="267"/>
+      <c r="AA22" s="267"/>
+      <c r="AB22" s="267"/>
+      <c r="AC22" s="267"/>
+      <c r="AD22" s="267"/>
+      <c r="AE22" s="268"/>
       <c r="AF22" s="121"/>
       <c r="AG22" s="121"/>
       <c r="AH22" s="121"/>
@@ -25089,50 +25116,50 @@
         <f>D30</f>
         <v>PDF出力</v>
       </c>
-      <c r="E31" s="263" t="s">
+      <c r="E31" s="260" t="s">
         <v>212</v>
       </c>
-      <c r="F31" s="264"/>
-      <c r="G31" s="264"/>
-      <c r="H31" s="264"/>
-      <c r="I31" s="264"/>
-      <c r="J31" s="264"/>
-      <c r="K31" s="264"/>
-      <c r="L31" s="264"/>
-      <c r="M31" s="264"/>
-      <c r="N31" s="264"/>
-      <c r="O31" s="264"/>
-      <c r="P31" s="264"/>
-      <c r="Q31" s="264"/>
-      <c r="R31" s="264"/>
-      <c r="S31" s="264"/>
-      <c r="T31" s="265"/>
-      <c r="U31" s="269" t="s">
+      <c r="F31" s="261"/>
+      <c r="G31" s="261"/>
+      <c r="H31" s="261"/>
+      <c r="I31" s="261"/>
+      <c r="J31" s="261"/>
+      <c r="K31" s="261"/>
+      <c r="L31" s="261"/>
+      <c r="M31" s="261"/>
+      <c r="N31" s="261"/>
+      <c r="O31" s="261"/>
+      <c r="P31" s="261"/>
+      <c r="Q31" s="261"/>
+      <c r="R31" s="261"/>
+      <c r="S31" s="261"/>
+      <c r="T31" s="262"/>
+      <c r="U31" s="266" t="s">
         <v>213</v>
       </c>
-      <c r="V31" s="270"/>
-      <c r="W31" s="270"/>
-      <c r="X31" s="270"/>
-      <c r="Y31" s="270"/>
-      <c r="Z31" s="270"/>
-      <c r="AA31" s="270"/>
-      <c r="AB31" s="270"/>
-      <c r="AC31" s="270"/>
-      <c r="AD31" s="270"/>
-      <c r="AE31" s="271"/>
-      <c r="AF31" s="269" t="s">
+      <c r="V31" s="267"/>
+      <c r="W31" s="267"/>
+      <c r="X31" s="267"/>
+      <c r="Y31" s="267"/>
+      <c r="Z31" s="267"/>
+      <c r="AA31" s="267"/>
+      <c r="AB31" s="267"/>
+      <c r="AC31" s="267"/>
+      <c r="AD31" s="267"/>
+      <c r="AE31" s="268"/>
+      <c r="AF31" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="AG31" s="270"/>
-      <c r="AH31" s="270"/>
-      <c r="AI31" s="270"/>
-      <c r="AJ31" s="270"/>
-      <c r="AK31" s="270"/>
-      <c r="AL31" s="270"/>
-      <c r="AM31" s="270"/>
-      <c r="AN31" s="270"/>
-      <c r="AO31" s="270"/>
-      <c r="AP31" s="271"/>
+      <c r="AG31" s="267"/>
+      <c r="AH31" s="267"/>
+      <c r="AI31" s="267"/>
+      <c r="AJ31" s="267"/>
+      <c r="AK31" s="267"/>
+      <c r="AL31" s="267"/>
+      <c r="AM31" s="267"/>
+      <c r="AN31" s="267"/>
+      <c r="AO31" s="267"/>
+      <c r="AP31" s="268"/>
     </row>
     <row r="32" spans="1:42" s="121" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A32" s="129"/>
@@ -26193,50 +26220,50 @@
         <f t="shared" si="3"/>
         <v>PDFデジタル署名</v>
       </c>
-      <c r="E52" s="263" t="s">
+      <c r="E52" s="260" t="s">
         <v>243</v>
       </c>
-      <c r="F52" s="264"/>
-      <c r="G52" s="264"/>
-      <c r="H52" s="264"/>
-      <c r="I52" s="264"/>
-      <c r="J52" s="264"/>
-      <c r="K52" s="264"/>
-      <c r="L52" s="264"/>
-      <c r="M52" s="264"/>
-      <c r="N52" s="264"/>
-      <c r="O52" s="264"/>
-      <c r="P52" s="264"/>
-      <c r="Q52" s="264"/>
-      <c r="R52" s="264"/>
-      <c r="S52" s="264"/>
-      <c r="T52" s="265"/>
-      <c r="U52" s="269" t="s">
+      <c r="F52" s="261"/>
+      <c r="G52" s="261"/>
+      <c r="H52" s="261"/>
+      <c r="I52" s="261"/>
+      <c r="J52" s="261"/>
+      <c r="K52" s="261"/>
+      <c r="L52" s="261"/>
+      <c r="M52" s="261"/>
+      <c r="N52" s="261"/>
+      <c r="O52" s="261"/>
+      <c r="P52" s="261"/>
+      <c r="Q52" s="261"/>
+      <c r="R52" s="261"/>
+      <c r="S52" s="261"/>
+      <c r="T52" s="262"/>
+      <c r="U52" s="266" t="s">
         <v>213</v>
       </c>
-      <c r="V52" s="270"/>
-      <c r="W52" s="270"/>
-      <c r="X52" s="270"/>
-      <c r="Y52" s="270"/>
-      <c r="Z52" s="270"/>
-      <c r="AA52" s="270"/>
-      <c r="AB52" s="270"/>
-      <c r="AC52" s="270"/>
-      <c r="AD52" s="270"/>
-      <c r="AE52" s="271"/>
-      <c r="AF52" s="269" t="s">
+      <c r="V52" s="267"/>
+      <c r="W52" s="267"/>
+      <c r="X52" s="267"/>
+      <c r="Y52" s="267"/>
+      <c r="Z52" s="267"/>
+      <c r="AA52" s="267"/>
+      <c r="AB52" s="267"/>
+      <c r="AC52" s="267"/>
+      <c r="AD52" s="267"/>
+      <c r="AE52" s="268"/>
+      <c r="AF52" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="AG52" s="270"/>
-      <c r="AH52" s="270"/>
-      <c r="AI52" s="270"/>
-      <c r="AJ52" s="270"/>
-      <c r="AK52" s="270"/>
-      <c r="AL52" s="270"/>
-      <c r="AM52" s="270"/>
-      <c r="AN52" s="270"/>
-      <c r="AO52" s="270"/>
-      <c r="AP52" s="271"/>
+      <c r="AG52" s="267"/>
+      <c r="AH52" s="267"/>
+      <c r="AI52" s="267"/>
+      <c r="AJ52" s="267"/>
+      <c r="AK52" s="267"/>
+      <c r="AL52" s="267"/>
+      <c r="AM52" s="267"/>
+      <c r="AN52" s="267"/>
+      <c r="AO52" s="267"/>
+      <c r="AP52" s="268"/>
     </row>
     <row r="53" spans="1:42" s="121" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A53" s="113"/>
@@ -26663,50 +26690,50 @@
         <f t="shared" si="3"/>
         <v>PDFアクセシビリティ</v>
       </c>
-      <c r="E61" s="263" t="s">
+      <c r="E61" s="260" t="s">
         <v>253</v>
       </c>
-      <c r="F61" s="264"/>
-      <c r="G61" s="264"/>
-      <c r="H61" s="264"/>
-      <c r="I61" s="264"/>
-      <c r="J61" s="264"/>
-      <c r="K61" s="264"/>
-      <c r="L61" s="264"/>
-      <c r="M61" s="264"/>
-      <c r="N61" s="264"/>
-      <c r="O61" s="264"/>
-      <c r="P61" s="264"/>
-      <c r="Q61" s="264"/>
-      <c r="R61" s="264"/>
-      <c r="S61" s="264"/>
-      <c r="T61" s="265"/>
-      <c r="U61" s="269" t="s">
+      <c r="F61" s="261"/>
+      <c r="G61" s="261"/>
+      <c r="H61" s="261"/>
+      <c r="I61" s="261"/>
+      <c r="J61" s="261"/>
+      <c r="K61" s="261"/>
+      <c r="L61" s="261"/>
+      <c r="M61" s="261"/>
+      <c r="N61" s="261"/>
+      <c r="O61" s="261"/>
+      <c r="P61" s="261"/>
+      <c r="Q61" s="261"/>
+      <c r="R61" s="261"/>
+      <c r="S61" s="261"/>
+      <c r="T61" s="262"/>
+      <c r="U61" s="266" t="s">
         <v>213</v>
       </c>
-      <c r="V61" s="270"/>
-      <c r="W61" s="270"/>
-      <c r="X61" s="270"/>
-      <c r="Y61" s="270"/>
-      <c r="Z61" s="270"/>
-      <c r="AA61" s="270"/>
-      <c r="AB61" s="270"/>
-      <c r="AC61" s="270"/>
-      <c r="AD61" s="270"/>
-      <c r="AE61" s="271"/>
-      <c r="AF61" s="269" t="s">
+      <c r="V61" s="267"/>
+      <c r="W61" s="267"/>
+      <c r="X61" s="267"/>
+      <c r="Y61" s="267"/>
+      <c r="Z61" s="267"/>
+      <c r="AA61" s="267"/>
+      <c r="AB61" s="267"/>
+      <c r="AC61" s="267"/>
+      <c r="AD61" s="267"/>
+      <c r="AE61" s="268"/>
+      <c r="AF61" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="AG61" s="270"/>
-      <c r="AH61" s="270"/>
-      <c r="AI61" s="270"/>
-      <c r="AJ61" s="270"/>
-      <c r="AK61" s="270"/>
-      <c r="AL61" s="270"/>
-      <c r="AM61" s="270"/>
-      <c r="AN61" s="270"/>
-      <c r="AO61" s="270"/>
-      <c r="AP61" s="271"/>
+      <c r="AG61" s="267"/>
+      <c r="AH61" s="267"/>
+      <c r="AI61" s="267"/>
+      <c r="AJ61" s="267"/>
+      <c r="AK61" s="267"/>
+      <c r="AL61" s="267"/>
+      <c r="AM61" s="267"/>
+      <c r="AN61" s="267"/>
+      <c r="AO61" s="267"/>
+      <c r="AP61" s="268"/>
     </row>
     <row r="62" spans="1:42" s="121" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A62" s="113"/>
@@ -26872,50 +26899,50 @@
         <f t="shared" si="4"/>
         <v>PDF/A出力</v>
       </c>
-      <c r="E65" s="263" t="s">
+      <c r="E65" s="260" t="s">
         <v>259</v>
       </c>
-      <c r="F65" s="264"/>
-      <c r="G65" s="264"/>
-      <c r="H65" s="264"/>
-      <c r="I65" s="264"/>
-      <c r="J65" s="264"/>
-      <c r="K65" s="264"/>
-      <c r="L65" s="264"/>
-      <c r="M65" s="264"/>
-      <c r="N65" s="264"/>
-      <c r="O65" s="264"/>
-      <c r="P65" s="264"/>
-      <c r="Q65" s="264"/>
-      <c r="R65" s="264"/>
-      <c r="S65" s="264"/>
-      <c r="T65" s="265"/>
-      <c r="U65" s="269" t="s">
+      <c r="F65" s="261"/>
+      <c r="G65" s="261"/>
+      <c r="H65" s="261"/>
+      <c r="I65" s="261"/>
+      <c r="J65" s="261"/>
+      <c r="K65" s="261"/>
+      <c r="L65" s="261"/>
+      <c r="M65" s="261"/>
+      <c r="N65" s="261"/>
+      <c r="O65" s="261"/>
+      <c r="P65" s="261"/>
+      <c r="Q65" s="261"/>
+      <c r="R65" s="261"/>
+      <c r="S65" s="261"/>
+      <c r="T65" s="262"/>
+      <c r="U65" s="266" t="s">
         <v>213</v>
       </c>
-      <c r="V65" s="270"/>
-      <c r="W65" s="270"/>
-      <c r="X65" s="270"/>
-      <c r="Y65" s="270"/>
-      <c r="Z65" s="270"/>
-      <c r="AA65" s="270"/>
-      <c r="AB65" s="270"/>
-      <c r="AC65" s="270"/>
-      <c r="AD65" s="270"/>
-      <c r="AE65" s="271"/>
-      <c r="AF65" s="269" t="s">
+      <c r="V65" s="267"/>
+      <c r="W65" s="267"/>
+      <c r="X65" s="267"/>
+      <c r="Y65" s="267"/>
+      <c r="Z65" s="267"/>
+      <c r="AA65" s="267"/>
+      <c r="AB65" s="267"/>
+      <c r="AC65" s="267"/>
+      <c r="AD65" s="267"/>
+      <c r="AE65" s="268"/>
+      <c r="AF65" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="AG65" s="270"/>
-      <c r="AH65" s="270"/>
-      <c r="AI65" s="270"/>
-      <c r="AJ65" s="270"/>
-      <c r="AK65" s="270"/>
-      <c r="AL65" s="270"/>
-      <c r="AM65" s="270"/>
-      <c r="AN65" s="270"/>
-      <c r="AO65" s="270"/>
-      <c r="AP65" s="271"/>
+      <c r="AG65" s="267"/>
+      <c r="AH65" s="267"/>
+      <c r="AI65" s="267"/>
+      <c r="AJ65" s="267"/>
+      <c r="AK65" s="267"/>
+      <c r="AL65" s="267"/>
+      <c r="AM65" s="267"/>
+      <c r="AN65" s="267"/>
+      <c r="AO65" s="267"/>
+      <c r="AP65" s="268"/>
     </row>
     <row r="66" spans="1:42" s="121" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A66" s="113"/>
@@ -27336,50 +27363,50 @@
         <f t="shared" si="4"/>
         <v>PDF/X出力</v>
       </c>
-      <c r="E74" s="263" t="s">
+      <c r="E74" s="260" t="s">
         <v>270</v>
       </c>
-      <c r="F74" s="264"/>
-      <c r="G74" s="264"/>
-      <c r="H74" s="264"/>
-      <c r="I74" s="264"/>
-      <c r="J74" s="264"/>
-      <c r="K74" s="264"/>
-      <c r="L74" s="264"/>
-      <c r="M74" s="264"/>
-      <c r="N74" s="264"/>
-      <c r="O74" s="264"/>
-      <c r="P74" s="264"/>
-      <c r="Q74" s="264"/>
-      <c r="R74" s="264"/>
-      <c r="S74" s="264"/>
-      <c r="T74" s="265"/>
-      <c r="U74" s="269" t="s">
+      <c r="F74" s="261"/>
+      <c r="G74" s="261"/>
+      <c r="H74" s="261"/>
+      <c r="I74" s="261"/>
+      <c r="J74" s="261"/>
+      <c r="K74" s="261"/>
+      <c r="L74" s="261"/>
+      <c r="M74" s="261"/>
+      <c r="N74" s="261"/>
+      <c r="O74" s="261"/>
+      <c r="P74" s="261"/>
+      <c r="Q74" s="261"/>
+      <c r="R74" s="261"/>
+      <c r="S74" s="261"/>
+      <c r="T74" s="262"/>
+      <c r="U74" s="266" t="s">
         <v>213</v>
       </c>
-      <c r="V74" s="270"/>
-      <c r="W74" s="270"/>
-      <c r="X74" s="270"/>
-      <c r="Y74" s="270"/>
-      <c r="Z74" s="270"/>
-      <c r="AA74" s="270"/>
-      <c r="AB74" s="270"/>
-      <c r="AC74" s="270"/>
-      <c r="AD74" s="270"/>
-      <c r="AE74" s="271"/>
-      <c r="AF74" s="269" t="s">
+      <c r="V74" s="267"/>
+      <c r="W74" s="267"/>
+      <c r="X74" s="267"/>
+      <c r="Y74" s="267"/>
+      <c r="Z74" s="267"/>
+      <c r="AA74" s="267"/>
+      <c r="AB74" s="267"/>
+      <c r="AC74" s="267"/>
+      <c r="AD74" s="267"/>
+      <c r="AE74" s="268"/>
+      <c r="AF74" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="AG74" s="270"/>
-      <c r="AH74" s="270"/>
-      <c r="AI74" s="270"/>
-      <c r="AJ74" s="270"/>
-      <c r="AK74" s="270"/>
-      <c r="AL74" s="270"/>
-      <c r="AM74" s="270"/>
-      <c r="AN74" s="270"/>
-      <c r="AO74" s="270"/>
-      <c r="AP74" s="271"/>
+      <c r="AG74" s="267"/>
+      <c r="AH74" s="267"/>
+      <c r="AI74" s="267"/>
+      <c r="AJ74" s="267"/>
+      <c r="AK74" s="267"/>
+      <c r="AL74" s="267"/>
+      <c r="AM74" s="267"/>
+      <c r="AN74" s="267"/>
+      <c r="AO74" s="267"/>
+      <c r="AP74" s="268"/>
     </row>
     <row r="75" spans="1:42" s="121" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A75" s="113"/>
@@ -27698,50 +27725,50 @@
         <f t="shared" si="5"/>
         <v>DOCX出力</v>
       </c>
-      <c r="E81" s="263" t="s">
+      <c r="E81" s="260" t="s">
         <v>259</v>
       </c>
-      <c r="F81" s="264"/>
-      <c r="G81" s="264"/>
-      <c r="H81" s="264"/>
-      <c r="I81" s="264"/>
-      <c r="J81" s="264"/>
-      <c r="K81" s="264"/>
-      <c r="L81" s="264"/>
-      <c r="M81" s="264"/>
-      <c r="N81" s="264"/>
-      <c r="O81" s="264"/>
-      <c r="P81" s="264"/>
-      <c r="Q81" s="264"/>
-      <c r="R81" s="264"/>
-      <c r="S81" s="264"/>
-      <c r="T81" s="265"/>
-      <c r="U81" s="269" t="s">
+      <c r="F81" s="261"/>
+      <c r="G81" s="261"/>
+      <c r="H81" s="261"/>
+      <c r="I81" s="261"/>
+      <c r="J81" s="261"/>
+      <c r="K81" s="261"/>
+      <c r="L81" s="261"/>
+      <c r="M81" s="261"/>
+      <c r="N81" s="261"/>
+      <c r="O81" s="261"/>
+      <c r="P81" s="261"/>
+      <c r="Q81" s="261"/>
+      <c r="R81" s="261"/>
+      <c r="S81" s="261"/>
+      <c r="T81" s="262"/>
+      <c r="U81" s="266" t="s">
         <v>213</v>
       </c>
-      <c r="V81" s="270"/>
-      <c r="W81" s="270"/>
-      <c r="X81" s="270"/>
-      <c r="Y81" s="270"/>
-      <c r="Z81" s="270"/>
-      <c r="AA81" s="270"/>
-      <c r="AB81" s="270"/>
-      <c r="AC81" s="270"/>
-      <c r="AD81" s="270"/>
-      <c r="AE81" s="271"/>
-      <c r="AF81" s="269" t="s">
+      <c r="V81" s="267"/>
+      <c r="W81" s="267"/>
+      <c r="X81" s="267"/>
+      <c r="Y81" s="267"/>
+      <c r="Z81" s="267"/>
+      <c r="AA81" s="267"/>
+      <c r="AB81" s="267"/>
+      <c r="AC81" s="267"/>
+      <c r="AD81" s="267"/>
+      <c r="AE81" s="268"/>
+      <c r="AF81" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="AG81" s="270"/>
-      <c r="AH81" s="270"/>
-      <c r="AI81" s="270"/>
-      <c r="AJ81" s="270"/>
-      <c r="AK81" s="270"/>
-      <c r="AL81" s="270"/>
-      <c r="AM81" s="270"/>
-      <c r="AN81" s="270"/>
-      <c r="AO81" s="270"/>
-      <c r="AP81" s="271"/>
+      <c r="AG81" s="267"/>
+      <c r="AH81" s="267"/>
+      <c r="AI81" s="267"/>
+      <c r="AJ81" s="267"/>
+      <c r="AK81" s="267"/>
+      <c r="AL81" s="267"/>
+      <c r="AM81" s="267"/>
+      <c r="AN81" s="267"/>
+      <c r="AO81" s="267"/>
+      <c r="AP81" s="268"/>
     </row>
     <row r="82" spans="1:42" s="121" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A82" s="113"/>
@@ -28011,50 +28038,50 @@
         <f t="shared" si="5"/>
         <v>RTF出力</v>
       </c>
-      <c r="E87" s="263" t="s">
+      <c r="E87" s="260" t="s">
         <v>259</v>
       </c>
-      <c r="F87" s="264"/>
-      <c r="G87" s="264"/>
-      <c r="H87" s="264"/>
-      <c r="I87" s="264"/>
-      <c r="J87" s="264"/>
-      <c r="K87" s="264"/>
-      <c r="L87" s="264"/>
-      <c r="M87" s="264"/>
-      <c r="N87" s="264"/>
-      <c r="O87" s="264"/>
-      <c r="P87" s="264"/>
-      <c r="Q87" s="264"/>
-      <c r="R87" s="264"/>
-      <c r="S87" s="264"/>
-      <c r="T87" s="265"/>
-      <c r="U87" s="269" t="s">
+      <c r="F87" s="261"/>
+      <c r="G87" s="261"/>
+      <c r="H87" s="261"/>
+      <c r="I87" s="261"/>
+      <c r="J87" s="261"/>
+      <c r="K87" s="261"/>
+      <c r="L87" s="261"/>
+      <c r="M87" s="261"/>
+      <c r="N87" s="261"/>
+      <c r="O87" s="261"/>
+      <c r="P87" s="261"/>
+      <c r="Q87" s="261"/>
+      <c r="R87" s="261"/>
+      <c r="S87" s="261"/>
+      <c r="T87" s="262"/>
+      <c r="U87" s="266" t="s">
         <v>213</v>
       </c>
-      <c r="V87" s="270"/>
-      <c r="W87" s="270"/>
-      <c r="X87" s="270"/>
-      <c r="Y87" s="270"/>
-      <c r="Z87" s="270"/>
-      <c r="AA87" s="270"/>
-      <c r="AB87" s="270"/>
-      <c r="AC87" s="270"/>
-      <c r="AD87" s="270"/>
-      <c r="AE87" s="271"/>
-      <c r="AF87" s="269" t="s">
+      <c r="V87" s="267"/>
+      <c r="W87" s="267"/>
+      <c r="X87" s="267"/>
+      <c r="Y87" s="267"/>
+      <c r="Z87" s="267"/>
+      <c r="AA87" s="267"/>
+      <c r="AB87" s="267"/>
+      <c r="AC87" s="267"/>
+      <c r="AD87" s="267"/>
+      <c r="AE87" s="268"/>
+      <c r="AF87" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="AG87" s="270"/>
-      <c r="AH87" s="270"/>
-      <c r="AI87" s="270"/>
-      <c r="AJ87" s="270"/>
-      <c r="AK87" s="270"/>
-      <c r="AL87" s="270"/>
-      <c r="AM87" s="270"/>
-      <c r="AN87" s="270"/>
-      <c r="AO87" s="270"/>
-      <c r="AP87" s="271"/>
+      <c r="AG87" s="267"/>
+      <c r="AH87" s="267"/>
+      <c r="AI87" s="267"/>
+      <c r="AJ87" s="267"/>
+      <c r="AK87" s="267"/>
+      <c r="AL87" s="267"/>
+      <c r="AM87" s="267"/>
+      <c r="AN87" s="267"/>
+      <c r="AO87" s="267"/>
+      <c r="AP87" s="268"/>
     </row>
     <row r="88" spans="1:42" s="121" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A88" s="113"/>
@@ -28326,50 +28353,50 @@
         <f t="shared" si="5"/>
         <v>PPTX出力</v>
       </c>
-      <c r="E93" s="263" t="s">
+      <c r="E93" s="260" t="s">
         <v>296</v>
       </c>
-      <c r="F93" s="264"/>
-      <c r="G93" s="264"/>
-      <c r="H93" s="264"/>
-      <c r="I93" s="264"/>
-      <c r="J93" s="264"/>
-      <c r="K93" s="264"/>
-      <c r="L93" s="264"/>
-      <c r="M93" s="264"/>
-      <c r="N93" s="264"/>
-      <c r="O93" s="264"/>
-      <c r="P93" s="264"/>
-      <c r="Q93" s="264"/>
-      <c r="R93" s="264"/>
-      <c r="S93" s="264"/>
-      <c r="T93" s="265"/>
-      <c r="U93" s="269" t="s">
+      <c r="F93" s="261"/>
+      <c r="G93" s="261"/>
+      <c r="H93" s="261"/>
+      <c r="I93" s="261"/>
+      <c r="J93" s="261"/>
+      <c r="K93" s="261"/>
+      <c r="L93" s="261"/>
+      <c r="M93" s="261"/>
+      <c r="N93" s="261"/>
+      <c r="O93" s="261"/>
+      <c r="P93" s="261"/>
+      <c r="Q93" s="261"/>
+      <c r="R93" s="261"/>
+      <c r="S93" s="261"/>
+      <c r="T93" s="262"/>
+      <c r="U93" s="266" t="s">
         <v>213</v>
       </c>
-      <c r="V93" s="270"/>
-      <c r="W93" s="270"/>
-      <c r="X93" s="270"/>
-      <c r="Y93" s="270"/>
-      <c r="Z93" s="270"/>
-      <c r="AA93" s="270"/>
-      <c r="AB93" s="270"/>
-      <c r="AC93" s="270"/>
-      <c r="AD93" s="270"/>
-      <c r="AE93" s="271"/>
-      <c r="AF93" s="269" t="s">
+      <c r="V93" s="267"/>
+      <c r="W93" s="267"/>
+      <c r="X93" s="267"/>
+      <c r="Y93" s="267"/>
+      <c r="Z93" s="267"/>
+      <c r="AA93" s="267"/>
+      <c r="AB93" s="267"/>
+      <c r="AC93" s="267"/>
+      <c r="AD93" s="267"/>
+      <c r="AE93" s="268"/>
+      <c r="AF93" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="AG93" s="270"/>
-      <c r="AH93" s="270"/>
-      <c r="AI93" s="270"/>
-      <c r="AJ93" s="270"/>
-      <c r="AK93" s="270"/>
-      <c r="AL93" s="270"/>
-      <c r="AM93" s="270"/>
-      <c r="AN93" s="270"/>
-      <c r="AO93" s="270"/>
-      <c r="AP93" s="271"/>
+      <c r="AG93" s="267"/>
+      <c r="AH93" s="267"/>
+      <c r="AI93" s="267"/>
+      <c r="AJ93" s="267"/>
+      <c r="AK93" s="267"/>
+      <c r="AL93" s="267"/>
+      <c r="AM93" s="267"/>
+      <c r="AN93" s="267"/>
+      <c r="AO93" s="267"/>
+      <c r="AP93" s="268"/>
     </row>
     <row r="94" spans="1:42" s="121" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A94" s="113"/>
@@ -28533,50 +28560,50 @@
         <f t="shared" si="6"/>
         <v>HTML出力</v>
       </c>
-      <c r="E97" s="263" t="s">
+      <c r="E97" s="260" t="s">
         <v>212</v>
       </c>
-      <c r="F97" s="264"/>
-      <c r="G97" s="264"/>
-      <c r="H97" s="264"/>
-      <c r="I97" s="264"/>
-      <c r="J97" s="264"/>
-      <c r="K97" s="264"/>
-      <c r="L97" s="264"/>
-      <c r="M97" s="264"/>
-      <c r="N97" s="264"/>
-      <c r="O97" s="264"/>
-      <c r="P97" s="264"/>
-      <c r="Q97" s="264"/>
-      <c r="R97" s="264"/>
-      <c r="S97" s="264"/>
-      <c r="T97" s="265"/>
-      <c r="U97" s="269" t="s">
+      <c r="F97" s="261"/>
+      <c r="G97" s="261"/>
+      <c r="H97" s="261"/>
+      <c r="I97" s="261"/>
+      <c r="J97" s="261"/>
+      <c r="K97" s="261"/>
+      <c r="L97" s="261"/>
+      <c r="M97" s="261"/>
+      <c r="N97" s="261"/>
+      <c r="O97" s="261"/>
+      <c r="P97" s="261"/>
+      <c r="Q97" s="261"/>
+      <c r="R97" s="261"/>
+      <c r="S97" s="261"/>
+      <c r="T97" s="262"/>
+      <c r="U97" s="266" t="s">
         <v>213</v>
       </c>
-      <c r="V97" s="270"/>
-      <c r="W97" s="270"/>
-      <c r="X97" s="270"/>
-      <c r="Y97" s="270"/>
-      <c r="Z97" s="270"/>
-      <c r="AA97" s="270"/>
-      <c r="AB97" s="270"/>
-      <c r="AC97" s="270"/>
-      <c r="AD97" s="270"/>
-      <c r="AE97" s="271"/>
-      <c r="AF97" s="269" t="s">
+      <c r="V97" s="267"/>
+      <c r="W97" s="267"/>
+      <c r="X97" s="267"/>
+      <c r="Y97" s="267"/>
+      <c r="Z97" s="267"/>
+      <c r="AA97" s="267"/>
+      <c r="AB97" s="267"/>
+      <c r="AC97" s="267"/>
+      <c r="AD97" s="267"/>
+      <c r="AE97" s="268"/>
+      <c r="AF97" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="AG97" s="270"/>
-      <c r="AH97" s="270"/>
-      <c r="AI97" s="270"/>
-      <c r="AJ97" s="270"/>
-      <c r="AK97" s="270"/>
-      <c r="AL97" s="270"/>
-      <c r="AM97" s="270"/>
-      <c r="AN97" s="270"/>
-      <c r="AO97" s="270"/>
-      <c r="AP97" s="271"/>
+      <c r="AG97" s="267"/>
+      <c r="AH97" s="267"/>
+      <c r="AI97" s="267"/>
+      <c r="AJ97" s="267"/>
+      <c r="AK97" s="267"/>
+      <c r="AL97" s="267"/>
+      <c r="AM97" s="267"/>
+      <c r="AN97" s="267"/>
+      <c r="AO97" s="267"/>
+      <c r="AP97" s="268"/>
     </row>
     <row r="98" spans="1:42" s="121" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A98" s="113"/>
@@ -29431,50 +29458,50 @@
         <f t="shared" si="7"/>
         <v>FO処理</v>
       </c>
-      <c r="E114" s="263" t="s">
+      <c r="E114" s="260" t="s">
         <v>320</v>
       </c>
-      <c r="F114" s="264"/>
-      <c r="G114" s="264"/>
-      <c r="H114" s="264"/>
-      <c r="I114" s="264"/>
-      <c r="J114" s="264"/>
-      <c r="K114" s="264"/>
-      <c r="L114" s="264"/>
-      <c r="M114" s="264"/>
-      <c r="N114" s="264"/>
-      <c r="O114" s="264"/>
-      <c r="P114" s="264"/>
-      <c r="Q114" s="264"/>
-      <c r="R114" s="264"/>
-      <c r="S114" s="264"/>
-      <c r="T114" s="265"/>
-      <c r="U114" s="269" t="s">
+      <c r="F114" s="261"/>
+      <c r="G114" s="261"/>
+      <c r="H114" s="261"/>
+      <c r="I114" s="261"/>
+      <c r="J114" s="261"/>
+      <c r="K114" s="261"/>
+      <c r="L114" s="261"/>
+      <c r="M114" s="261"/>
+      <c r="N114" s="261"/>
+      <c r="O114" s="261"/>
+      <c r="P114" s="261"/>
+      <c r="Q114" s="261"/>
+      <c r="R114" s="261"/>
+      <c r="S114" s="261"/>
+      <c r="T114" s="262"/>
+      <c r="U114" s="266" t="s">
         <v>213</v>
       </c>
-      <c r="V114" s="270"/>
-      <c r="W114" s="270"/>
-      <c r="X114" s="270"/>
-      <c r="Y114" s="270"/>
-      <c r="Z114" s="270"/>
-      <c r="AA114" s="270"/>
-      <c r="AB114" s="270"/>
-      <c r="AC114" s="270"/>
-      <c r="AD114" s="270"/>
-      <c r="AE114" s="271"/>
-      <c r="AF114" s="269" t="s">
+      <c r="V114" s="267"/>
+      <c r="W114" s="267"/>
+      <c r="X114" s="267"/>
+      <c r="Y114" s="267"/>
+      <c r="Z114" s="267"/>
+      <c r="AA114" s="267"/>
+      <c r="AB114" s="267"/>
+      <c r="AC114" s="267"/>
+      <c r="AD114" s="267"/>
+      <c r="AE114" s="268"/>
+      <c r="AF114" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="AG114" s="270"/>
-      <c r="AH114" s="270"/>
-      <c r="AI114" s="270"/>
-      <c r="AJ114" s="270"/>
-      <c r="AK114" s="270"/>
-      <c r="AL114" s="270"/>
-      <c r="AM114" s="270"/>
-      <c r="AN114" s="270"/>
-      <c r="AO114" s="270"/>
-      <c r="AP114" s="271"/>
+      <c r="AG114" s="267"/>
+      <c r="AH114" s="267"/>
+      <c r="AI114" s="267"/>
+      <c r="AJ114" s="267"/>
+      <c r="AK114" s="267"/>
+      <c r="AL114" s="267"/>
+      <c r="AM114" s="267"/>
+      <c r="AN114" s="267"/>
+      <c r="AO114" s="267"/>
+      <c r="AP114" s="268"/>
     </row>
     <row r="115" spans="1:42" s="121" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A115" s="113"/>
@@ -30331,50 +30358,50 @@
         <f t="shared" si="8"/>
         <v>RTFテンプレート</v>
       </c>
-      <c r="E131" s="263" t="s">
+      <c r="E131" s="260" t="s">
         <v>212</v>
       </c>
-      <c r="F131" s="264"/>
-      <c r="G131" s="264"/>
-      <c r="H131" s="264"/>
-      <c r="I131" s="264"/>
-      <c r="J131" s="264"/>
-      <c r="K131" s="264"/>
-      <c r="L131" s="264"/>
-      <c r="M131" s="264"/>
-      <c r="N131" s="264"/>
-      <c r="O131" s="264"/>
-      <c r="P131" s="264"/>
-      <c r="Q131" s="264"/>
-      <c r="R131" s="264"/>
-      <c r="S131" s="264"/>
-      <c r="T131" s="265"/>
-      <c r="U131" s="269" t="s">
+      <c r="F131" s="261"/>
+      <c r="G131" s="261"/>
+      <c r="H131" s="261"/>
+      <c r="I131" s="261"/>
+      <c r="J131" s="261"/>
+      <c r="K131" s="261"/>
+      <c r="L131" s="261"/>
+      <c r="M131" s="261"/>
+      <c r="N131" s="261"/>
+      <c r="O131" s="261"/>
+      <c r="P131" s="261"/>
+      <c r="Q131" s="261"/>
+      <c r="R131" s="261"/>
+      <c r="S131" s="261"/>
+      <c r="T131" s="262"/>
+      <c r="U131" s="266" t="s">
         <v>213</v>
       </c>
-      <c r="V131" s="270"/>
-      <c r="W131" s="270"/>
-      <c r="X131" s="270"/>
-      <c r="Y131" s="270"/>
-      <c r="Z131" s="270"/>
-      <c r="AA131" s="270"/>
-      <c r="AB131" s="270"/>
-      <c r="AC131" s="270"/>
-      <c r="AD131" s="270"/>
-      <c r="AE131" s="271"/>
-      <c r="AF131" s="269" t="s">
+      <c r="V131" s="267"/>
+      <c r="W131" s="267"/>
+      <c r="X131" s="267"/>
+      <c r="Y131" s="267"/>
+      <c r="Z131" s="267"/>
+      <c r="AA131" s="267"/>
+      <c r="AB131" s="267"/>
+      <c r="AC131" s="267"/>
+      <c r="AD131" s="267"/>
+      <c r="AE131" s="268"/>
+      <c r="AF131" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="AG131" s="270"/>
-      <c r="AH131" s="270"/>
-      <c r="AI131" s="270"/>
-      <c r="AJ131" s="270"/>
-      <c r="AK131" s="270"/>
-      <c r="AL131" s="270"/>
-      <c r="AM131" s="270"/>
-      <c r="AN131" s="270"/>
-      <c r="AO131" s="270"/>
-      <c r="AP131" s="271"/>
+      <c r="AG131" s="267"/>
+      <c r="AH131" s="267"/>
+      <c r="AI131" s="267"/>
+      <c r="AJ131" s="267"/>
+      <c r="AK131" s="267"/>
+      <c r="AL131" s="267"/>
+      <c r="AM131" s="267"/>
+      <c r="AN131" s="267"/>
+      <c r="AO131" s="267"/>
+      <c r="AP131" s="268"/>
     </row>
     <row r="132" spans="1:42" s="121" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A132" s="113"/>
@@ -30593,50 +30620,50 @@
         <f t="shared" si="8"/>
         <v>XPTテンプレート</v>
       </c>
-      <c r="E136" s="263" t="s">
+      <c r="E136" s="260" t="s">
         <v>320</v>
       </c>
-      <c r="F136" s="264"/>
-      <c r="G136" s="264"/>
-      <c r="H136" s="264"/>
-      <c r="I136" s="264"/>
-      <c r="J136" s="264"/>
-      <c r="K136" s="264"/>
-      <c r="L136" s="264"/>
-      <c r="M136" s="264"/>
-      <c r="N136" s="264"/>
-      <c r="O136" s="264"/>
-      <c r="P136" s="264"/>
-      <c r="Q136" s="264"/>
-      <c r="R136" s="264"/>
-      <c r="S136" s="264"/>
-      <c r="T136" s="265"/>
-      <c r="U136" s="269" t="s">
+      <c r="F136" s="261"/>
+      <c r="G136" s="261"/>
+      <c r="H136" s="261"/>
+      <c r="I136" s="261"/>
+      <c r="J136" s="261"/>
+      <c r="K136" s="261"/>
+      <c r="L136" s="261"/>
+      <c r="M136" s="261"/>
+      <c r="N136" s="261"/>
+      <c r="O136" s="261"/>
+      <c r="P136" s="261"/>
+      <c r="Q136" s="261"/>
+      <c r="R136" s="261"/>
+      <c r="S136" s="261"/>
+      <c r="T136" s="262"/>
+      <c r="U136" s="266" t="s">
         <v>213</v>
       </c>
-      <c r="V136" s="270"/>
-      <c r="W136" s="270"/>
-      <c r="X136" s="270"/>
-      <c r="Y136" s="270"/>
-      <c r="Z136" s="270"/>
-      <c r="AA136" s="270"/>
-      <c r="AB136" s="270"/>
-      <c r="AC136" s="270"/>
-      <c r="AD136" s="270"/>
-      <c r="AE136" s="271"/>
-      <c r="AF136" s="269" t="s">
+      <c r="V136" s="267"/>
+      <c r="W136" s="267"/>
+      <c r="X136" s="267"/>
+      <c r="Y136" s="267"/>
+      <c r="Z136" s="267"/>
+      <c r="AA136" s="267"/>
+      <c r="AB136" s="267"/>
+      <c r="AC136" s="267"/>
+      <c r="AD136" s="267"/>
+      <c r="AE136" s="268"/>
+      <c r="AF136" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="AG136" s="270"/>
-      <c r="AH136" s="270"/>
-      <c r="AI136" s="270"/>
-      <c r="AJ136" s="270"/>
-      <c r="AK136" s="270"/>
-      <c r="AL136" s="270"/>
-      <c r="AM136" s="270"/>
-      <c r="AN136" s="270"/>
-      <c r="AO136" s="270"/>
-      <c r="AP136" s="271"/>
+      <c r="AG136" s="267"/>
+      <c r="AH136" s="267"/>
+      <c r="AI136" s="267"/>
+      <c r="AJ136" s="267"/>
+      <c r="AK136" s="267"/>
+      <c r="AL136" s="267"/>
+      <c r="AM136" s="267"/>
+      <c r="AN136" s="267"/>
+      <c r="AO136" s="267"/>
+      <c r="AP136" s="268"/>
     </row>
     <row r="137" spans="1:42" s="121" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A137" s="113"/>
@@ -30855,50 +30882,50 @@
         <f t="shared" si="8"/>
         <v>PDFフォーム・テンプレート</v>
       </c>
-      <c r="E141" s="263" t="s">
+      <c r="E141" s="260" t="s">
         <v>320</v>
       </c>
-      <c r="F141" s="264"/>
-      <c r="G141" s="264"/>
-      <c r="H141" s="264"/>
-      <c r="I141" s="264"/>
-      <c r="J141" s="264"/>
-      <c r="K141" s="264"/>
-      <c r="L141" s="264"/>
-      <c r="M141" s="264"/>
-      <c r="N141" s="264"/>
-      <c r="O141" s="264"/>
-      <c r="P141" s="264"/>
-      <c r="Q141" s="264"/>
-      <c r="R141" s="264"/>
-      <c r="S141" s="264"/>
-      <c r="T141" s="265"/>
-      <c r="U141" s="269" t="s">
+      <c r="F141" s="261"/>
+      <c r="G141" s="261"/>
+      <c r="H141" s="261"/>
+      <c r="I141" s="261"/>
+      <c r="J141" s="261"/>
+      <c r="K141" s="261"/>
+      <c r="L141" s="261"/>
+      <c r="M141" s="261"/>
+      <c r="N141" s="261"/>
+      <c r="O141" s="261"/>
+      <c r="P141" s="261"/>
+      <c r="Q141" s="261"/>
+      <c r="R141" s="261"/>
+      <c r="S141" s="261"/>
+      <c r="T141" s="262"/>
+      <c r="U141" s="266" t="s">
         <v>213</v>
       </c>
-      <c r="V141" s="270"/>
-      <c r="W141" s="270"/>
-      <c r="X141" s="270"/>
-      <c r="Y141" s="270"/>
-      <c r="Z141" s="270"/>
-      <c r="AA141" s="270"/>
-      <c r="AB141" s="270"/>
-      <c r="AC141" s="270"/>
-      <c r="AD141" s="270"/>
-      <c r="AE141" s="271"/>
-      <c r="AF141" s="269" t="s">
+      <c r="V141" s="267"/>
+      <c r="W141" s="267"/>
+      <c r="X141" s="267"/>
+      <c r="Y141" s="267"/>
+      <c r="Z141" s="267"/>
+      <c r="AA141" s="267"/>
+      <c r="AB141" s="267"/>
+      <c r="AC141" s="267"/>
+      <c r="AD141" s="267"/>
+      <c r="AE141" s="268"/>
+      <c r="AF141" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="AG141" s="270"/>
-      <c r="AH141" s="270"/>
-      <c r="AI141" s="270"/>
-      <c r="AJ141" s="270"/>
-      <c r="AK141" s="270"/>
-      <c r="AL141" s="270"/>
-      <c r="AM141" s="270"/>
-      <c r="AN141" s="270"/>
-      <c r="AO141" s="270"/>
-      <c r="AP141" s="271"/>
+      <c r="AG141" s="267"/>
+      <c r="AH141" s="267"/>
+      <c r="AI141" s="267"/>
+      <c r="AJ141" s="267"/>
+      <c r="AK141" s="267"/>
+      <c r="AL141" s="267"/>
+      <c r="AM141" s="267"/>
+      <c r="AN141" s="267"/>
+      <c r="AO141" s="267"/>
+      <c r="AP141" s="268"/>
     </row>
     <row r="142" spans="1:42" s="121" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A142" s="113"/>
@@ -31117,50 +31144,50 @@
         <f t="shared" si="9"/>
         <v>Excelテンプレート</v>
       </c>
-      <c r="E146" s="263" t="s">
+      <c r="E146" s="260" t="s">
         <v>320</v>
       </c>
-      <c r="F146" s="264"/>
-      <c r="G146" s="264"/>
-      <c r="H146" s="264"/>
-      <c r="I146" s="264"/>
-      <c r="J146" s="264"/>
-      <c r="K146" s="264"/>
-      <c r="L146" s="264"/>
-      <c r="M146" s="264"/>
-      <c r="N146" s="264"/>
-      <c r="O146" s="264"/>
-      <c r="P146" s="264"/>
-      <c r="Q146" s="264"/>
-      <c r="R146" s="264"/>
-      <c r="S146" s="264"/>
-      <c r="T146" s="265"/>
-      <c r="U146" s="269" t="s">
+      <c r="F146" s="261"/>
+      <c r="G146" s="261"/>
+      <c r="H146" s="261"/>
+      <c r="I146" s="261"/>
+      <c r="J146" s="261"/>
+      <c r="K146" s="261"/>
+      <c r="L146" s="261"/>
+      <c r="M146" s="261"/>
+      <c r="N146" s="261"/>
+      <c r="O146" s="261"/>
+      <c r="P146" s="261"/>
+      <c r="Q146" s="261"/>
+      <c r="R146" s="261"/>
+      <c r="S146" s="261"/>
+      <c r="T146" s="262"/>
+      <c r="U146" s="266" t="s">
         <v>213</v>
       </c>
-      <c r="V146" s="270"/>
-      <c r="W146" s="270"/>
-      <c r="X146" s="270"/>
-      <c r="Y146" s="270"/>
-      <c r="Z146" s="270"/>
-      <c r="AA146" s="270"/>
-      <c r="AB146" s="270"/>
-      <c r="AC146" s="270"/>
-      <c r="AD146" s="270"/>
-      <c r="AE146" s="271"/>
-      <c r="AF146" s="269" t="s">
+      <c r="V146" s="267"/>
+      <c r="W146" s="267"/>
+      <c r="X146" s="267"/>
+      <c r="Y146" s="267"/>
+      <c r="Z146" s="267"/>
+      <c r="AA146" s="267"/>
+      <c r="AB146" s="267"/>
+      <c r="AC146" s="267"/>
+      <c r="AD146" s="267"/>
+      <c r="AE146" s="268"/>
+      <c r="AF146" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="AG146" s="270"/>
-      <c r="AH146" s="270"/>
-      <c r="AI146" s="270"/>
-      <c r="AJ146" s="270"/>
-      <c r="AK146" s="270"/>
-      <c r="AL146" s="270"/>
-      <c r="AM146" s="270"/>
-      <c r="AN146" s="270"/>
-      <c r="AO146" s="270"/>
-      <c r="AP146" s="271"/>
+      <c r="AG146" s="267"/>
+      <c r="AH146" s="267"/>
+      <c r="AI146" s="267"/>
+      <c r="AJ146" s="267"/>
+      <c r="AK146" s="267"/>
+      <c r="AL146" s="267"/>
+      <c r="AM146" s="267"/>
+      <c r="AN146" s="267"/>
+      <c r="AO146" s="267"/>
+      <c r="AP146" s="268"/>
     </row>
     <row r="147" spans="1:42" s="121" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A147" s="113"/>
@@ -31273,50 +31300,50 @@
         <f t="shared" si="9"/>
         <v>Flash</v>
       </c>
-      <c r="E149" s="263" t="s">
+      <c r="E149" s="260" t="s">
         <v>212</v>
       </c>
-      <c r="F149" s="264"/>
-      <c r="G149" s="264"/>
-      <c r="H149" s="264"/>
-      <c r="I149" s="264"/>
-      <c r="J149" s="264"/>
-      <c r="K149" s="264"/>
-      <c r="L149" s="264"/>
-      <c r="M149" s="264"/>
-      <c r="N149" s="264"/>
-      <c r="O149" s="264"/>
-      <c r="P149" s="264"/>
-      <c r="Q149" s="264"/>
-      <c r="R149" s="264"/>
-      <c r="S149" s="264"/>
-      <c r="T149" s="265"/>
-      <c r="U149" s="269" t="s">
+      <c r="F149" s="261"/>
+      <c r="G149" s="261"/>
+      <c r="H149" s="261"/>
+      <c r="I149" s="261"/>
+      <c r="J149" s="261"/>
+      <c r="K149" s="261"/>
+      <c r="L149" s="261"/>
+      <c r="M149" s="261"/>
+      <c r="N149" s="261"/>
+      <c r="O149" s="261"/>
+      <c r="P149" s="261"/>
+      <c r="Q149" s="261"/>
+      <c r="R149" s="261"/>
+      <c r="S149" s="261"/>
+      <c r="T149" s="262"/>
+      <c r="U149" s="266" t="s">
         <v>213</v>
       </c>
-      <c r="V149" s="270"/>
-      <c r="W149" s="270"/>
-      <c r="X149" s="270"/>
-      <c r="Y149" s="270"/>
-      <c r="Z149" s="270"/>
-      <c r="AA149" s="270"/>
-      <c r="AB149" s="270"/>
-      <c r="AC149" s="270"/>
-      <c r="AD149" s="270"/>
-      <c r="AE149" s="271"/>
-      <c r="AF149" s="269" t="s">
+      <c r="V149" s="267"/>
+      <c r="W149" s="267"/>
+      <c r="X149" s="267"/>
+      <c r="Y149" s="267"/>
+      <c r="Z149" s="267"/>
+      <c r="AA149" s="267"/>
+      <c r="AB149" s="267"/>
+      <c r="AC149" s="267"/>
+      <c r="AD149" s="267"/>
+      <c r="AE149" s="268"/>
+      <c r="AF149" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="AG149" s="270"/>
-      <c r="AH149" s="270"/>
-      <c r="AI149" s="270"/>
-      <c r="AJ149" s="270"/>
-      <c r="AK149" s="270"/>
-      <c r="AL149" s="270"/>
-      <c r="AM149" s="270"/>
-      <c r="AN149" s="270"/>
-      <c r="AO149" s="270"/>
-      <c r="AP149" s="271"/>
+      <c r="AG149" s="267"/>
+      <c r="AH149" s="267"/>
+      <c r="AI149" s="267"/>
+      <c r="AJ149" s="267"/>
+      <c r="AK149" s="267"/>
+      <c r="AL149" s="267"/>
+      <c r="AM149" s="267"/>
+      <c r="AN149" s="267"/>
+      <c r="AO149" s="267"/>
+      <c r="AP149" s="268"/>
     </row>
     <row r="150" spans="1:42" s="121" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A150" s="113"/>
@@ -31694,50 +31721,50 @@
         <f t="shared" si="9"/>
         <v>CSV出力</v>
       </c>
-      <c r="E157" s="263" t="s">
+      <c r="E157" s="260" t="s">
         <v>212</v>
       </c>
-      <c r="F157" s="264"/>
-      <c r="G157" s="264"/>
-      <c r="H157" s="264"/>
-      <c r="I157" s="264"/>
-      <c r="J157" s="264"/>
-      <c r="K157" s="264"/>
-      <c r="L157" s="264"/>
-      <c r="M157" s="264"/>
-      <c r="N157" s="264"/>
-      <c r="O157" s="264"/>
-      <c r="P157" s="264"/>
-      <c r="Q157" s="264"/>
-      <c r="R157" s="264"/>
-      <c r="S157" s="264"/>
-      <c r="T157" s="265"/>
-      <c r="U157" s="269" t="s">
+      <c r="F157" s="261"/>
+      <c r="G157" s="261"/>
+      <c r="H157" s="261"/>
+      <c r="I157" s="261"/>
+      <c r="J157" s="261"/>
+      <c r="K157" s="261"/>
+      <c r="L157" s="261"/>
+      <c r="M157" s="261"/>
+      <c r="N157" s="261"/>
+      <c r="O157" s="261"/>
+      <c r="P157" s="261"/>
+      <c r="Q157" s="261"/>
+      <c r="R157" s="261"/>
+      <c r="S157" s="261"/>
+      <c r="T157" s="262"/>
+      <c r="U157" s="266" t="s">
         <v>213</v>
       </c>
-      <c r="V157" s="270"/>
-      <c r="W157" s="270"/>
-      <c r="X157" s="270"/>
-      <c r="Y157" s="270"/>
-      <c r="Z157" s="270"/>
-      <c r="AA157" s="270"/>
-      <c r="AB157" s="270"/>
-      <c r="AC157" s="270"/>
-      <c r="AD157" s="270"/>
-      <c r="AE157" s="271"/>
-      <c r="AF157" s="269" t="s">
+      <c r="V157" s="267"/>
+      <c r="W157" s="267"/>
+      <c r="X157" s="267"/>
+      <c r="Y157" s="267"/>
+      <c r="Z157" s="267"/>
+      <c r="AA157" s="267"/>
+      <c r="AB157" s="267"/>
+      <c r="AC157" s="267"/>
+      <c r="AD157" s="267"/>
+      <c r="AE157" s="268"/>
+      <c r="AF157" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="AG157" s="270"/>
-      <c r="AH157" s="270"/>
-      <c r="AI157" s="270"/>
-      <c r="AJ157" s="270"/>
-      <c r="AK157" s="270"/>
-      <c r="AL157" s="270"/>
-      <c r="AM157" s="270"/>
-      <c r="AN157" s="270"/>
-      <c r="AO157" s="270"/>
-      <c r="AP157" s="271"/>
+      <c r="AG157" s="267"/>
+      <c r="AH157" s="267"/>
+      <c r="AI157" s="267"/>
+      <c r="AJ157" s="267"/>
+      <c r="AK157" s="267"/>
+      <c r="AL157" s="267"/>
+      <c r="AM157" s="267"/>
+      <c r="AN157" s="267"/>
+      <c r="AO157" s="267"/>
+      <c r="AP157" s="268"/>
     </row>
     <row r="158" spans="1:42" s="121" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A158" s="113"/>
@@ -31956,50 +31983,50 @@
         <f t="shared" si="10"/>
         <v>EXCEL 2007の出力</v>
       </c>
-      <c r="E162" s="263" t="s">
+      <c r="E162" s="260" t="s">
         <v>212</v>
       </c>
-      <c r="F162" s="264"/>
-      <c r="G162" s="264"/>
-      <c r="H162" s="264"/>
-      <c r="I162" s="264"/>
-      <c r="J162" s="264"/>
-      <c r="K162" s="264"/>
-      <c r="L162" s="264"/>
-      <c r="M162" s="264"/>
-      <c r="N162" s="264"/>
-      <c r="O162" s="264"/>
-      <c r="P162" s="264"/>
-      <c r="Q162" s="264"/>
-      <c r="R162" s="264"/>
-      <c r="S162" s="264"/>
-      <c r="T162" s="265"/>
-      <c r="U162" s="269" t="s">
+      <c r="F162" s="261"/>
+      <c r="G162" s="261"/>
+      <c r="H162" s="261"/>
+      <c r="I162" s="261"/>
+      <c r="J162" s="261"/>
+      <c r="K162" s="261"/>
+      <c r="L162" s="261"/>
+      <c r="M162" s="261"/>
+      <c r="N162" s="261"/>
+      <c r="O162" s="261"/>
+      <c r="P162" s="261"/>
+      <c r="Q162" s="261"/>
+      <c r="R162" s="261"/>
+      <c r="S162" s="261"/>
+      <c r="T162" s="262"/>
+      <c r="U162" s="266" t="s">
         <v>213</v>
       </c>
-      <c r="V162" s="270"/>
-      <c r="W162" s="270"/>
-      <c r="X162" s="270"/>
-      <c r="Y162" s="270"/>
-      <c r="Z162" s="270"/>
-      <c r="AA162" s="270"/>
-      <c r="AB162" s="270"/>
-      <c r="AC162" s="270"/>
-      <c r="AD162" s="270"/>
-      <c r="AE162" s="271"/>
-      <c r="AF162" s="269" t="s">
+      <c r="V162" s="267"/>
+      <c r="W162" s="267"/>
+      <c r="X162" s="267"/>
+      <c r="Y162" s="267"/>
+      <c r="Z162" s="267"/>
+      <c r="AA162" s="267"/>
+      <c r="AB162" s="267"/>
+      <c r="AC162" s="267"/>
+      <c r="AD162" s="267"/>
+      <c r="AE162" s="268"/>
+      <c r="AF162" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="AG162" s="270"/>
-      <c r="AH162" s="270"/>
-      <c r="AI162" s="270"/>
-      <c r="AJ162" s="270"/>
-      <c r="AK162" s="270"/>
-      <c r="AL162" s="270"/>
-      <c r="AM162" s="270"/>
-      <c r="AN162" s="270"/>
-      <c r="AO162" s="270"/>
-      <c r="AP162" s="271"/>
+      <c r="AG162" s="267"/>
+      <c r="AH162" s="267"/>
+      <c r="AI162" s="267"/>
+      <c r="AJ162" s="267"/>
+      <c r="AK162" s="267"/>
+      <c r="AL162" s="267"/>
+      <c r="AM162" s="267"/>
+      <c r="AN162" s="267"/>
+      <c r="AO162" s="267"/>
+      <c r="AP162" s="268"/>
     </row>
     <row r="163" spans="1:42" s="121" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A163" s="113"/>
@@ -32534,50 +32561,50 @@
         <f t="shared" si="10"/>
         <v>eText出力</v>
       </c>
-      <c r="E173" s="263" t="s">
+      <c r="E173" s="260" t="s">
         <v>320</v>
       </c>
-      <c r="F173" s="264"/>
-      <c r="G173" s="264"/>
-      <c r="H173" s="264"/>
-      <c r="I173" s="264"/>
-      <c r="J173" s="264"/>
-      <c r="K173" s="264"/>
-      <c r="L173" s="264"/>
-      <c r="M173" s="264"/>
-      <c r="N173" s="264"/>
-      <c r="O173" s="264"/>
-      <c r="P173" s="264"/>
-      <c r="Q173" s="264"/>
-      <c r="R173" s="264"/>
-      <c r="S173" s="264"/>
-      <c r="T173" s="265"/>
-      <c r="U173" s="269" t="s">
+      <c r="F173" s="261"/>
+      <c r="G173" s="261"/>
+      <c r="H173" s="261"/>
+      <c r="I173" s="261"/>
+      <c r="J173" s="261"/>
+      <c r="K173" s="261"/>
+      <c r="L173" s="261"/>
+      <c r="M173" s="261"/>
+      <c r="N173" s="261"/>
+      <c r="O173" s="261"/>
+      <c r="P173" s="261"/>
+      <c r="Q173" s="261"/>
+      <c r="R173" s="261"/>
+      <c r="S173" s="261"/>
+      <c r="T173" s="262"/>
+      <c r="U173" s="266" t="s">
         <v>213</v>
       </c>
-      <c r="V173" s="270"/>
-      <c r="W173" s="270"/>
-      <c r="X173" s="270"/>
-      <c r="Y173" s="270"/>
-      <c r="Z173" s="270"/>
-      <c r="AA173" s="270"/>
-      <c r="AB173" s="270"/>
-      <c r="AC173" s="270"/>
-      <c r="AD173" s="270"/>
-      <c r="AE173" s="271"/>
-      <c r="AF173" s="269" t="s">
+      <c r="V173" s="267"/>
+      <c r="W173" s="267"/>
+      <c r="X173" s="267"/>
+      <c r="Y173" s="267"/>
+      <c r="Z173" s="267"/>
+      <c r="AA173" s="267"/>
+      <c r="AB173" s="267"/>
+      <c r="AC173" s="267"/>
+      <c r="AD173" s="267"/>
+      <c r="AE173" s="268"/>
+      <c r="AF173" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="AG173" s="270"/>
-      <c r="AH173" s="270"/>
-      <c r="AI173" s="270"/>
-      <c r="AJ173" s="270"/>
-      <c r="AK173" s="270"/>
-      <c r="AL173" s="270"/>
-      <c r="AM173" s="270"/>
-      <c r="AN173" s="270"/>
-      <c r="AO173" s="270"/>
-      <c r="AP173" s="271"/>
+      <c r="AG173" s="267"/>
+      <c r="AH173" s="267"/>
+      <c r="AI173" s="267"/>
+      <c r="AJ173" s="267"/>
+      <c r="AK173" s="267"/>
+      <c r="AL173" s="267"/>
+      <c r="AM173" s="267"/>
+      <c r="AN173" s="267"/>
+      <c r="AO173" s="267"/>
+      <c r="AP173" s="268"/>
     </row>
     <row r="174" spans="1:42" s="121" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A174" s="113"/>
@@ -32743,50 +32770,50 @@
         <f t="shared" si="11"/>
         <v>すべての出力</v>
       </c>
-      <c r="E177" s="263" t="s">
+      <c r="E177" s="260" t="s">
         <v>212</v>
       </c>
-      <c r="F177" s="264"/>
-      <c r="G177" s="264"/>
-      <c r="H177" s="264"/>
-      <c r="I177" s="264"/>
-      <c r="J177" s="264"/>
-      <c r="K177" s="264"/>
-      <c r="L177" s="264"/>
-      <c r="M177" s="264"/>
-      <c r="N177" s="264"/>
-      <c r="O177" s="264"/>
-      <c r="P177" s="264"/>
-      <c r="Q177" s="264"/>
-      <c r="R177" s="264"/>
-      <c r="S177" s="264"/>
-      <c r="T177" s="265"/>
-      <c r="U177" s="269" t="s">
+      <c r="F177" s="261"/>
+      <c r="G177" s="261"/>
+      <c r="H177" s="261"/>
+      <c r="I177" s="261"/>
+      <c r="J177" s="261"/>
+      <c r="K177" s="261"/>
+      <c r="L177" s="261"/>
+      <c r="M177" s="261"/>
+      <c r="N177" s="261"/>
+      <c r="O177" s="261"/>
+      <c r="P177" s="261"/>
+      <c r="Q177" s="261"/>
+      <c r="R177" s="261"/>
+      <c r="S177" s="261"/>
+      <c r="T177" s="262"/>
+      <c r="U177" s="266" t="s">
         <v>213</v>
       </c>
-      <c r="V177" s="270"/>
-      <c r="W177" s="270"/>
-      <c r="X177" s="270"/>
-      <c r="Y177" s="270"/>
-      <c r="Z177" s="270"/>
-      <c r="AA177" s="270"/>
-      <c r="AB177" s="270"/>
-      <c r="AC177" s="270"/>
-      <c r="AD177" s="270"/>
-      <c r="AE177" s="271"/>
-      <c r="AF177" s="269" t="s">
+      <c r="V177" s="267"/>
+      <c r="W177" s="267"/>
+      <c r="X177" s="267"/>
+      <c r="Y177" s="267"/>
+      <c r="Z177" s="267"/>
+      <c r="AA177" s="267"/>
+      <c r="AB177" s="267"/>
+      <c r="AC177" s="267"/>
+      <c r="AD177" s="267"/>
+      <c r="AE177" s="268"/>
+      <c r="AF177" s="266" t="s">
         <v>169</v>
       </c>
-      <c r="AG177" s="270"/>
-      <c r="AH177" s="270"/>
-      <c r="AI177" s="270"/>
-      <c r="AJ177" s="270"/>
-      <c r="AK177" s="270"/>
-      <c r="AL177" s="270"/>
-      <c r="AM177" s="270"/>
-      <c r="AN177" s="270"/>
-      <c r="AO177" s="270"/>
-      <c r="AP177" s="271"/>
+      <c r="AG177" s="267"/>
+      <c r="AH177" s="267"/>
+      <c r="AI177" s="267"/>
+      <c r="AJ177" s="267"/>
+      <c r="AK177" s="267"/>
+      <c r="AL177" s="267"/>
+      <c r="AM177" s="267"/>
+      <c r="AN177" s="267"/>
+      <c r="AO177" s="267"/>
+      <c r="AP177" s="268"/>
     </row>
     <row r="178" spans="1:42" s="121" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A178" s="113"/>
@@ -33082,45 +33109,45 @@
         <f t="shared" si="12"/>
         <v>RTFテンプレート</v>
       </c>
-      <c r="E185" s="260" t="s">
+      <c r="E185" s="257" t="s">
         <v>398</v>
       </c>
-      <c r="F185" s="261"/>
-      <c r="G185" s="261"/>
-      <c r="H185" s="261"/>
-      <c r="I185" s="261"/>
-      <c r="J185" s="262"/>
-      <c r="K185" s="260" t="s">
+      <c r="F185" s="258"/>
+      <c r="G185" s="258"/>
+      <c r="H185" s="258"/>
+      <c r="I185" s="258"/>
+      <c r="J185" s="259"/>
+      <c r="K185" s="257" t="s">
         <v>399</v>
       </c>
-      <c r="L185" s="261"/>
-      <c r="M185" s="262"/>
-      <c r="N185" s="260" t="s">
+      <c r="L185" s="258"/>
+      <c r="M185" s="259"/>
+      <c r="N185" s="257" t="s">
         <v>400</v>
       </c>
-      <c r="O185" s="262"/>
-      <c r="P185" s="260" t="s">
+      <c r="O185" s="259"/>
+      <c r="P185" s="257" t="s">
         <v>402</v>
       </c>
-      <c r="Q185" s="261"/>
-      <c r="R185" s="261"/>
-      <c r="S185" s="261"/>
-      <c r="T185" s="261"/>
-      <c r="U185" s="261"/>
-      <c r="V185" s="262"/>
-      <c r="W185" s="260" t="s">
+      <c r="Q185" s="258"/>
+      <c r="R185" s="258"/>
+      <c r="S185" s="258"/>
+      <c r="T185" s="258"/>
+      <c r="U185" s="258"/>
+      <c r="V185" s="259"/>
+      <c r="W185" s="257" t="s">
         <v>403</v>
       </c>
-      <c r="X185" s="261"/>
-      <c r="Y185" s="261"/>
-      <c r="Z185" s="261"/>
-      <c r="AA185" s="262"/>
-      <c r="AB185" s="260" t="s">
+      <c r="X185" s="258"/>
+      <c r="Y185" s="258"/>
+      <c r="Z185" s="258"/>
+      <c r="AA185" s="259"/>
+      <c r="AB185" s="257" t="s">
         <v>404</v>
       </c>
-      <c r="AC185" s="261"/>
-      <c r="AD185" s="261"/>
-      <c r="AE185" s="262"/>
+      <c r="AC185" s="258"/>
+      <c r="AD185" s="258"/>
+      <c r="AE185" s="259"/>
     </row>
     <row r="186" spans="1:42" s="121" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A186" s="113"/>
@@ -33361,41 +33388,41 @@
         <f t="shared" si="12"/>
         <v>PDFテンプレート</v>
       </c>
-      <c r="E191" s="260" t="s">
+      <c r="E191" s="257" t="s">
         <v>416</v>
       </c>
-      <c r="F191" s="261"/>
-      <c r="G191" s="261"/>
-      <c r="H191" s="261"/>
-      <c r="I191" s="261"/>
-      <c r="J191" s="262"/>
-      <c r="K191" s="260" t="s">
+      <c r="F191" s="258"/>
+      <c r="G191" s="258"/>
+      <c r="H191" s="258"/>
+      <c r="I191" s="258"/>
+      <c r="J191" s="259"/>
+      <c r="K191" s="257" t="s">
         <v>401</v>
       </c>
-      <c r="L191" s="261"/>
-      <c r="M191" s="261"/>
-      <c r="N191" s="261"/>
-      <c r="O191" s="261"/>
-      <c r="P191" s="261"/>
-      <c r="Q191" s="261"/>
-      <c r="R191" s="261"/>
-      <c r="S191" s="261"/>
-      <c r="T191" s="261"/>
-      <c r="U191" s="261"/>
-      <c r="V191" s="262"/>
-      <c r="W191" s="260" t="s">
+      <c r="L191" s="258"/>
+      <c r="M191" s="258"/>
+      <c r="N191" s="258"/>
+      <c r="O191" s="258"/>
+      <c r="P191" s="258"/>
+      <c r="Q191" s="258"/>
+      <c r="R191" s="258"/>
+      <c r="S191" s="258"/>
+      <c r="T191" s="258"/>
+      <c r="U191" s="258"/>
+      <c r="V191" s="259"/>
+      <c r="W191" s="257" t="s">
         <v>417</v>
       </c>
-      <c r="X191" s="261"/>
-      <c r="Y191" s="261"/>
-      <c r="Z191" s="261"/>
-      <c r="AA191" s="262"/>
-      <c r="AB191" s="260" t="s">
+      <c r="X191" s="258"/>
+      <c r="Y191" s="258"/>
+      <c r="Z191" s="258"/>
+      <c r="AA191" s="259"/>
+      <c r="AB191" s="257" t="s">
         <v>404</v>
       </c>
-      <c r="AC191" s="261"/>
-      <c r="AD191" s="261"/>
-      <c r="AE191" s="262"/>
+      <c r="AC191" s="258"/>
+      <c r="AD191" s="258"/>
+      <c r="AE191" s="259"/>
     </row>
     <row r="192" spans="1:42" s="121" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A192" s="113"/>
@@ -33478,38 +33505,38 @@
         <f t="shared" ref="C195:C196" si="13">C194</f>
         <v>通貨書式</v>
       </c>
-      <c r="D195" s="260" t="s">
+      <c r="D195" s="257" t="s">
         <v>419</v>
       </c>
-      <c r="E195" s="261"/>
-      <c r="F195" s="261"/>
-      <c r="G195" s="261"/>
-      <c r="H195" s="261"/>
-      <c r="I195" s="262"/>
-      <c r="J195" s="260" t="s">
+      <c r="E195" s="258"/>
+      <c r="F195" s="258"/>
+      <c r="G195" s="258"/>
+      <c r="H195" s="258"/>
+      <c r="I195" s="259"/>
+      <c r="J195" s="257" t="s">
         <v>420</v>
       </c>
-      <c r="K195" s="261"/>
-      <c r="L195" s="261"/>
-      <c r="M195" s="261"/>
-      <c r="N195" s="261"/>
-      <c r="O195" s="261"/>
-      <c r="P195" s="261"/>
-      <c r="Q195" s="261"/>
-      <c r="R195" s="261"/>
-      <c r="S195" s="261"/>
-      <c r="T195" s="261"/>
-      <c r="U195" s="261"/>
-      <c r="V195" s="261"/>
-      <c r="W195" s="261"/>
-      <c r="X195" s="261"/>
-      <c r="Y195" s="261"/>
-      <c r="Z195" s="261"/>
-      <c r="AA195" s="261"/>
-      <c r="AB195" s="261"/>
-      <c r="AC195" s="261"/>
-      <c r="AD195" s="261"/>
-      <c r="AE195" s="262"/>
+      <c r="K195" s="258"/>
+      <c r="L195" s="258"/>
+      <c r="M195" s="258"/>
+      <c r="N195" s="258"/>
+      <c r="O195" s="258"/>
+      <c r="P195" s="258"/>
+      <c r="Q195" s="258"/>
+      <c r="R195" s="258"/>
+      <c r="S195" s="258"/>
+      <c r="T195" s="258"/>
+      <c r="U195" s="258"/>
+      <c r="V195" s="258"/>
+      <c r="W195" s="258"/>
+      <c r="X195" s="258"/>
+      <c r="Y195" s="258"/>
+      <c r="Z195" s="258"/>
+      <c r="AA195" s="258"/>
+      <c r="AB195" s="258"/>
+      <c r="AC195" s="258"/>
+      <c r="AD195" s="258"/>
+      <c r="AE195" s="259"/>
     </row>
     <row r="196" spans="1:31" s="121" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A196" s="113"/>
